--- a/financial_models/Opportunities/6186.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6186.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69970603-EBE9-4CD5-A88D-8B31B07A5C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFFF8F47-BCFF-4C10-8CC0-6EC01706E560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -4438,7 +4438,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>5.73</v>
+        <v>5.86</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4488,7 +4488,7 @@
       <c r="H6" s="133"/>
       <c r="I6" s="390">
         <f>I4*I5/1000000</f>
-        <v>51961.082263920005</v>
+        <v>53139.954985440003</v>
       </c>
       <c r="J6" s="391"/>
       <c r="K6" s="151"/>
@@ -4499,11 +4499,11 @@
       </c>
       <c r="C7" s="145">
         <f>(Data!C39)/I4</f>
-        <v>6.5285033571278864E-2</v>
+        <v>6.3836730778741954E-2</v>
       </c>
       <c r="D7" s="145">
         <f>(Data!C40)/I4</f>
-        <v>7.017059385869941E-3</v>
+        <v>6.8613908329410861E-3</v>
       </c>
       <c r="E7" s="153"/>
       <c r="F7" s="6"/>
@@ -4530,11 +4530,11 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>6.6207164850071054</v>
+        <v>6.8062526457555332</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.15104105458443096</v>
+        <v>0.14692372617458049</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4553,11 +4553,11 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>2.0305531837401767</v>
+        <v>2.0874565480149943</v>
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>6.4571918027032336</v>
+        <v>6.6660378325813117</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4593,7 +4593,7 @@
       </c>
       <c r="H12" s="133"/>
       <c r="I12" s="135">
-        <v>1.1422218606795194</v>
+        <v>1.1362931448569271</v>
       </c>
       <c r="J12" s="136" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4611,21 +4611,21 @@
       </c>
       <c r="D14" s="184">
         <f ca="1">MIN('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>3.0176250291823106</v>
+        <v>2.9912841624348019</v>
       </c>
       <c r="E14" s="127" t="s">
         <v>235</v>
       </c>
       <c r="F14" s="184">
         <f ca="1">MAX('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>8.4687567600404332</v>
+        <v>8.4141217307870981</v>
       </c>
       <c r="G14" s="185" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="193">
         <f ca="1">IF('FCFF Model'!C32&lt;0, "Error", 'FCFF Model'!C32)</f>
-        <v>6.33674312091782</v>
+        <v>6.2931743331989694</v>
       </c>
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
@@ -4656,42 +4656,42 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>5.73</v>
+        <v>5.86</v>
       </c>
       <c r="C16" s="416">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
-        <v>5.8888518181186844E-3</v>
+        <v>-2.6079465324407997E-2</v>
       </c>
       <c r="E16" s="413">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
-        <v>0.31034167954662539</v>
+        <v>0.30873084745762708</v>
       </c>
       <c r="F16" s="161">
         <f>E16/B16</f>
-        <v>5.4160851578817691E-2</v>
+        <v>5.2684444958639429E-2</v>
       </c>
       <c r="G16" s="395" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="392">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>1.5540589142609396</v>
+        <v>1.5353147044166544</v>
       </c>
       <c r="I16" s="395" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>4.1759410857390611</v>
+        <v>4.3246852955833459</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="290">
         <f ca="1">H14/(1+C16)</f>
-        <v>5.7606755644707448</v>
+        <v>5.7210675756354261</v>
       </c>
       <c r="C17" s="417"/>
       <c r="D17" s="289">
@@ -4701,14 +4701,14 @@
       <c r="E17" s="414"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
-        <v>5.3872445353575063E-2</v>
+        <v>5.3963852615975617E-2</v>
       </c>
       <c r="G17" s="396"/>
       <c r="H17" s="393"/>
       <c r="I17" s="396"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
-        <v>4.2066166502098055</v>
+        <v>4.1857528712187717</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4719,19 +4719,19 @@
       <c r="C18" s="418"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
-        <v>0.22015481685787916</v>
+        <v>0.21107798608311876</v>
       </c>
       <c r="E18" s="415"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
-        <v>6.4654516572213633E-2</v>
+        <v>6.4318926553672315E-2</v>
       </c>
       <c r="G18" s="397"/>
       <c r="H18" s="394"/>
       <c r="I18" s="397"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
-        <v>3.2459410857390605</v>
+        <v>3.2646852955833454</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4834,7 +4834,7 @@
       </c>
       <c r="J25" s="349">
         <f ca="1">H14/(H25+C16+1)</f>
-        <v>5.0693944967342564</v>
+        <v>5.0345394665591758</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5020,7 +5020,7 @@
       <c r="H35" s="410"/>
       <c r="I35" s="371">
         <f ca="1">'FCFF Model'!C33*0.8</f>
-        <v>7.2406916582706877</v>
+        <v>7.1945664849821744</v>
       </c>
       <c r="J35" s="372"/>
     </row>
@@ -9297,7 +9297,7 @@
       </c>
       <c r="I4" s="91">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>2.7563670927940089</v>
+        <v>2.7420601374130298</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9314,11 +9314,11 @@
       <c r="C6" s="6"/>
       <c r="D6" s="59">
         <f>E46-I46-E50</f>
-        <v>11831820.904115371</v>
+        <v>11746605.726172531</v>
       </c>
       <c r="E6" s="14">
         <f>1-D6/D3</f>
-        <v>0.49394941743785636</v>
+        <v>0.49759409654435904</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -9337,7 +9337,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
-        <v>1.490316428067852</v>
+        <v>1.4719030743378418</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10202,11 +10202,11 @@
       </c>
       <c r="D50" s="214">
         <f>IF(E50=0, 0,E50/C50)</f>
-        <v>2.0305531837401767</v>
+        <v>2.0874565480149943</v>
       </c>
       <c r="E50" s="218">
         <f>MAX(C50,C50*Dashboard!I10)</f>
-        <v>3040838.6758846315</v>
+        <v>3126053.8538274704</v>
       </c>
       <c r="I50" s="157"/>
     </row>
@@ -10334,7 +10334,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="434">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>39083615.939804636</v>
+        <v>40347703.83926747</v>
       </c>
       <c r="E60" s="435"/>
       <c r="F60" s="6"/>
@@ -12188,7 +12188,7 @@
       </c>
       <c r="G18" s="137">
         <f>C18+C19+C20+C21</f>
-        <v>12337881.004115369</v>
+        <v>12252665.826172529</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12208,7 +12208,7 @@
       </c>
       <c r="G19" s="197">
         <f>G18*Data!C$4/Dashboard!I5</f>
-        <v>1.3605578458605354</v>
+        <v>1.3511607558012408</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12240,11 +12240,11 @@
       </c>
       <c r="C21" s="84">
         <f>-Asset_Model!E50</f>
-        <v>-3040838.6758846315</v>
+        <v>-3126053.8538274704</v>
       </c>
       <c r="D21" s="219">
         <f>C21/(Dashboard!I5/Data!C4)</f>
-        <v>-0.3353279965247678</v>
+        <v>-0.34472508658406231</v>
       </c>
       <c r="E21" s="439"/>
       <c r="F21" s="148">
@@ -12253,7 +12253,7 @@
       </c>
       <c r="G21" s="147">
         <f>SUM(D19:D21)</f>
-        <v>-0.4550817743693974</v>
+        <v>-0.46447886442869191</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12319,7 +12319,7 @@
       </c>
       <c r="G25" s="206">
         <f ca="1">$F$25+E25+$G$19</f>
-        <v>4.6475979086023322</v>
+        <v>4.6382008185430372</v>
       </c>
       <c r="I25" s="74"/>
     </row>
@@ -12341,7 +12341,7 @@
       <c r="F26" s="441"/>
       <c r="G26" s="207">
         <f ca="1">$F$25+E26+$G$19</f>
-        <v>7.4142835569635164</v>
+        <v>7.4048864669042214</v>
       </c>
       <c r="I26" s="74" t="s">
         <v>311</v>
@@ -12377,7 +12377,7 @@
       </c>
       <c r="C29" s="252">
         <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)</f>
-        <v>3.0176250291823106</v>
+        <v>2.9912841624348019</v>
       </c>
       <c r="D29" s="23" t="str">
         <f ca="1">IF(C29&lt;E29,"&lt;",IF(C29=E29,"=","&gt;"))</f>
@@ -12385,7 +12385,7 @@
       </c>
       <c r="E29" s="251">
         <f ca="1">G26*Exchange_Rate</f>
-        <v>8.4687567600404332</v>
+        <v>8.4141217307870981</v>
       </c>
       <c r="F29" s="30"/>
       <c r="H29" s="6"/>
@@ -12421,7 +12421,7 @@
       </c>
       <c r="C32" s="253">
         <f ca="1">MIN(C29,E29)+ABS(C29-E29)*'Qualitative Analysis'!$E$64</f>
-        <v>6.33674312091782</v>
+        <v>6.2931743331989694</v>
       </c>
       <c r="D32" s="119" t="str">
         <f>Dashboard!J4</f>
@@ -12429,11 +12429,11 @@
       </c>
       <c r="E32" s="120">
         <f ca="1">(C32-G19)/C9</f>
-        <v>11.422349513310797</v>
+        <v>11.343911703511576</v>
       </c>
       <c r="F32" s="158">
         <f ca="1">C32/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>2.2455661289220492</v>
+        <v>2.2417624521563284</v>
       </c>
       <c r="G32" s="87"/>
       <c r="H32" s="6"/>
@@ -12445,7 +12445,7 @@
       </c>
       <c r="C33" s="254">
         <f ca="1">MAX(Asset_Model!D7,(G12/(1+G33)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>9.0508645728383588</v>
+        <v>8.9932081062277174</v>
       </c>
       <c r="D33" s="208" t="str">
         <f>D32</f>
@@ -12453,11 +12453,11 @@
       </c>
       <c r="E33" s="120">
         <f ca="1">(C33-G19)/C9</f>
-        <v>17.652351438842814</v>
+        <v>17.541576731754038</v>
       </c>
       <c r="F33" s="158">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>3.2073755451968768</v>
+        <v>3.203571868431156</v>
       </c>
       <c r="G33" s="281">
         <f>Dashboard!D10+4.5%</f>

--- a/financial_models/Opportunities/6186.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6186.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFFF8F47-BCFF-4C10-8CC0-6EC01706E560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D6D2B6-40C8-466F-A421-5F82C7B143CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="324">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1132,6 +1132,9 @@
   </si>
   <si>
     <t>Book Cash Ratio</t>
+  </si>
+  <si>
+    <t>Expected Upside</t>
   </si>
 </sst>
 </file>
@@ -2872,7 +2875,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="443">
+  <cellXfs count="444">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3762,6 +3765,169 @@
     <xf numFmtId="184" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3772,26 +3938,12 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3802,155 +3954,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3994,6 +3997,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4367,8 +4373,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:F29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4412,33 +4418,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="374" t="s">
+      <c r="C3" s="393" t="s">
         <v>301</v>
       </c>
-      <c r="D3" s="375"/>
+      <c r="D3" s="394"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="386" t="s">
+      <c r="I3" s="403" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="387"/>
+      <c r="J3" s="404"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="376" t="s">
+      <c r="C4" s="395" t="s">
         <v>302</v>
       </c>
-      <c r="D4" s="377"/>
+      <c r="D4" s="396"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>5.86</v>
+        <v>5.61</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4449,10 +4455,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="378">
+      <c r="C5" s="397">
         <v>44501</v>
       </c>
-      <c r="D5" s="377"/>
+      <c r="D5" s="396"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4460,10 +4466,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="388">
+      <c r="I5" s="372">
         <v>9068251704</v>
       </c>
-      <c r="J5" s="389"/>
+      <c r="J5" s="373"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4486,11 +4492,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="390">
+      <c r="I6" s="405">
         <f>I4*I5/1000000</f>
-        <v>53139.954985440003</v>
-      </c>
-      <c r="J6" s="391"/>
+        <v>50872.892059440004</v>
+      </c>
+      <c r="J6" s="406"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4499,11 +4505,11 @@
       </c>
       <c r="C7" s="145">
         <f>(Data!C39)/I4</f>
-        <v>6.3836730778741954E-2</v>
+        <v>6.6681504877616371E-2</v>
       </c>
       <c r="D7" s="145">
         <f>(Data!C40)/I4</f>
-        <v>6.8613908329410861E-3</v>
+        <v>7.1671569128404214E-3</v>
       </c>
       <c r="E7" s="153"/>
       <c r="F7" s="6"/>
@@ -4530,11 +4536,11 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>6.8062526457555332</v>
+        <v>6.4920777468357853</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.14692372617458049</v>
+        <v>0.15403389161311204</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4553,47 +4559,47 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>2.0874565480149943</v>
+        <v>1.9911000822612643</v>
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>6.6660378325813117</v>
+        <v>6.2676453427772927</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="313" t="s">
         <v>276</v>
       </c>
-      <c r="C11" s="402">
+      <c r="C11" s="384">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="403"/>
+      <c r="D11" s="385"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="400" t="s">
+      <c r="I11" s="381" t="s">
         <v>303</v>
       </c>
-      <c r="J11" s="401"/>
+      <c r="J11" s="382"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="314" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="404">
+      <c r="C12" s="386">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="405"/>
+      <c r="D12" s="387"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="133"/>
       <c r="I12" s="135">
-        <v>1.1362931448569271</v>
+        <v>1.1404598109878687</v>
       </c>
       <c r="J12" s="136" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4611,21 +4617,21 @@
       </c>
       <c r="D14" s="184">
         <f ca="1">MIN('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>2.9912841624348019</v>
+        <v>3.0204003619776394</v>
       </c>
       <c r="E14" s="127" t="s">
         <v>235</v>
       </c>
       <c r="F14" s="184">
         <f ca="1">MAX('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>8.4141217307870981</v>
+        <v>8.4631228990388649</v>
       </c>
       <c r="G14" s="185" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="193">
         <f ca="1">IF('FCFF Model'!C32&lt;0, "Error", 'FCFF Model'!C32)</f>
-        <v>6.2931743331989694</v>
+        <v>6.3343982128812879</v>
       </c>
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
@@ -4656,59 +4662,59 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>5.86</v>
-      </c>
-      <c r="C16" s="416">
+        <v>5.61</v>
+      </c>
+      <c r="C16" s="363">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-2.6079465324407997E-2</v>
-      </c>
-      <c r="E16" s="413">
+        <v>2.912624115530979E-2</v>
+      </c>
+      <c r="E16" s="358">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
-        <v>0.30873084745762708</v>
+        <v>0.30986293064540393</v>
       </c>
       <c r="F16" s="161">
         <f>E16/B16</f>
-        <v>5.2684444958639429E-2</v>
-      </c>
-      <c r="G16" s="395" t="s">
+        <v>5.5234033983137955E-2</v>
+      </c>
+      <c r="G16" s="366" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="392">
+      <c r="H16" s="407">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>1.5353147044166544</v>
-      </c>
-      <c r="I16" s="395" t="s">
+        <v>1.5590920187819586</v>
+      </c>
+      <c r="I16" s="366" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>4.3246852955833459</v>
+        <v>4.0509079812180415</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="290">
         <f ca="1">H14/(1+C16)</f>
-        <v>5.7210675756354261</v>
-      </c>
-      <c r="C17" s="417"/>
+        <v>5.758543829892079</v>
+      </c>
+      <c r="C17" s="364"/>
       <c r="D17" s="289">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="414"/>
+      <c r="E17" s="359"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
-        <v>5.3963852615975617E-2</v>
-      </c>
-      <c r="G17" s="396"/>
-      <c r="H17" s="393"/>
-      <c r="I17" s="396"/>
+        <v>5.3809251053527379E-2</v>
+      </c>
+      <c r="G17" s="367"/>
+      <c r="H17" s="408"/>
+      <c r="I17" s="367"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
-        <v>4.1857528712187717</v>
+        <v>4.1994518111101202</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4716,22 +4722,22 @@
         <f>C35</f>
         <v>4.8</v>
       </c>
-      <c r="C18" s="418"/>
+      <c r="C18" s="365"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
-        <v>0.21107798608311876</v>
-      </c>
-      <c r="E18" s="415"/>
+        <v>0.21966629435026838</v>
+      </c>
+      <c r="E18" s="360"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
-        <v>6.4318926553672315E-2</v>
-      </c>
-      <c r="G18" s="397"/>
-      <c r="H18" s="394"/>
-      <c r="I18" s="397"/>
+        <v>6.4554777217792486E-2</v>
+      </c>
+      <c r="G18" s="368"/>
+      <c r="H18" s="409"/>
+      <c r="I18" s="368"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
-        <v>3.2646852955833454</v>
+        <v>3.240907981218041</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4762,42 +4768,42 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="381"/>
-      <c r="D21" s="382"/>
-      <c r="E21" s="382"/>
-      <c r="F21" s="382"/>
-      <c r="G21" s="382"/>
-      <c r="H21" s="382"/>
-      <c r="I21" s="382"/>
-      <c r="J21" s="383"/>
+      <c r="C21" s="400"/>
+      <c r="D21" s="401"/>
+      <c r="E21" s="401"/>
+      <c r="F21" s="401"/>
+      <c r="G21" s="401"/>
+      <c r="H21" s="401"/>
+      <c r="I21" s="401"/>
+      <c r="J21" s="402"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="399"/>
-      <c r="D22" s="365"/>
-      <c r="E22" s="365"/>
-      <c r="F22" s="365"/>
-      <c r="G22" s="399"/>
-      <c r="H22" s="399"/>
-      <c r="I22" s="365"/>
-      <c r="J22" s="365"/>
+      <c r="C22" s="383"/>
+      <c r="D22" s="378"/>
+      <c r="E22" s="378"/>
+      <c r="F22" s="378"/>
+      <c r="G22" s="383"/>
+      <c r="H22" s="383"/>
+      <c r="I22" s="378"/>
+      <c r="J22" s="378"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="384"/>
-      <c r="D23" s="385"/>
-      <c r="E23" s="385"/>
-      <c r="F23" s="385"/>
-      <c r="G23" s="384"/>
-      <c r="H23" s="384"/>
-      <c r="I23" s="385"/>
-      <c r="J23" s="385"/>
+      <c r="C23" s="361"/>
+      <c r="D23" s="362"/>
+      <c r="E23" s="362"/>
+      <c r="F23" s="362"/>
+      <c r="G23" s="361"/>
+      <c r="H23" s="361"/>
+      <c r="I23" s="362"/>
+      <c r="J23" s="362"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4834,205 +4840,214 @@
       </c>
       <c r="J25" s="349">
         <f ca="1">H14/(H25+C16+1)</f>
-        <v>5.0345394665591758</v>
+        <v>5.0675185703050305</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="379">
+      <c r="C26" s="398">
         <v>44501</v>
       </c>
-      <c r="D26" s="380"/>
-      <c r="E26" s="406" t="str">
+      <c r="D26" s="399"/>
+      <c r="E26" s="388" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="407"/>
-      <c r="G26" s="407"/>
-      <c r="H26" s="408"/>
-      <c r="I26" s="398" t="s">
+      <c r="F26" s="389"/>
+      <c r="G26" s="389"/>
+      <c r="H26" s="390"/>
+      <c r="I26" s="410" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="398"/>
+      <c r="J26" s="410"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="412">
+      <c r="C27" s="357">
         <f>C31/D25</f>
         <v>7.3866666666666664E-2</v>
       </c>
-      <c r="D27" s="363"/>
-      <c r="E27" s="411">
+      <c r="D27" s="356"/>
+      <c r="E27" s="355">
         <f>E31/D25</f>
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="F27" s="363"/>
-      <c r="G27" s="420">
+      <c r="F27" s="356"/>
+      <c r="G27" s="370">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="421"/>
-      <c r="I27" s="419">
+      <c r="H27" s="371"/>
+      <c r="I27" s="369">
         <f>C27+E27+G27</f>
         <v>0.13786666666666667</v>
       </c>
-      <c r="J27" s="419"/>
+      <c r="J27" s="369"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="364">
+      <c r="C28" s="391">
         <v>4000</v>
       </c>
-      <c r="D28" s="365"/>
-      <c r="E28" s="364">
+      <c r="D28" s="378"/>
+      <c r="E28" s="391">
         <v>8000</v>
       </c>
-      <c r="F28" s="365"/>
-      <c r="G28" s="388"/>
-      <c r="H28" s="389"/>
-      <c r="I28" s="352">
+      <c r="F28" s="378"/>
+      <c r="G28" s="372"/>
+      <c r="H28" s="373"/>
+      <c r="I28" s="413">
         <f>C28+E28+G28</f>
         <v>12000</v>
       </c>
-      <c r="J28" s="352"/>
+      <c r="J28" s="413"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="366">
+      <c r="C29" s="377">
         <v>11.08</v>
       </c>
-      <c r="D29" s="365"/>
-      <c r="E29" s="366">
+      <c r="D29" s="378"/>
+      <c r="E29" s="377">
         <v>4.8</v>
       </c>
-      <c r="F29" s="365"/>
-      <c r="G29" s="367"/>
-      <c r="H29" s="368"/>
-      <c r="I29" s="422"/>
-      <c r="J29" s="422"/>
+      <c r="F29" s="378"/>
+      <c r="G29" s="422"/>
+      <c r="H29" s="423"/>
+      <c r="I29" s="374"/>
+      <c r="J29" s="374"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="357">
+      <c r="C30" s="411">
         <f>C29*$I$5/1000000</f>
         <v>100476.22888032001</v>
       </c>
-      <c r="D30" s="358"/>
-      <c r="E30" s="357">
+      <c r="D30" s="418"/>
+      <c r="E30" s="411">
         <f>E29*$I$5/1000000</f>
         <v>43527.608179199997</v>
       </c>
-      <c r="F30" s="358"/>
-      <c r="G30" s="369">
+      <c r="F30" s="418"/>
+      <c r="G30" s="424">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="370"/>
-      <c r="I30" s="423"/>
-      <c r="J30" s="423"/>
+      <c r="H30" s="425"/>
+      <c r="I30" s="375"/>
+      <c r="J30" s="375"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="359">
+      <c r="C31" s="419">
         <f>C28*C29</f>
         <v>44320</v>
       </c>
-      <c r="D31" s="360"/>
-      <c r="E31" s="351">
+      <c r="D31" s="420"/>
+      <c r="E31" s="412">
         <f>E28*E29</f>
         <v>38400</v>
       </c>
-      <c r="F31" s="361"/>
-      <c r="G31" s="424">
+      <c r="F31" s="421"/>
+      <c r="G31" s="379">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="425"/>
-      <c r="I31" s="351">
+      <c r="H31" s="380"/>
+      <c r="I31" s="412">
         <f>C31+E31+G31</f>
         <v>82720</v>
       </c>
-      <c r="J31" s="351"/>
+      <c r="J31" s="412"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="353"/>
-      <c r="D32" s="354"/>
-      <c r="E32" s="362">
+      <c r="C32" s="414"/>
+      <c r="D32" s="415"/>
+      <c r="E32" s="376">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>6.8933333333333335</v>
       </c>
-      <c r="F32" s="363"/>
+      <c r="F32" s="356"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="362">
+      <c r="I32" s="376">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>6.8933333333333335</v>
       </c>
-      <c r="J32" s="362"/>
+      <c r="J32" s="376"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="355"/>
-      <c r="D33" s="356"/>
-      <c r="E33" s="357">
+      <c r="C33" s="416"/>
+      <c r="D33" s="417"/>
+      <c r="E33" s="411">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>62510.481746240002</v>
       </c>
-      <c r="F33" s="358"/>
+      <c r="F33" s="418"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="357">
+      <c r="I33" s="411">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>62510.481746240002</v>
       </c>
-      <c r="J33" s="357"/>
+      <c r="J33" s="411"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>315</v>
       </c>
-      <c r="C35" s="371">
+      <c r="C35" s="353">
         <f>E29</f>
         <v>4.8</v>
       </c>
-      <c r="D35" s="372"/>
-      <c r="G35" s="409" t="s">
+      <c r="D35" s="354"/>
+      <c r="G35" s="351" t="s">
         <v>319</v>
       </c>
-      <c r="H35" s="410"/>
-      <c r="I35" s="371">
+      <c r="H35" s="352"/>
+      <c r="I35" s="353">
         <f ca="1">'FCFF Model'!C33*0.8</f>
-        <v>7.1945664849821744</v>
-      </c>
-      <c r="J35" s="372"/>
+        <v>7.2354661781114276</v>
+      </c>
+      <c r="J35" s="354"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>316</v>
       </c>
-      <c r="C36" s="364">
+      <c r="C36" s="391">
         <f>E28</f>
         <v>8000</v>
       </c>
-      <c r="D36" s="373"/>
+      <c r="D36" s="392"/>
+      <c r="G36" s="443" t="s">
+        <v>323</v>
+      </c>
+      <c r="H36" s="443"/>
+      <c r="I36" s="432">
+        <f ca="1">I35/C29-1</f>
+        <v>-0.34697958681304808</v>
+      </c>
+      <c r="J36" s="433"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5965,7 +5980,45 @@
     <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="54">
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E26:H26"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="E27:F27"/>
@@ -5982,86 +6035,55 @@
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
   </mergeCells>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="15" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:D26 I26 C28:G29 I28:I29">
-    <cfRule type="containsBlanks" priority="17">
+    <cfRule type="containsBlanks" priority="18">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="4">
+    <cfRule type="containsBlanks" priority="5">
       <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J35">
-    <cfRule type="containsBlanks" priority="3">
+    <cfRule type="containsBlanks" priority="4">
       <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="containsBlanks" priority="2">
+    <cfRule type="containsBlanks" priority="3">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="11" priority="2">
       <formula>LEN(TRIM(E26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:J36">
+    <cfRule type="containsBlanks" priority="1">
+      <formula>LEN(TRIM(I36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -9297,7 +9319,7 @@
       </c>
       <c r="I4" s="91">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>2.7420601374130298</v>
+        <v>2.7521149803514717</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9314,11 +9336,11 @@
       <c r="C6" s="6"/>
       <c r="D6" s="59">
         <f>E46-I46-E50</f>
-        <v>11746605.726172531</v>
+        <v>11890903.580610303</v>
       </c>
       <c r="E6" s="14">
         <f>1-D6/D3</f>
-        <v>0.49759409654435904</v>
+        <v>0.49142243337497293</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -9337,7 +9359,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
-        <v>1.4719030743378418</v>
+        <v>1.4954478649987193</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10202,11 +10224,11 @@
       </c>
       <c r="D50" s="214">
         <f>IF(E50=0, 0,E50/C50)</f>
-        <v>2.0874565480149943</v>
+        <v>1.9911000822612643</v>
       </c>
       <c r="E50" s="218">
         <f>MAX(C50,C50*Dashboard!I10)</f>
-        <v>3126053.8538274704</v>
+        <v>2981755.9993896983</v>
       </c>
       <c r="I50" s="157"/>
     </row>
@@ -10237,7 +10259,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>1183453</v>
       </c>
-      <c r="E53" s="360"/>
+      <c r="E53" s="420"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10256,7 +10278,7 @@
       <c r="D54" s="436">
         <v>0</v>
       </c>
-      <c r="E54" s="365"/>
+      <c r="E54" s="378"/>
       <c r="F54" s="6" t="s">
         <v>137</v>
       </c>
@@ -10270,7 +10292,7 @@
       <c r="D55" s="436">
         <v>0</v>
       </c>
-      <c r="E55" s="365"/>
+      <c r="E55" s="378"/>
       <c r="F55" s="5" t="s">
         <v>138</v>
       </c>
@@ -10334,7 +10356,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="434">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>40347703.83926747</v>
+        <v>37936343.058829702</v>
       </c>
       <c r="E60" s="435"/>
       <c r="F60" s="6"/>
@@ -12188,7 +12210,7 @@
       </c>
       <c r="G18" s="137">
         <f>C18+C19+C20+C21</f>
-        <v>12252665.826172529</v>
+        <v>12396963.680610301</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12208,7 +12230,7 @@
       </c>
       <c r="G19" s="197">
         <f>G18*Data!C$4/Dashboard!I5</f>
-        <v>1.3511607558012408</v>
+        <v>1.3670731785203984</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12240,11 +12262,11 @@
       </c>
       <c r="C21" s="84">
         <f>-Asset_Model!E50</f>
-        <v>-3126053.8538274704</v>
+        <v>-2981755.9993896983</v>
       </c>
       <c r="D21" s="219">
         <f>C21/(Dashboard!I5/Data!C4)</f>
-        <v>-0.34472508658406231</v>
+        <v>-0.32881266386490438</v>
       </c>
       <c r="E21" s="439"/>
       <c r="F21" s="148">
@@ -12253,7 +12275,7 @@
       </c>
       <c r="G21" s="147">
         <f>SUM(D19:D21)</f>
-        <v>-0.46447886442869191</v>
+        <v>-0.44856644170953397</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12319,7 +12341,7 @@
       </c>
       <c r="G25" s="206">
         <f ca="1">$F$25+E25+$G$19</f>
-        <v>4.6382008185430372</v>
+        <v>4.6541132412621948</v>
       </c>
       <c r="I25" s="74"/>
     </row>
@@ -12341,7 +12363,7 @@
       <c r="F26" s="441"/>
       <c r="G26" s="207">
         <f ca="1">$F$25+E26+$G$19</f>
-        <v>7.4048864669042214</v>
+        <v>7.420798889623379</v>
       </c>
       <c r="I26" s="74" t="s">
         <v>311</v>
@@ -12377,7 +12399,7 @@
       </c>
       <c r="C29" s="252">
         <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)</f>
-        <v>2.9912841624348019</v>
+        <v>3.0204003619776394</v>
       </c>
       <c r="D29" s="23" t="str">
         <f ca="1">IF(C29&lt;E29,"&lt;",IF(C29=E29,"=","&gt;"))</f>
@@ -12385,7 +12407,7 @@
       </c>
       <c r="E29" s="251">
         <f ca="1">G26*Exchange_Rate</f>
-        <v>8.4141217307870981</v>
+        <v>8.4631228990388649</v>
       </c>
       <c r="F29" s="30"/>
       <c r="H29" s="6"/>
@@ -12421,7 +12443,7 @@
       </c>
       <c r="C32" s="253">
         <f ca="1">MIN(C29,E29)+ABS(C29-E29)*'Qualitative Analysis'!$E$64</f>
-        <v>6.2931743331989694</v>
+        <v>6.3343982128812879</v>
       </c>
       <c r="D32" s="119" t="str">
         <f>Dashboard!J4</f>
@@ -12429,11 +12451,11 @@
       </c>
       <c r="E32" s="120">
         <f ca="1">(C32-G19)/C9</f>
-        <v>11.343911703511576</v>
+        <v>11.402011692186338</v>
       </c>
       <c r="F32" s="158">
         <f ca="1">C32/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>2.2417624521563284</v>
+        <v>2.2482033516476894</v>
       </c>
       <c r="G32" s="87"/>
       <c r="H32" s="6"/>
@@ -12445,7 +12467,7 @@
       </c>
       <c r="C33" s="254">
         <f ca="1">MAX(Asset_Model!D7,(G12/(1+G33)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>8.9932081062277174</v>
+        <v>9.0443327226392842</v>
       </c>
       <c r="D33" s="208" t="str">
         <f>D32</f>
@@ -12453,11 +12475,11 @@
       </c>
       <c r="E33" s="120">
         <f ca="1">(C33-G19)/C9</f>
-        <v>17.541576731754038</v>
+        <v>17.622402899039475</v>
       </c>
       <c r="F33" s="158">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>3.203571868431156</v>
+        <v>3.2100127679225174</v>
       </c>
       <c r="G33" s="281">
         <f>Dashboard!D10+4.5%</f>

--- a/financial_models/Opportunities/6186.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6186.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D6D2B6-40C8-466F-A421-5F82C7B143CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9153B788-16B6-46BE-BE6C-0F9AAB8A07B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="336">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1135,6 +1135,60 @@
   </si>
   <si>
     <t>Expected Upside</t>
+  </si>
+  <si>
+    <t>Allocation Analysis</t>
+  </si>
+  <si>
+    <t>1. The valuation quality rating (proxy of the "Error Term")</t>
+  </si>
+  <si>
+    <t>2. The probability of correctly forecasting the FCF based on the investment category</t>
+  </si>
+  <si>
+    <t>3. The business quality rating (proxy for not overestimating the exit)</t>
+  </si>
+  <si>
+    <t>4. The probability of a recession affecting the company</t>
+  </si>
+  <si>
+    <t>5. Is the upside very attractive?</t>
+  </si>
+  <si>
+    <t>A = Upside in event of a win</t>
+  </si>
+  <si>
+    <t>B = Downside in event of a loss</t>
+  </si>
+  <si>
+    <t>W = The expected probability of win given expected upside</t>
+  </si>
+  <si>
+    <t>R = A/B</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>⇒ Half Kelly %</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = [W – (1 – W)/R] /2</t>
+    </r>
+  </si>
+  <si>
+    <t>capped at</t>
   </si>
 </sst>
 </file>
@@ -2875,7 +2929,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="444">
+  <cellXfs count="450">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3843,6 +3897,9 @@
     <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3871,6 +3928,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3925,9 +3988,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3950,12 +4017,6 @@
     <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3968,10 +4029,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3999,7 +4056,20 @@
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4008,17 +4078,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4027,16 +4087,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4062,22 +4118,11 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -4104,9 +4149,28 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDD7E6B"/>
+          <bgColor rgb="FFDD7E6B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4131,20 +4195,19 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDD7E6B"/>
-          <bgColor rgb="FFDD7E6B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4373,8 +4436,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36:J36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4418,27 +4481,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="393" t="s">
+      <c r="C3" s="396" t="s">
         <v>301</v>
       </c>
-      <c r="D3" s="394"/>
+      <c r="D3" s="397"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="403" t="s">
+      <c r="I3" s="406" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="404"/>
+      <c r="J3" s="407"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="395" t="s">
+      <c r="C4" s="398" t="s">
         <v>302</v>
       </c>
-      <c r="D4" s="396"/>
+      <c r="D4" s="399"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4455,10 +4518,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="397">
+      <c r="C5" s="400">
         <v>44501</v>
       </c>
-      <c r="D5" s="396"/>
+      <c r="D5" s="399"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4492,11 +4555,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="405">
+      <c r="I6" s="408">
         <f>I4*I5/1000000</f>
         <v>50872.892059440004</v>
       </c>
-      <c r="J6" s="406"/>
+      <c r="J6" s="409"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4570,30 +4633,30 @@
       <c r="B11" s="313" t="s">
         <v>276</v>
       </c>
-      <c r="C11" s="384">
+      <c r="C11" s="385">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="385"/>
+      <c r="D11" s="386"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="381" t="s">
+      <c r="I11" s="382" t="s">
         <v>303</v>
       </c>
-      <c r="J11" s="382"/>
+      <c r="J11" s="383"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="314" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="386">
+      <c r="C12" s="387">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="387"/>
+      <c r="D12" s="388"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4682,7 +4745,7 @@
       <c r="G16" s="366" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="407">
+      <c r="H16" s="410">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>1.5590920187819586</v>
       </c>
@@ -4710,7 +4773,7 @@
         <v>5.3809251053527379E-2</v>
       </c>
       <c r="G17" s="367"/>
-      <c r="H17" s="408"/>
+      <c r="H17" s="411"/>
       <c r="I17" s="367"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
@@ -4733,7 +4796,7 @@
         <v>6.4554777217792486E-2</v>
       </c>
       <c r="G18" s="368"/>
-      <c r="H18" s="409"/>
+      <c r="H18" s="412"/>
       <c r="I18" s="368"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
@@ -4768,26 +4831,26 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="400"/>
-      <c r="D21" s="401"/>
-      <c r="E21" s="401"/>
-      <c r="F21" s="401"/>
-      <c r="G21" s="401"/>
-      <c r="H21" s="401"/>
-      <c r="I21" s="401"/>
-      <c r="J21" s="402"/>
+      <c r="C21" s="403"/>
+      <c r="D21" s="404"/>
+      <c r="E21" s="404"/>
+      <c r="F21" s="404"/>
+      <c r="G21" s="404"/>
+      <c r="H21" s="404"/>
+      <c r="I21" s="404"/>
+      <c r="J21" s="405"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="383"/>
+      <c r="C22" s="384"/>
       <c r="D22" s="378"/>
       <c r="E22" s="378"/>
       <c r="F22" s="378"/>
-      <c r="G22" s="383"/>
-      <c r="H22" s="383"/>
+      <c r="G22" s="384"/>
+      <c r="H22" s="384"/>
       <c r="I22" s="378"/>
       <c r="J22" s="378"/>
     </row>
@@ -4847,21 +4910,21 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="398">
+      <c r="C26" s="401">
         <v>44501</v>
       </c>
-      <c r="D26" s="399"/>
-      <c r="E26" s="388" t="str">
+      <c r="D26" s="402"/>
+      <c r="E26" s="389" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="389"/>
-      <c r="G26" s="389"/>
-      <c r="H26" s="390"/>
-      <c r="I26" s="410" t="s">
+      <c r="F26" s="390"/>
+      <c r="G26" s="390"/>
+      <c r="H26" s="391"/>
+      <c r="I26" s="413" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="410"/>
+      <c r="J26" s="413"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
@@ -4892,21 +4955,21 @@
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="391">
+      <c r="C28" s="394">
         <v>4000</v>
       </c>
       <c r="D28" s="378"/>
-      <c r="E28" s="391">
+      <c r="E28" s="394">
         <v>8000</v>
       </c>
       <c r="F28" s="378"/>
       <c r="G28" s="372"/>
       <c r="H28" s="373"/>
-      <c r="I28" s="413">
+      <c r="I28" s="418">
         <f>C28+E28+G28</f>
         <v>12000</v>
       </c>
-      <c r="J28" s="413"/>
+      <c r="J28" s="418"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
@@ -4920,8 +4983,8 @@
         <v>4.8</v>
       </c>
       <c r="F29" s="378"/>
-      <c r="G29" s="422"/>
-      <c r="H29" s="423"/>
+      <c r="G29" s="427"/>
+      <c r="H29" s="428"/>
       <c r="I29" s="374"/>
       <c r="J29" s="374"/>
     </row>
@@ -4929,21 +4992,21 @@
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="411">
+      <c r="C30" s="381">
         <f>C29*$I$5/1000000</f>
         <v>100476.22888032001</v>
       </c>
-      <c r="D30" s="418"/>
-      <c r="E30" s="411">
+      <c r="D30" s="423"/>
+      <c r="E30" s="381">
         <f>E29*$I$5/1000000</f>
         <v>43527.608179199997</v>
       </c>
-      <c r="F30" s="418"/>
-      <c r="G30" s="424">
+      <c r="F30" s="423"/>
+      <c r="G30" s="392">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="425"/>
+      <c r="H30" s="393"/>
       <c r="I30" s="375"/>
       <c r="J30" s="375"/>
     </row>
@@ -4951,33 +5014,33 @@
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="419">
+      <c r="C31" s="424">
         <f>C28*C29</f>
         <v>44320</v>
       </c>
-      <c r="D31" s="420"/>
-      <c r="E31" s="412">
+      <c r="D31" s="425"/>
+      <c r="E31" s="417">
         <f>E28*E29</f>
         <v>38400</v>
       </c>
-      <c r="F31" s="421"/>
+      <c r="F31" s="426"/>
       <c r="G31" s="379">
         <f>G28*G29</f>
         <v>0</v>
       </c>
       <c r="H31" s="380"/>
-      <c r="I31" s="412">
+      <c r="I31" s="417">
         <f>C31+E31+G31</f>
         <v>82720</v>
       </c>
-      <c r="J31" s="412"/>
+      <c r="J31" s="417"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="414"/>
-      <c r="D32" s="415"/>
+      <c r="C32" s="419"/>
+      <c r="D32" s="420"/>
       <c r="E32" s="376">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>6.8933333333333335</v>
@@ -4995,20 +5058,20 @@
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="416"/>
-      <c r="D33" s="417"/>
-      <c r="E33" s="411">
+      <c r="C33" s="421"/>
+      <c r="D33" s="422"/>
+      <c r="E33" s="381">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>62510.481746240002</v>
       </c>
-      <c r="F33" s="418"/>
+      <c r="F33" s="423"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="411">
+      <c r="I33" s="381">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>62510.481746240002</v>
       </c>
-      <c r="J33" s="411"/>
+      <c r="J33" s="381"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5034,49 +5097,148 @@
       <c r="B36" s="146" t="s">
         <v>316</v>
       </c>
-      <c r="C36" s="391">
+      <c r="C36" s="394">
         <f>E28</f>
         <v>8000</v>
       </c>
-      <c r="D36" s="392"/>
-      <c r="G36" s="443" t="s">
+      <c r="D36" s="395"/>
+      <c r="G36" s="414" t="s">
         <v>323</v>
       </c>
-      <c r="H36" s="443"/>
-      <c r="I36" s="432">
+      <c r="H36" s="414"/>
+      <c r="I36" s="415">
         <f ca="1">I35/C29-1</f>
         <v>-0.34697958681304808</v>
       </c>
-      <c r="J36" s="433"/>
+      <c r="J36" s="416"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="G38" s="72" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F39" s="214">
+        <f>'Qualitative Analysis'!E8</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F40" s="214">
+        <f>80%-(5%*IF(LEFT(D20,2)="St",1,IF(LEFT(D20,2)="Sl",2,IF(LEFT(D20,2)="Cy",3,IF(LEFT(D20,2)="Fa",4,IF(LEFT(D20,2)="Tu",5,0))))))</f>
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E41" s="444">
+        <f ca="1">I35/C29-1</f>
+        <v>-0.34697958681304808</v>
+      </c>
+      <c r="F41" s="445">
+        <f>'Qualitative Analysis'!E64</f>
+        <v>0.60888605442176869</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F42" s="446">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E43" s="444">
+        <f>IF(F43="Strongly disagree",0,IF(F43="disagree",1,IF(F43="unclear",2,IF(F43="agree",3,4))))/4</f>
+        <v>0.75</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
     <row r="44" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F45" s="445">
+        <f ca="1">I35/C29-1</f>
+        <v>-0.34697958681304808</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F46" s="445">
+        <f ca="1">'FCFF Model'!C29/C29-1</f>
+        <v>-0.72740068935219859</v>
+      </c>
+    </row>
     <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F48" s="214">
+        <f>AVERAGE(F39:F41,1-F42,E43)</f>
+        <v>0.57177721088435374</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F49" s="447">
+        <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
+        <v>-0.47701300245131439</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F50" s="448">
+        <f ca="1">MIN((F48-(1-F48)/F49)/2,H50)</f>
+        <v>0.3</v>
+      </c>
+      <c r="G50" s="449" t="s">
+        <v>335</v>
+      </c>
+      <c r="H50" s="78">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5981,7 +6143,6 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="G36:H36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I28:J28"/>
@@ -5997,7 +6158,6 @@
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C3:D3"/>
@@ -6013,12 +6173,14 @@
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G36:H36"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E26:H26"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="E27:F27"/>
@@ -6036,12 +6198,17 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="G31:H31"/>
   </mergeCells>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="15" priority="24" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="C35:D36">
+    <cfRule type="containsBlanks" priority="5">
+      <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:D26 I26 C28:G29 I28:I29">
+  <conditionalFormatting sqref="C26:E26">
+    <cfRule type="containsBlanks" priority="3">
+      <formula>LEN(TRIM(C26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:G29 I26 I28:I29">
     <cfRule type="containsBlanks" priority="18">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
@@ -6051,9 +6218,9 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="greaterThan">
-      <formula>$B$16</formula>
+  <conditionalFormatting sqref="E26:H26">
+    <cfRule type="containsBlanks" dxfId="13" priority="2">
+      <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
@@ -6061,32 +6228,22 @@
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="5">
-      <formula>LEN(TRIM(C35))=0</formula>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
+      <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:J35">
-    <cfRule type="containsBlanks" priority="4">
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="10" priority="24" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:J36">
+    <cfRule type="containsBlanks" priority="1">
       <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="containsBlanks" priority="3">
-      <formula>LEN(TRIM(E26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="11" priority="2">
-      <formula>LEN(TRIM(E26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:J36">
-    <cfRule type="containsBlanks" priority="1">
-      <formula>LEN(TRIM(I36))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"HK,US:NASDAQ,CN"</formula1>
     </dataValidation>
@@ -6098,6 +6255,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20" xr:uid="{653EE4BA-4D98-4EE5-AD27-D0955626562F}">
       <formula1>"Slow Growers, Stalwarts, Fast Growers, Cyclicals, Turnarounds, Asset Plays "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F43" xr:uid="{90D63BF0-6355-4634-9F22-FD724149061B}">
+      <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -9207,24 +9367,24 @@
     <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="D42:M46 C7:M35">
-    <cfRule type="containsBlanks" dxfId="10" priority="3">
+  <conditionalFormatting sqref="B51:M52">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>$C$49="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:M35 D42:M46">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:M18">
-    <cfRule type="containsBlanks" dxfId="9" priority="4">
-      <formula>LEN(TRIM(D17))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C37:M40">
-    <cfRule type="containsBlanks" dxfId="8" priority="5">
+    <cfRule type="containsBlanks" dxfId="7" priority="5">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:M52">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>$C$49="No"</formula>
+  <conditionalFormatting sqref="D17:M18">
+    <cfRule type="containsBlanks" dxfId="6" priority="4">
+      <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -9252,8 +9412,8 @@
   </sheetPr>
   <dimension ref="A2:J65"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:I8"/>
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9358,7 +9518,7 @@
         <v>85</v>
       </c>
       <c r="D7" s="61">
-        <f>MAX((D6*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
+        <f>MAX(((D6+MIN('FCFF Model'!D4,0))*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
         <v>1.4954478649987193</v>
       </c>
       <c r="E7" s="49" t="str">
@@ -10242,11 +10402,11 @@
         <v>267</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="426">
+      <c r="D52" s="429">
         <f>D53+D54+D55</f>
         <v>1183453</v>
       </c>
-      <c r="E52" s="427"/>
+      <c r="E52" s="430"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10255,11 +10415,11 @@
         <v>237</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="429">
+      <c r="D53" s="432">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>1183453</v>
       </c>
-      <c r="E53" s="420"/>
+      <c r="E53" s="425"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10275,7 +10435,7 @@
         <v>136</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="436">
+      <c r="D54" s="437">
         <v>0</v>
       </c>
       <c r="E54" s="378"/>
@@ -10289,7 +10449,7 @@
         <v>135</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="436">
+      <c r="D55" s="437">
         <v>0</v>
       </c>
       <c r="E55" s="378"/>
@@ -10307,8 +10467,8 @@
         <v>139</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="428"/>
-      <c r="E57" s="428"/>
+      <c r="D57" s="431"/>
+      <c r="E57" s="431"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10354,11 +10514,11 @@
         <v>140</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="434">
+      <c r="D60" s="435">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
         <v>37936343.058829702</v>
       </c>
-      <c r="E60" s="435"/>
+      <c r="E60" s="436"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10375,20 +10535,20 @@
       <c r="B63" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D63" s="432">
+      <c r="D63" s="415">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-0.16514252885624575</v>
       </c>
-      <c r="E63" s="433"/>
+      <c r="E63" s="416"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D64" s="430">
+      <c r="D64" s="433">
         <v>6.7599999999999993E-2</v>
       </c>
-      <c r="E64" s="431"/>
+      <c r="E64" s="434"/>
       <c r="F64" s="266" t="s">
         <v>253</v>
       </c>
@@ -10397,10 +10557,10 @@
       <c r="B65" s="292" t="s">
         <v>270</v>
       </c>
-      <c r="D65" s="430">
+      <c r="D65" s="433">
         <v>6.7599999999999993E-2</v>
       </c>
-      <c r="E65" s="431"/>
+      <c r="E65" s="434"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -11775,38 +11935,32 @@
     <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="G8:H11 I10 I12:I15 G13:H15 H12 I7:I8 H7">
-    <cfRule type="containsBlanks" dxfId="6" priority="8">
-      <formula>LEN(TRIM(G7))=0</formula>
+  <conditionalFormatting sqref="E16:E18 G18 I18">
+    <cfRule type="containsBlanks" dxfId="5" priority="2">
+      <formula>LEN(TRIM(E16))=0</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:H11 G13:H15 H7 H12">
     <cfRule type="containsBlanks" priority="9">
       <formula>LEN(TRIM(G7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7 I11 I9">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+  <conditionalFormatting sqref="G13:H15">
+    <cfRule type="containsBlanks" dxfId="4" priority="8">
+      <formula>LEN(TRIM(G13))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:J11 G13:J18 H7:J7 H12:J12">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
+      <formula>LEN(TRIM(G7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:J15">
+    <cfRule type="containsBlanks" dxfId="2" priority="4">
       <formula>LEN(TRIM(I7))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="7">
+    <cfRule type="containsBlanks" priority="5">
       <formula>LEN(TRIM(I7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:J15">
-    <cfRule type="containsBlanks" dxfId="4" priority="4">
-      <formula>LEN(TRIM(J7))=0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="5">
-      <formula>LEN(TRIM(J7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E18 G18 I18">
-    <cfRule type="containsBlanks" dxfId="3" priority="2">
-      <formula>LEN(TRIM(E16))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:J11 G13:J18 H12:J12 H7:J7">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
-      <formula>LEN(TRIM(G7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -11823,7 +11977,7 @@
   <dimension ref="A1:J922"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12229,7 +12383,7 @@
         <v>240</v>
       </c>
       <c r="G19" s="197">
-        <f>G18*Data!C$4/Dashboard!I5</f>
+        <f>(G18+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
         <v>1.3670731785203984</v>
       </c>
     </row>
@@ -12245,7 +12399,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-0.13050508947363906</v>
       </c>
-      <c r="E20" s="439" t="str">
+      <c r="E20" s="440" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12268,7 +12422,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>-0.32881266386490438</v>
       </c>
-      <c r="E21" s="439"/>
+      <c r="E21" s="440"/>
       <c r="F21" s="148">
         <f>D18</f>
         <v>1.8156396202299327</v>
@@ -12290,11 +12444,11 @@
         <f>B3</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="E23" s="442" t="s">
+      <c r="E23" s="443" t="s">
         <v>232</v>
       </c>
-      <c r="F23" s="442"/>
-      <c r="G23" s="442"/>
+      <c r="F23" s="443"/>
+      <c r="G23" s="443"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="127" t="str">
@@ -12335,7 +12489,7 @@
         <f ca="1">G9*D25/G14</f>
         <v>2.7666856483611846</v>
       </c>
-      <c r="F25" s="440">
+      <c r="F25" s="441">
         <f ca="1">SUM(C15:F15)</f>
         <v>0.52035441438061181</v>
       </c>
@@ -12360,7 +12514,7 @@
         <f ca="1">G9*D26/G14</f>
         <v>5.5333712967223692</v>
       </c>
-      <c r="F26" s="441"/>
+      <c r="F26" s="442"/>
       <c r="G26" s="207">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>7.420798889623379</v>
@@ -12424,10 +12578,10 @@
       <c r="I30" s="88"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="437" t="s">
+      <c r="C31" s="438" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="438"/>
+      <c r="D31" s="439"/>
       <c r="E31" s="30" t="s">
         <v>220</v>
       </c>
@@ -13382,14 +13536,14 @@
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="E23:G23"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:F5 E8:F15 F6:F7">
-    <cfRule type="containsBlanks" dxfId="1" priority="5">
-      <formula>LEN(TRIM(E4))=0</formula>
+  <conditionalFormatting sqref="E25:E26 G25:G26">
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
+      <formula>$E$29</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E26 G25:G26">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
-      <formula>$E$29</formula>
+  <conditionalFormatting sqref="E4:F5 E8:F15 F6:F7">
+    <cfRule type="containsBlanks" dxfId="0" priority="5">
+      <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/financial_models/Opportunities/6186.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6186.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9153B788-16B6-46BE-BE6C-0F9AAB8A07B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE0F15B8-697E-40FA-8577-AF76218854F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="336">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1161,9 +1161,6 @@
     <t>B = Downside in event of a loss</t>
   </si>
   <si>
-    <t>W = The expected probability of win given expected upside</t>
-  </si>
-  <si>
     <t>R = A/B</t>
   </si>
   <si>
@@ -1190,12 +1187,15 @@
   <si>
     <t>capped at</t>
   </si>
+  <si>
+    <t>W = The estimated probability of win</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="24">
+  <numFmts count="25">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1220,6 +1220,7 @@
     <numFmt numFmtId="182" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
     <numFmt numFmtId="183" formatCode="&quot;Breakeven Price = &quot;0.00"/>
     <numFmt numFmtId="184" formatCode="&quot;Next Action Price = &quot;0.00"/>
+    <numFmt numFmtId="185" formatCode="0.000000000000000000%"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -2929,7 +2930,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="450">
+  <cellXfs count="453">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3819,6 +3820,35 @@
     <xf numFmtId="184" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3834,6 +3864,66 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3867,75 +3957,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3989,6 +4010,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4056,29 +4080,13 @@
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4191,6 +4199,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4436,8 +4454,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4481,33 +4499,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="396" t="s">
+      <c r="C3" s="404" t="s">
         <v>301</v>
       </c>
-      <c r="D3" s="397"/>
+      <c r="D3" s="405"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="406" t="s">
+      <c r="I3" s="414" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="407"/>
+      <c r="J3" s="415"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="398" t="s">
+      <c r="C4" s="406" t="s">
         <v>302</v>
       </c>
-      <c r="D4" s="399"/>
+      <c r="D4" s="407"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>5.61</v>
+        <v>5.83</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4518,10 +4536,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="400">
+      <c r="C5" s="408">
         <v>44501</v>
       </c>
-      <c r="D5" s="399"/>
+      <c r="D5" s="407"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4555,11 +4573,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="408">
+      <c r="I6" s="416">
         <f>I4*I5/1000000</f>
-        <v>50872.892059440004</v>
-      </c>
-      <c r="J6" s="409"/>
+        <v>52867.907434319997</v>
+      </c>
+      <c r="J6" s="417"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4568,11 +4586,11 @@
       </c>
       <c r="C7" s="145">
         <f>(Data!C39)/I4</f>
-        <v>6.6681504877616371E-2</v>
+        <v>6.4165221674687453E-2</v>
       </c>
       <c r="D7" s="145">
         <f>(Data!C40)/I4</f>
-        <v>7.1671569128404214E-3</v>
+        <v>6.8966981614124812E-3</v>
       </c>
       <c r="E7" s="153"/>
       <c r="F7" s="6"/>
@@ -4599,11 +4617,11 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>6.4920777468357853</v>
+        <v>6.7513547220353152</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.15403389161311204</v>
+        <v>0.1481184208461398</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4622,47 +4640,47 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>1.9911000822612643</v>
+        <v>2.0706195253085773</v>
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>6.2676453427772927</v>
+        <v>6.6169258002141103</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="313" t="s">
         <v>276</v>
       </c>
-      <c r="C11" s="385">
+      <c r="C11" s="384">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="386"/>
+      <c r="D11" s="385"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="382" t="s">
+      <c r="I11" s="381" t="s">
         <v>303</v>
       </c>
-      <c r="J11" s="383"/>
+      <c r="J11" s="382"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="314" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="387">
+      <c r="C12" s="386">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="388"/>
+      <c r="D12" s="387"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="133"/>
       <c r="I12" s="135">
-        <v>1.1404598109878687</v>
+        <v>1.1396682895075876</v>
       </c>
       <c r="J12" s="136" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4679,22 +4697,22 @@
         <v>218</v>
       </c>
       <c r="D14" s="184">
-        <f ca="1">MIN('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>3.0204003619776394</v>
+        <f ca="1">MIN('FCFF Model'!C30,'FCFF Model'!E30)</f>
+        <v>3.0033380402709549</v>
       </c>
       <c r="E14" s="127" t="s">
         <v>235</v>
       </c>
       <c r="F14" s="184">
-        <f ca="1">MAX('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>8.4631228990388649</v>
+        <f ca="1">MAX('FCFF Model'!C30,'FCFF Model'!E30)</f>
+        <v>8.4422831256782178</v>
       </c>
       <c r="G14" s="185" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="193">
-        <f ca="1">IF('FCFF Model'!C32&lt;0, "Error", 'FCFF Model'!C32)</f>
-        <v>6.3343982128812879</v>
+        <f ca="1">IF('FCFF Model'!C33&lt;0, "Error", 'FCFF Model'!C33)</f>
+        <v>6.3150358535412527</v>
       </c>
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
@@ -4725,59 +4743,59 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>5.61</v>
-      </c>
-      <c r="C16" s="363">
+        <v>5.83</v>
+      </c>
+      <c r="C16" s="396">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
-        <v>2.912624115530979E-2</v>
-      </c>
-      <c r="E16" s="358">
+        <v>-1.6803455653301352E-2</v>
+      </c>
+      <c r="E16" s="391">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
-        <v>0.30986293064540393</v>
+        <v>0.30964787425921153</v>
       </c>
       <c r="F16" s="161">
         <f>E16/B16</f>
-        <v>5.5234033983137955E-2</v>
-      </c>
-      <c r="G16" s="366" t="s">
+        <v>5.3112842926108322E-2</v>
+      </c>
+      <c r="G16" s="399" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="410">
+      <c r="H16" s="418">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>1.5590920187819586</v>
-      </c>
-      <c r="I16" s="366" t="s">
+        <v>1.5430438993573794</v>
+      </c>
+      <c r="I16" s="399" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>4.0509079812180415</v>
+        <v>4.2869561006426204</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="290">
         <f ca="1">H14/(1+C16)</f>
-        <v>5.758543829892079</v>
-      </c>
-      <c r="C17" s="364"/>
+        <v>5.7409416850375017</v>
+      </c>
+      <c r="C17" s="397"/>
       <c r="D17" s="289">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="359"/>
+      <c r="E17" s="392"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
-        <v>5.3809251053527379E-2</v>
-      </c>
-      <c r="G17" s="367"/>
-      <c r="H17" s="411"/>
-      <c r="I17" s="367"/>
+        <v>5.3936774008041297E-2</v>
+      </c>
+      <c r="G17" s="400"/>
+      <c r="H17" s="419"/>
+      <c r="I17" s="400"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
-        <v>4.1994518111101202</v>
+        <v>4.1978977856801221</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4785,22 +4803,22 @@
         <f>C35</f>
         <v>4.8</v>
       </c>
-      <c r="C18" s="365"/>
+      <c r="C18" s="398"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
-        <v>0.21966629435026838</v>
-      </c>
-      <c r="E18" s="360"/>
+        <v>0.21563246948776102</v>
+      </c>
+      <c r="E18" s="393"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
-        <v>6.4554777217792486E-2</v>
-      </c>
-      <c r="G18" s="368"/>
-      <c r="H18" s="412"/>
-      <c r="I18" s="368"/>
+        <v>6.4509973804002405E-2</v>
+      </c>
+      <c r="G18" s="401"/>
+      <c r="H18" s="420"/>
+      <c r="I18" s="401"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
-        <v>3.240907981218041</v>
+        <v>3.2569561006426202</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4831,26 +4849,26 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="403"/>
-      <c r="D21" s="404"/>
-      <c r="E21" s="404"/>
-      <c r="F21" s="404"/>
-      <c r="G21" s="404"/>
-      <c r="H21" s="404"/>
-      <c r="I21" s="404"/>
-      <c r="J21" s="405"/>
+      <c r="C21" s="411"/>
+      <c r="D21" s="412"/>
+      <c r="E21" s="412"/>
+      <c r="F21" s="412"/>
+      <c r="G21" s="412"/>
+      <c r="H21" s="412"/>
+      <c r="I21" s="412"/>
+      <c r="J21" s="413"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="384"/>
+      <c r="C22" s="383"/>
       <c r="D22" s="378"/>
       <c r="E22" s="378"/>
       <c r="F22" s="378"/>
-      <c r="G22" s="384"/>
-      <c r="H22" s="384"/>
+      <c r="G22" s="383"/>
+      <c r="H22" s="383"/>
       <c r="I22" s="378"/>
       <c r="J22" s="378"/>
     </row>
@@ -4859,14 +4877,14 @@
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="361"/>
-      <c r="D23" s="362"/>
-      <c r="E23" s="362"/>
-      <c r="F23" s="362"/>
-      <c r="G23" s="361"/>
-      <c r="H23" s="361"/>
-      <c r="I23" s="362"/>
-      <c r="J23" s="362"/>
+      <c r="C23" s="394"/>
+      <c r="D23" s="395"/>
+      <c r="E23" s="395"/>
+      <c r="F23" s="395"/>
+      <c r="G23" s="394"/>
+      <c r="H23" s="394"/>
+      <c r="I23" s="395"/>
+      <c r="J23" s="395"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4903,43 +4921,43 @@
       </c>
       <c r="J25" s="349">
         <f ca="1">H14/(H25+C16+1)</f>
-        <v>5.0675185703050305</v>
+        <v>5.0520286828330025</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="401">
+      <c r="C26" s="409">
         <v>44501</v>
       </c>
-      <c r="D26" s="402"/>
-      <c r="E26" s="389" t="str">
+      <c r="D26" s="410"/>
+      <c r="E26" s="388" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="390"/>
-      <c r="G26" s="390"/>
-      <c r="H26" s="391"/>
-      <c r="I26" s="413" t="s">
+      <c r="F26" s="389"/>
+      <c r="G26" s="389"/>
+      <c r="H26" s="390"/>
+      <c r="I26" s="421" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="413"/>
+      <c r="J26" s="421"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="357">
+      <c r="C27" s="368">
         <f>C31/D25</f>
         <v>7.3866666666666664E-2</v>
       </c>
-      <c r="D27" s="356"/>
-      <c r="E27" s="355">
+      <c r="D27" s="367"/>
+      <c r="E27" s="366">
         <f>E31/D25</f>
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="F27" s="356"/>
+      <c r="F27" s="367"/>
       <c r="G27" s="370">
         <f>G31/D25</f>
         <v>0</v>
@@ -4955,21 +4973,21 @@
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="394">
+      <c r="C28" s="402">
         <v>4000</v>
       </c>
       <c r="D28" s="378"/>
-      <c r="E28" s="394">
+      <c r="E28" s="402">
         <v>8000</v>
       </c>
       <c r="F28" s="378"/>
       <c r="G28" s="372"/>
       <c r="H28" s="373"/>
-      <c r="I28" s="418">
+      <c r="I28" s="427">
         <f>C28+E28+G28</f>
         <v>12000</v>
       </c>
-      <c r="J28" s="418"/>
+      <c r="J28" s="427"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
@@ -4983,8 +5001,8 @@
         <v>4.8</v>
       </c>
       <c r="F29" s="378"/>
-      <c r="G29" s="427"/>
-      <c r="H29" s="428"/>
+      <c r="G29" s="436"/>
+      <c r="H29" s="437"/>
       <c r="I29" s="374"/>
       <c r="J29" s="374"/>
     </row>
@@ -4992,21 +5010,21 @@
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="381">
+      <c r="C30" s="423">
         <f>C29*$I$5/1000000</f>
         <v>100476.22888032001</v>
       </c>
-      <c r="D30" s="423"/>
-      <c r="E30" s="381">
+      <c r="D30" s="432"/>
+      <c r="E30" s="423">
         <f>E29*$I$5/1000000</f>
         <v>43527.608179199997</v>
       </c>
-      <c r="F30" s="423"/>
-      <c r="G30" s="392">
+      <c r="F30" s="432"/>
+      <c r="G30" s="360">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="393"/>
+      <c r="H30" s="361"/>
       <c r="I30" s="375"/>
       <c r="J30" s="375"/>
     </row>
@@ -5014,38 +5032,38 @@
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="424">
+      <c r="C31" s="433">
         <f>C28*C29</f>
         <v>44320</v>
       </c>
-      <c r="D31" s="425"/>
-      <c r="E31" s="417">
+      <c r="D31" s="434"/>
+      <c r="E31" s="426">
         <f>E28*E29</f>
         <v>38400</v>
       </c>
-      <c r="F31" s="426"/>
+      <c r="F31" s="435"/>
       <c r="G31" s="379">
         <f>G28*G29</f>
         <v>0</v>
       </c>
       <c r="H31" s="380"/>
-      <c r="I31" s="417">
+      <c r="I31" s="426">
         <f>C31+E31+G31</f>
         <v>82720</v>
       </c>
-      <c r="J31" s="417"/>
+      <c r="J31" s="426"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="419"/>
-      <c r="D32" s="420"/>
+      <c r="C32" s="428"/>
+      <c r="D32" s="429"/>
       <c r="E32" s="376">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>6.8933333333333335</v>
       </c>
-      <c r="F32" s="356"/>
+      <c r="F32" s="367"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
       <c r="I32" s="376">
@@ -5058,59 +5076,59 @@
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="421"/>
-      <c r="D33" s="422"/>
-      <c r="E33" s="381">
+      <c r="C33" s="430"/>
+      <c r="D33" s="431"/>
+      <c r="E33" s="423">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>62510.481746240002</v>
       </c>
-      <c r="F33" s="423"/>
+      <c r="F33" s="432"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="381">
+      <c r="I33" s="423">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>62510.481746240002</v>
       </c>
-      <c r="J33" s="381"/>
+      <c r="J33" s="423"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>315</v>
       </c>
-      <c r="C35" s="353">
+      <c r="C35" s="364">
         <f>E29</f>
         <v>4.8</v>
       </c>
-      <c r="D35" s="354"/>
-      <c r="G35" s="351" t="s">
+      <c r="D35" s="365"/>
+      <c r="G35" s="362" t="s">
         <v>319</v>
       </c>
-      <c r="H35" s="352"/>
-      <c r="I35" s="353">
-        <f ca="1">'FCFF Model'!C33*0.8</f>
-        <v>7.2354661781114276</v>
-      </c>
-      <c r="J35" s="354"/>
+      <c r="H35" s="363"/>
+      <c r="I35" s="364">
+        <f ca="1">'FCFF Model'!C34*0.8</f>
+        <v>7.2184716544539143</v>
+      </c>
+      <c r="J35" s="365"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>316</v>
       </c>
-      <c r="C36" s="394">
+      <c r="C36" s="402">
         <f>E28</f>
         <v>8000</v>
       </c>
-      <c r="D36" s="395"/>
-      <c r="G36" s="414" t="s">
+      <c r="D36" s="403"/>
+      <c r="G36" s="422" t="s">
         <v>323</v>
       </c>
-      <c r="H36" s="414"/>
-      <c r="I36" s="415">
+      <c r="H36" s="422"/>
+      <c r="I36" s="424">
         <f ca="1">I35/C29-1</f>
-        <v>-0.34697958681304808</v>
-      </c>
-      <c r="J36" s="416"/>
+        <v>-0.34851338858719183</v>
+      </c>
+      <c r="J36" s="425"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5143,11 +5161,8 @@
       <c r="B41" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E41" s="444">
-        <f ca="1">I35/C29-1</f>
-        <v>-0.34697958681304808</v>
-      </c>
-      <c r="F41" s="445">
+      <c r="E41" s="351"/>
+      <c r="F41" s="352">
         <f>'Qualitative Analysis'!E64</f>
         <v>0.60888605442176869</v>
       </c>
@@ -5156,20 +5171,22 @@
       <c r="B42" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F42" s="446">
-        <v>0.6</v>
+      <c r="E42" s="351">
+        <f ca="1">IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="102" t="str">
+        <f ca="1">IF(F45&lt;D10,"Strongly Disagree",IF(F45&lt;10%,"Disagree",IF(F45&gt;=30%,"Strongly Agree",IF(F45&gt;=20%,"Agree","So-so"))))</f>
+        <v>Strongly Disagree</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E43" s="444">
-        <f>IF(F43="Strongly disagree",0,IF(F43="disagree",1,IF(F43="unclear",2,IF(F43="agree",3,4))))/4</f>
-        <v>0.75</v>
-      </c>
-      <c r="F43" s="31" t="s">
-        <v>156</v>
+      <c r="F43" s="356">
+        <f>AVERAGE(80%*0.5,0.6)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5177,49 +5194,57 @@
       <c r="B45" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="F45" s="445">
+      <c r="F45" s="352">
         <f ca="1">I35/C29-1</f>
-        <v>-0.34697958681304808</v>
+        <v>-0.34851338858719183</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="F46" s="445">
-        <f ca="1">'FCFF Model'!C29/C29-1</f>
-        <v>-0.72740068935219859</v>
+      <c r="F46" s="352">
+        <f ca="1">D14/C29-1</f>
+        <v>-0.72894061008384892</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F48" s="214">
-        <f>AVERAGE(F39:F41,1-F42,E43)</f>
-        <v>0.57177721088435374</v>
+        <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F49" s="447">
+        <v>332</v>
+      </c>
+      <c r="E49" s="357">
+        <f ca="1">F45/ABS(F46)</f>
+        <v>-0.47810944234140401</v>
+      </c>
+      <c r="F49" s="353">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>-0.47701300245131439</v>
+        <v>-0.47810944234140401</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E50" s="107">
+        <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="354">
+        <f ca="1">MIN(E50,H50)</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="355" t="s">
         <v>334</v>
-      </c>
-      <c r="F50" s="448">
-        <f ca="1">MIN((F48-(1-F48)/F49)/2,H50)</f>
-        <v>0.3</v>
-      </c>
-      <c r="G50" s="449" t="s">
-        <v>335</v>
       </c>
       <c r="H50" s="78">
         <v>0.3</v>
@@ -6180,15 +6205,15 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
@@ -6199,47 +6224,52 @@
     <mergeCell ref="G31:H31"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="5">
+    <cfRule type="containsBlanks" priority="6">
       <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:E26">
-    <cfRule type="containsBlanks" priority="3">
+    <cfRule type="containsBlanks" priority="4">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:G29 I26 I28:I29">
-    <cfRule type="containsBlanks" priority="18">
+    <cfRule type="containsBlanks" priority="19">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="3">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="10" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J36">
-    <cfRule type="containsBlanks" priority="1">
+    <cfRule type="containsBlanks" priority="2">
       <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6256,8 +6286,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20" xr:uid="{653EE4BA-4D98-4EE5-AD27-D0955626562F}">
       <formula1>"Slow Growers, Stalwarts, Fast Growers, Cyclicals, Turnarounds, Asset Plays "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F43" xr:uid="{90D63BF0-6355-4634-9F22-FD724149061B}">
-      <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="F42" xr:uid="{DFBFAA3B-50D7-459F-9959-FE97541E89AE}">
+      <formula1>"Strongly agree,agree,So-so,disagree,Strongly disagree"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -9479,7 +9509,7 @@
       </c>
       <c r="I4" s="91">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>2.7521149803514717</v>
+        <v>2.7502049103058943</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9496,11 +9526,11 @@
       <c r="C6" s="6"/>
       <c r="D6" s="59">
         <f>E46-I46-E50</f>
-        <v>11890903.580610303</v>
+        <v>11771819.874830345</v>
       </c>
       <c r="E6" s="14">
         <f>1-D6/D3</f>
-        <v>0.49142243337497293</v>
+        <v>0.49651567972918764</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -9519,7 +9549,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX(((D6+MIN('FCFF Model'!D4,0))*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
-        <v>1.4954478649987193</v>
+        <v>1.479443916981434</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10384,11 +10414,11 @@
       </c>
       <c r="D50" s="214">
         <f>IF(E50=0, 0,E50/C50)</f>
-        <v>1.9911000822612643</v>
+        <v>2.0706195253085773</v>
       </c>
       <c r="E50" s="218">
         <f>MAX(C50,C50*Dashboard!I10)</f>
-        <v>2981755.9993896983</v>
+        <v>3100839.7051696572</v>
       </c>
       <c r="I50" s="157"/>
     </row>
@@ -10402,11 +10432,11 @@
         <v>267</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="429">
+      <c r="D52" s="438">
         <f>D53+D54+D55</f>
         <v>1183453</v>
       </c>
-      <c r="E52" s="430"/>
+      <c r="E52" s="439"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10415,11 +10445,11 @@
         <v>237</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="432">
+      <c r="D53" s="441">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>1183453</v>
       </c>
-      <c r="E53" s="425"/>
+      <c r="E53" s="434"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10435,7 +10465,7 @@
         <v>136</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="437">
+      <c r="D54" s="446">
         <v>0</v>
       </c>
       <c r="E54" s="378"/>
@@ -10449,7 +10479,7 @@
         <v>135</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="437">
+      <c r="D55" s="446">
         <v>0</v>
       </c>
       <c r="E55" s="378"/>
@@ -10467,8 +10497,8 @@
         <v>139</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="431"/>
-      <c r="E57" s="431"/>
+      <c r="D57" s="440"/>
+      <c r="E57" s="440"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10514,11 +10544,11 @@
         <v>140</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="435">
+      <c r="D60" s="444">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>37936343.058829702</v>
-      </c>
-      <c r="E60" s="436"/>
+        <v>40050442.139489651</v>
+      </c>
+      <c r="E60" s="445"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10535,20 +10565,20 @@
       <c r="B63" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D63" s="415">
+      <c r="D63" s="424">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-0.16514252885624575</v>
       </c>
-      <c r="E63" s="416"/>
+      <c r="E63" s="425"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D64" s="433">
+      <c r="D64" s="442">
         <v>6.7599999999999993E-2</v>
       </c>
-      <c r="E64" s="434"/>
+      <c r="E64" s="443"/>
       <c r="F64" s="266" t="s">
         <v>253</v>
       </c>
@@ -10557,10 +10587,10 @@
       <c r="B65" s="292" t="s">
         <v>270</v>
       </c>
-      <c r="D65" s="433">
+      <c r="D65" s="442">
         <v>6.7599999999999993E-2</v>
       </c>
-      <c r="E65" s="434"/>
+      <c r="E65" s="443"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -11974,10 +12004,10 @@
     <tabColor rgb="FFB6D7A8"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J922"/>
+  <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12364,7 +12394,7 @@
       </c>
       <c r="G18" s="137">
         <f>C18+C19+C20+C21</f>
-        <v>12396963.680610301</v>
+        <v>12277879.974830342</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12384,7 +12414,7 @@
       </c>
       <c r="G19" s="197">
         <f>(G18+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
-        <v>1.3670731785203984</v>
+        <v>1.353941241994262</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12399,7 +12429,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-0.13050508947363906</v>
       </c>
-      <c r="E20" s="440" t="str">
+      <c r="E20" s="449" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12416,20 +12446,20 @@
       </c>
       <c r="C21" s="84">
         <f>-Asset_Model!E50</f>
-        <v>-2981755.9993896983</v>
+        <v>-3100839.7051696572</v>
       </c>
       <c r="D21" s="219">
         <f>C21/(Dashboard!I5/Data!C4)</f>
-        <v>-0.32881266386490438</v>
-      </c>
-      <c r="E21" s="440"/>
+        <v>-0.34194460039104108</v>
+      </c>
+      <c r="E21" s="449"/>
       <c r="F21" s="148">
         <f>D18</f>
         <v>1.8156396202299327</v>
       </c>
       <c r="G21" s="147">
         <f>SUM(D19:D21)</f>
-        <v>-0.44856644170953397</v>
+        <v>-0.46169837823567067</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12444,11 +12474,11 @@
         <f>B3</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="E23" s="443" t="s">
+      <c r="E23" s="452" t="s">
         <v>232</v>
       </c>
-      <c r="F23" s="443"/>
-      <c r="G23" s="443"/>
+      <c r="F23" s="452"/>
+      <c r="G23" s="452"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="127" t="str">
@@ -12489,13 +12519,13 @@
         <f ca="1">G9*D25/G14</f>
         <v>2.7666856483611846</v>
       </c>
-      <c r="F25" s="441">
+      <c r="F25" s="450">
         <f ca="1">SUM(C15:F15)</f>
         <v>0.52035441438061181</v>
       </c>
       <c r="G25" s="206">
         <f ca="1">$F$25+E25+$G$19</f>
-        <v>4.6541132412621948</v>
+        <v>4.6409813047360586</v>
       </c>
       <c r="I25" s="74"/>
     </row>
@@ -12514,147 +12544,155 @@
         <f ca="1">G9*D26/G14</f>
         <v>5.5333712967223692</v>
       </c>
-      <c r="F26" s="442"/>
+      <c r="F26" s="451"/>
       <c r="G26" s="207">
         <f ca="1">$F$25+E26+$G$19</f>
-        <v>7.420798889623379</v>
+        <v>7.4076669530972428</v>
       </c>
       <c r="I26" s="74" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="358"/>
+      <c r="D27" s="359"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="123"/>
+      <c r="I27" s="74"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="250" t="str">
+      <c r="C29" s="250" t="str">
         <f>"(Numbers in "&amp;Dashboard!J4&amp;" per share)"</f>
         <v>(Numbers in HKD per share)</v>
       </c>
-      <c r="D28" s="127"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="90"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="71" t="s">
+      <c r="D29" s="127"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="90"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="252">
+      <c r="C30" s="252">
         <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)</f>
-        <v>3.0204003619776394</v>
-      </c>
-      <c r="D29" s="23" t="str">
-        <f ca="1">IF(C29&lt;E29,"&lt;",IF(C29=E29,"=","&gt;"))</f>
+        <v>3.0033380402709549</v>
+      </c>
+      <c r="D30" s="23" t="str">
+        <f ca="1">IF(C30&lt;E30,"&lt;",IF(C30=E30,"=","&gt;"))</f>
         <v>&lt;</v>
       </c>
-      <c r="E29" s="251">
+      <c r="E30" s="251">
         <f ca="1">G26*Exchange_Rate</f>
-        <v>8.4631228990388649</v>
-      </c>
-      <c r="F29" s="30"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="124"/>
+        <v>8.4422831256782178</v>
+      </c>
+      <c r="F30" s="30"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="88"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="438" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="88"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="447" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="439"/>
-      <c r="E31" s="30" t="s">
+      <c r="D32" s="448"/>
+      <c r="E32" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F32" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="256" t="s">
+      <c r="G32" s="30"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="256" t="s">
         <v>234</v>
       </c>
-      <c r="C32" s="253">
-        <f ca="1">MIN(C29,E29)+ABS(C29-E29)*'Qualitative Analysis'!$E$64</f>
-        <v>6.3343982128812879</v>
-      </c>
-      <c r="D32" s="119" t="str">
+      <c r="C33" s="253">
+        <f ca="1">MIN(C30,E30)+ABS(C30-E30)*'Qualitative Analysis'!$E$64</f>
+        <v>6.3150358535412527</v>
+      </c>
+      <c r="D33" s="119" t="str">
         <f>Dashboard!J4</f>
         <v>HKD</v>
       </c>
-      <c r="E32" s="120">
-        <f ca="1">(C32-G19)/C9</f>
-        <v>11.402011692186338</v>
-      </c>
-      <c r="F32" s="158">
-        <f ca="1">C32/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>2.2482033516476894</v>
-      </c>
-      <c r="G32" s="87"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="74"/>
-    </row>
-    <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="255" t="s">
-        <v>233</v>
-      </c>
-      <c r="C33" s="254">
-        <f ca="1">MAX(Asset_Model!D7,(G12/(1+G33)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>9.0443327226392842</v>
-      </c>
-      <c r="D33" s="208" t="str">
-        <f>D32</f>
-        <v>HKD</v>
-      </c>
       <c r="E33" s="120">
         <f ca="1">(C33-G19)/C9</f>
-        <v>17.622402899039475</v>
+        <v>11.387710362339805</v>
       </c>
       <c r="F33" s="158">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>3.2100127679225174</v>
-      </c>
-      <c r="G33" s="281">
+        <v>2.2428879144710523</v>
+      </c>
+      <c r="G33" s="87"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="74"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="255" t="s">
+        <v>233</v>
+      </c>
+      <c r="C34" s="254">
+        <f ca="1">MAX(Asset_Model!D7,(G12/(1+G34)^G4+F25+G19)*Exchange_Rate)</f>
+        <v>9.0230895680673928</v>
+      </c>
+      <c r="D34" s="208" t="str">
+        <f>D33</f>
+        <v>HKD</v>
+      </c>
+      <c r="E34" s="120">
+        <f ca="1">(C34-G19)/C9</f>
+        <v>17.603784386589446</v>
+      </c>
+      <c r="F34" s="158">
+        <f ca="1">C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
+        <v>3.2046973307458799</v>
+      </c>
+      <c r="G34" s="281">
         <f>Dashboard!D10+4.5%</f>
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13529,16 +13567,17 @@
     <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="E23:G23"/>
   </mergeCells>
-  <conditionalFormatting sqref="E25:E26 G25:G26">
+  <conditionalFormatting sqref="E25:E27 G25:G27">
     <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
-      <formula>$E$29</formula>
+      <formula>$E$30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F5 E8:F15 F6:F7">

--- a/financial_models/Opportunities/6186.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6186.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE0F15B8-697E-40FA-8577-AF76218854F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA3AC8A-0CB4-409B-B6D3-E1FB3732B8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1149,12 +1149,6 @@
     <t>3. The business quality rating (proxy for not overestimating the exit)</t>
   </si>
   <si>
-    <t>4. The probability of a recession affecting the company</t>
-  </si>
-  <si>
-    <t>5. Is the upside very attractive?</t>
-  </si>
-  <si>
     <t>A = Upside in event of a win</t>
   </si>
   <si>
@@ -1189,6 +1183,12 @@
   </si>
   <si>
     <t>W = The estimated probability of win</t>
+  </si>
+  <si>
+    <t>4. Is the upside very attractive?</t>
+  </si>
+  <si>
+    <t>5. The probability of a recession affecting the company</t>
   </si>
 </sst>
 </file>
@@ -4455,7 +4455,7 @@
   <dimension ref="A1:L966"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5169,7 +5169,7 @@
     </row>
     <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E42" s="351">
         <f ca="1">IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F43" s="356">
         <f>AVERAGE(80%*0.5,0.6)</f>
@@ -5192,7 +5192,7 @@
     <row r="44" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F45" s="352">
         <f ca="1">I35/C29-1</f>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F46" s="352">
         <f ca="1">D14/C29-1</f>
@@ -5211,7 +5211,7 @@
     <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F48" s="214">
         <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
@@ -5220,7 +5220,7 @@
     </row>
     <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E49" s="357">
         <f ca="1">F45/ABS(F46)</f>
@@ -5233,7 +5233,7 @@
     </row>
     <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E50" s="107">
         <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="355" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H50" s="78">
         <v>0.3</v>
@@ -9442,8 +9442,8 @@
   </sheetPr>
   <dimension ref="A2:J65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9525,7 +9525,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="59">
-        <f>E46-I46-E50</f>
+        <f>E46-I46-E50+MIN('FCFF Model'!D4,0)</f>
         <v>11771819.874830345</v>
       </c>
       <c r="E6" s="14">
@@ -9548,7 +9548,7 @@
         <v>85</v>
       </c>
       <c r="D7" s="61">
-        <f>MAX(((D6+MIN('FCFF Model'!D4,0))*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
+        <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
         <v>1.479443916981434</v>
       </c>
       <c r="E7" s="49" t="str">

--- a/financial_models/Opportunities/6186.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6186.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA3AC8A-0CB4-409B-B6D3-E1FB3732B8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9BE1009-306C-45C1-834D-11BE5B04FC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3843,178 +3843,6 @@
     <xf numFmtId="173" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4029,16 +3857,188 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4499,33 +4499,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="404" t="s">
+      <c r="C3" s="383" t="s">
         <v>301</v>
       </c>
-      <c r="D3" s="405"/>
+      <c r="D3" s="384"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="414" t="s">
+      <c r="I3" s="395" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="415"/>
+      <c r="J3" s="396"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="406" t="s">
+      <c r="C4" s="385" t="s">
         <v>302</v>
       </c>
-      <c r="D4" s="407"/>
+      <c r="D4" s="386"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>5.83</v>
+        <v>5.98</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4536,10 +4536,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="408">
+      <c r="C5" s="387">
         <v>44501</v>
       </c>
-      <c r="D5" s="407"/>
+      <c r="D5" s="386"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4547,10 +4547,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="372">
+      <c r="I5" s="397">
         <v>9068251704</v>
       </c>
-      <c r="J5" s="373"/>
+      <c r="J5" s="398"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4573,11 +4573,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="416">
+      <c r="I6" s="399">
         <f>I4*I5/1000000</f>
-        <v>52867.907434319997</v>
-      </c>
-      <c r="J6" s="417"/>
+        <v>54228.145189920004</v>
+      </c>
+      <c r="J6" s="400"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4586,11 +4586,11 @@
       </c>
       <c r="C7" s="145">
         <f>(Data!C39)/I4</f>
-        <v>6.4165221674687453E-2</v>
+        <v>6.2555726147730417E-2</v>
       </c>
       <c r="D7" s="145">
         <f>(Data!C40)/I4</f>
-        <v>6.8966981614124812E-3</v>
+        <v>6.7237040603737065E-3</v>
       </c>
       <c r="E7" s="153"/>
       <c r="F7" s="6"/>
@@ -4617,11 +4617,11 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>6.7513547220353152</v>
+        <v>6.9098398343586069</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.1481184208461398</v>
+        <v>0.14472115475493119</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4640,47 +4640,47 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>2.0706195253085773</v>
+        <v>2.1192264170448776</v>
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>6.6169258002141103</v>
+        <v>6.8536833370802768</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="313" t="s">
         <v>276</v>
       </c>
-      <c r="C11" s="384">
+      <c r="C11" s="412">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="385"/>
+      <c r="D11" s="413"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="381" t="s">
+      <c r="I11" s="410" t="s">
         <v>303</v>
       </c>
-      <c r="J11" s="382"/>
+      <c r="J11" s="411"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="314" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="386">
+      <c r="C12" s="414">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="387"/>
+      <c r="D12" s="415"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="133"/>
       <c r="I12" s="135">
-        <v>1.1396682895075876</v>
+        <v>1.1421786546707153</v>
       </c>
       <c r="J12" s="136" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4698,21 +4698,21 @@
       </c>
       <c r="D14" s="184">
         <f ca="1">MIN('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>3.0033380402709549</v>
+        <v>3.0007852711918654</v>
       </c>
       <c r="E14" s="127" t="s">
         <v>235</v>
       </c>
       <c r="F14" s="184">
         <f ca="1">MAX('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>8.4422831256782178</v>
+        <v>8.4517108059915298</v>
       </c>
       <c r="G14" s="185" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="193">
         <f ca="1">IF('FCFF Model'!C33&lt;0, "Error", 'FCFF Model'!C33)</f>
-        <v>6.3150358535412527</v>
+        <v>6.3197778130229025</v>
       </c>
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
@@ -4743,59 +4743,59 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>5.83</v>
-      </c>
-      <c r="C16" s="396">
+        <v>5.98</v>
+      </c>
+      <c r="C16" s="422">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-1.6803455653301352E-2</v>
-      </c>
-      <c r="E16" s="391">
+        <v>-4.3180967721922731E-2</v>
+      </c>
+      <c r="E16" s="419">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
-        <v>0.30964787425921153</v>
+        <v>0.31032994047403334</v>
       </c>
       <c r="F16" s="161">
         <f>E16/B16</f>
-        <v>5.3112842926108322E-2</v>
-      </c>
-      <c r="G16" s="399" t="s">
+        <v>5.1894638875256409E-2</v>
+      </c>
+      <c r="G16" s="404" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="418">
+      <c r="H16" s="401">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>1.5430438993573794</v>
-      </c>
-      <c r="I16" s="399" t="s">
+        <v>1.5372745175384084</v>
+      </c>
+      <c r="I16" s="404" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>4.2869561006426204</v>
+        <v>4.4427254824615918</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="290">
         <f ca="1">H14/(1+C16)</f>
-        <v>5.7409416850375017</v>
-      </c>
-      <c r="C17" s="397"/>
+        <v>5.7452525572935471</v>
+      </c>
+      <c r="C17" s="423"/>
       <c r="D17" s="289">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="392"/>
+      <c r="E17" s="420"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
-        <v>5.3936774008041297E-2</v>
-      </c>
-      <c r="G17" s="400"/>
-      <c r="H17" s="419"/>
-      <c r="I17" s="400"/>
+        <v>5.4015021511991189E-2</v>
+      </c>
+      <c r="G17" s="405"/>
+      <c r="H17" s="402"/>
+      <c r="I17" s="405"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
-        <v>4.1978977856801221</v>
+        <v>4.2079780397551385</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4803,22 +4803,22 @@
         <f>C35</f>
         <v>4.8</v>
       </c>
-      <c r="C18" s="398"/>
+      <c r="C18" s="424"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
-        <v>0.21563246948776102</v>
-      </c>
-      <c r="E18" s="393"/>
+        <v>0.21662037771310469</v>
+      </c>
+      <c r="E18" s="421"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
-        <v>6.4509973804002405E-2</v>
-      </c>
-      <c r="G18" s="401"/>
-      <c r="H18" s="420"/>
-      <c r="I18" s="401"/>
+        <v>6.4652070932090286E-2</v>
+      </c>
+      <c r="G18" s="406"/>
+      <c r="H18" s="403"/>
+      <c r="I18" s="406"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
-        <v>3.2569561006426202</v>
+        <v>3.2627254824615912</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4849,42 +4849,42 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="411"/>
-      <c r="D21" s="412"/>
-      <c r="E21" s="412"/>
-      <c r="F21" s="412"/>
-      <c r="G21" s="412"/>
-      <c r="H21" s="412"/>
-      <c r="I21" s="412"/>
-      <c r="J21" s="413"/>
+      <c r="C21" s="390"/>
+      <c r="D21" s="391"/>
+      <c r="E21" s="391"/>
+      <c r="F21" s="391"/>
+      <c r="G21" s="391"/>
+      <c r="H21" s="391"/>
+      <c r="I21" s="391"/>
+      <c r="J21" s="392"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="383"/>
-      <c r="D22" s="378"/>
-      <c r="E22" s="378"/>
-      <c r="F22" s="378"/>
-      <c r="G22" s="383"/>
-      <c r="H22" s="383"/>
-      <c r="I22" s="378"/>
-      <c r="J22" s="378"/>
+      <c r="C22" s="408"/>
+      <c r="D22" s="376"/>
+      <c r="E22" s="376"/>
+      <c r="F22" s="376"/>
+      <c r="G22" s="408"/>
+      <c r="H22" s="408"/>
+      <c r="I22" s="376"/>
+      <c r="J22" s="376"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="394"/>
-      <c r="D23" s="395"/>
-      <c r="E23" s="395"/>
-      <c r="F23" s="395"/>
-      <c r="G23" s="394"/>
-      <c r="H23" s="394"/>
-      <c r="I23" s="395"/>
-      <c r="J23" s="395"/>
+      <c r="C23" s="393"/>
+      <c r="D23" s="394"/>
+      <c r="E23" s="394"/>
+      <c r="F23" s="394"/>
+      <c r="G23" s="393"/>
+      <c r="H23" s="393"/>
+      <c r="I23" s="394"/>
+      <c r="J23" s="394"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4921,73 +4921,73 @@
       </c>
       <c r="J25" s="349">
         <f ca="1">H14/(H25+C16+1)</f>
-        <v>5.0520286828330025</v>
+        <v>5.0558222504183217</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="409">
+      <c r="C26" s="388">
         <v>44501</v>
       </c>
-      <c r="D26" s="410"/>
-      <c r="E26" s="388" t="str">
+      <c r="D26" s="389"/>
+      <c r="E26" s="416" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="389"/>
-      <c r="G26" s="389"/>
-      <c r="H26" s="390"/>
-      <c r="I26" s="421" t="s">
+      <c r="F26" s="417"/>
+      <c r="G26" s="417"/>
+      <c r="H26" s="418"/>
+      <c r="I26" s="407" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="421"/>
+      <c r="J26" s="407"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="368">
+      <c r="C27" s="430">
         <f>C31/D25</f>
         <v>7.3866666666666664E-2</v>
       </c>
-      <c r="D27" s="367"/>
-      <c r="E27" s="366">
+      <c r="D27" s="374"/>
+      <c r="E27" s="429">
         <f>E31/D25</f>
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="F27" s="367"/>
-      <c r="G27" s="370">
+      <c r="F27" s="374"/>
+      <c r="G27" s="432">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="371"/>
-      <c r="I27" s="369">
+      <c r="H27" s="433"/>
+      <c r="I27" s="431">
         <f>C27+E27+G27</f>
         <v>0.13786666666666667</v>
       </c>
-      <c r="J27" s="369"/>
+      <c r="J27" s="431"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="402">
+      <c r="C28" s="375">
         <v>4000</v>
       </c>
-      <c r="D28" s="378"/>
-      <c r="E28" s="402">
+      <c r="D28" s="376"/>
+      <c r="E28" s="375">
         <v>8000</v>
       </c>
-      <c r="F28" s="378"/>
-      <c r="G28" s="372"/>
-      <c r="H28" s="373"/>
-      <c r="I28" s="427">
+      <c r="F28" s="376"/>
+      <c r="G28" s="397"/>
+      <c r="H28" s="398"/>
+      <c r="I28" s="363">
         <f>C28+E28+G28</f>
         <v>12000</v>
       </c>
-      <c r="J28" s="427"/>
+      <c r="J28" s="363"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
@@ -4996,139 +4996,139 @@
       <c r="C29" s="377">
         <v>11.08</v>
       </c>
-      <c r="D29" s="378"/>
+      <c r="D29" s="376"/>
       <c r="E29" s="377">
         <v>4.8</v>
       </c>
-      <c r="F29" s="378"/>
-      <c r="G29" s="436"/>
-      <c r="H29" s="437"/>
-      <c r="I29" s="374"/>
-      <c r="J29" s="374"/>
+      <c r="F29" s="376"/>
+      <c r="G29" s="378"/>
+      <c r="H29" s="379"/>
+      <c r="I29" s="434"/>
+      <c r="J29" s="434"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="423">
+      <c r="C30" s="368">
         <f>C29*$I$5/1000000</f>
         <v>100476.22888032001</v>
       </c>
-      <c r="D30" s="432"/>
-      <c r="E30" s="423">
+      <c r="D30" s="369"/>
+      <c r="E30" s="368">
         <f>E29*$I$5/1000000</f>
         <v>43527.608179199997</v>
       </c>
-      <c r="F30" s="432"/>
-      <c r="G30" s="360">
+      <c r="F30" s="369"/>
+      <c r="G30" s="425">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="361"/>
-      <c r="I30" s="375"/>
-      <c r="J30" s="375"/>
+      <c r="H30" s="426"/>
+      <c r="I30" s="435"/>
+      <c r="J30" s="435"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="433">
+      <c r="C31" s="370">
         <f>C28*C29</f>
         <v>44320</v>
       </c>
-      <c r="D31" s="434"/>
-      <c r="E31" s="426">
+      <c r="D31" s="371"/>
+      <c r="E31" s="362">
         <f>E28*E29</f>
         <v>38400</v>
       </c>
-      <c r="F31" s="435"/>
-      <c r="G31" s="379">
+      <c r="F31" s="372"/>
+      <c r="G31" s="436">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="380"/>
-      <c r="I31" s="426">
+      <c r="H31" s="437"/>
+      <c r="I31" s="362">
         <f>C31+E31+G31</f>
         <v>82720</v>
       </c>
-      <c r="J31" s="426"/>
+      <c r="J31" s="362"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="428"/>
-      <c r="D32" s="429"/>
-      <c r="E32" s="376">
+      <c r="C32" s="364"/>
+      <c r="D32" s="365"/>
+      <c r="E32" s="373">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>6.8933333333333335</v>
       </c>
-      <c r="F32" s="367"/>
+      <c r="F32" s="374"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="376">
+      <c r="I32" s="373">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>6.8933333333333335</v>
       </c>
-      <c r="J32" s="376"/>
+      <c r="J32" s="373"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="430"/>
-      <c r="D33" s="431"/>
-      <c r="E33" s="423">
+      <c r="C33" s="366"/>
+      <c r="D33" s="367"/>
+      <c r="E33" s="368">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>62510.481746240002</v>
       </c>
-      <c r="F33" s="432"/>
+      <c r="F33" s="369"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="423">
+      <c r="I33" s="368">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>62510.481746240002</v>
       </c>
-      <c r="J33" s="423"/>
+      <c r="J33" s="368"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>315</v>
       </c>
-      <c r="C35" s="364">
+      <c r="C35" s="380">
         <f>E29</f>
         <v>4.8</v>
       </c>
-      <c r="D35" s="365"/>
-      <c r="G35" s="362" t="s">
+      <c r="D35" s="381"/>
+      <c r="G35" s="427" t="s">
         <v>319</v>
       </c>
-      <c r="H35" s="363"/>
-      <c r="I35" s="364">
+      <c r="H35" s="428"/>
+      <c r="I35" s="380">
         <f ca="1">'FCFF Model'!C34*0.8</f>
-        <v>7.2184716544539143</v>
-      </c>
-      <c r="J35" s="365"/>
+        <v>7.2270372798510838</v>
+      </c>
+      <c r="J35" s="381"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>316</v>
       </c>
-      <c r="C36" s="402">
+      <c r="C36" s="375">
         <f>E28</f>
         <v>8000</v>
       </c>
-      <c r="D36" s="403"/>
-      <c r="G36" s="422" t="s">
+      <c r="D36" s="382"/>
+      <c r="G36" s="409" t="s">
         <v>323</v>
       </c>
-      <c r="H36" s="422"/>
-      <c r="I36" s="424">
+      <c r="H36" s="409"/>
+      <c r="I36" s="360">
         <f ca="1">I35/C29-1</f>
-        <v>-0.34851338858719183</v>
-      </c>
-      <c r="J36" s="425"/>
+        <v>-0.34774031770297076</v>
+      </c>
+      <c r="J36" s="361"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="F45" s="352">
         <f ca="1">I35/C29-1</f>
-        <v>-0.34851338858719183</v>
+        <v>-0.34774031770297076</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="F46" s="352">
         <f ca="1">D14/C29-1</f>
-        <v>-0.72894061008384892</v>
+        <v>-0.72917100440506633</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5224,11 +5224,11 @@
       </c>
       <c r="E49" s="357">
         <f ca="1">F45/ABS(F46)</f>
-        <v>-0.47810944234140401</v>
+        <v>-0.47689817011675273</v>
       </c>
       <c r="F49" s="353">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>-0.47810944234140401</v>
+        <v>-0.47689817011675273</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6168,6 +6168,44 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I33:J33"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I28:J28"/>
@@ -6184,44 +6222,6 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G31:H31"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
     <cfRule type="containsBlanks" priority="6">
@@ -9509,7 +9509,7 @@
       </c>
       <c r="I4" s="91">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>2.7502049103058943</v>
+        <v>2.7562628296687981</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9526,11 +9526,11 @@
       <c r="C6" s="6"/>
       <c r="D6" s="59">
         <f>E46-I46-E50+MIN('FCFF Model'!D4,0)</f>
-        <v>11771819.874830345</v>
+        <v>11699029.012965782</v>
       </c>
       <c r="E6" s="14">
         <f>1-D6/D3</f>
-        <v>0.49651567972918764</v>
+        <v>0.49962896705412929</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -9549,7 +9549,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>1.479443916981434</v>
+        <v>1.4735344424867238</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10414,11 +10414,11 @@
       </c>
       <c r="D50" s="214">
         <f>IF(E50=0, 0,E50/C50)</f>
-        <v>2.0706195253085773</v>
+        <v>2.1192264170448776</v>
       </c>
       <c r="E50" s="218">
         <f>MAX(C50,C50*Dashboard!I10)</f>
-        <v>3100839.7051696572</v>
+        <v>3173630.5670342199</v>
       </c>
       <c r="I50" s="157"/>
     </row>
@@ -10449,7 +10449,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>1183453</v>
       </c>
-      <c r="E53" s="434"/>
+      <c r="E53" s="371"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10468,7 +10468,7 @@
       <c r="D54" s="446">
         <v>0</v>
       </c>
-      <c r="E54" s="378"/>
+      <c r="E54" s="376"/>
       <c r="F54" s="6" t="s">
         <v>137</v>
       </c>
@@ -10482,7 +10482,7 @@
       <c r="D55" s="446">
         <v>0</v>
       </c>
-      <c r="E55" s="378"/>
+      <c r="E55" s="376"/>
       <c r="F55" s="5" t="s">
         <v>138</v>
       </c>
@@ -10546,7 +10546,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="444">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>40050442.139489651</v>
+        <v>41483470.756954223</v>
       </c>
       <c r="E60" s="445"/>
       <c r="F60" s="6"/>
@@ -10565,11 +10565,11 @@
       <c r="B63" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D63" s="424">
+      <c r="D63" s="360">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-0.16514252885624575</v>
       </c>
-      <c r="E63" s="425"/>
+      <c r="E63" s="361"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
@@ -12394,7 +12394,7 @@
       </c>
       <c r="G18" s="137">
         <f>C18+C19+C20+C21</f>
-        <v>12277879.974830342</v>
+        <v>12205089.112965779</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12414,7 +12414,7 @@
       </c>
       <c r="G19" s="197">
         <f>(G18+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
-        <v>1.353941241994262</v>
+        <v>1.3459142413947469</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12446,11 +12446,11 @@
       </c>
       <c r="C21" s="84">
         <f>-Asset_Model!E50</f>
-        <v>-3100839.7051696572</v>
+        <v>-3173630.5670342199</v>
       </c>
       <c r="D21" s="219">
         <f>C21/(Dashboard!I5/Data!C4)</f>
-        <v>-0.34194460039104108</v>
+        <v>-0.34997160099055624</v>
       </c>
       <c r="E21" s="449"/>
       <c r="F21" s="148">
@@ -12459,7 +12459,7 @@
       </c>
       <c r="G21" s="147">
         <f>SUM(D19:D21)</f>
-        <v>-0.46169837823567067</v>
+        <v>-0.46972537883518584</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12525,7 +12525,7 @@
       </c>
       <c r="G25" s="206">
         <f ca="1">$F$25+E25+$G$19</f>
-        <v>4.6409813047360586</v>
+        <v>4.6329543041365433</v>
       </c>
       <c r="I25" s="74"/>
     </row>
@@ -12547,7 +12547,7 @@
       <c r="F26" s="451"/>
       <c r="G26" s="207">
         <f ca="1">$F$25+E26+$G$19</f>
-        <v>7.4076669530972428</v>
+        <v>7.3996399524977274</v>
       </c>
       <c r="I26" s="74" t="s">
         <v>311</v>
@@ -12592,7 +12592,7 @@
       </c>
       <c r="C30" s="252">
         <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)</f>
-        <v>3.0033380402709549</v>
+        <v>3.0007852711918654</v>
       </c>
       <c r="D30" s="23" t="str">
         <f ca="1">IF(C30&lt;E30,"&lt;",IF(C30=E30,"=","&gt;"))</f>
@@ -12600,7 +12600,7 @@
       </c>
       <c r="E30" s="251">
         <f ca="1">G26*Exchange_Rate</f>
-        <v>8.4422831256782178</v>
+        <v>8.4517108059915298</v>
       </c>
       <c r="F30" s="30"/>
       <c r="H30" s="6"/>
@@ -12636,7 +12636,7 @@
       </c>
       <c r="C33" s="253">
         <f ca="1">MIN(C30,E30)+ABS(C30-E30)*'Qualitative Analysis'!$E$64</f>
-        <v>6.3150358535412527</v>
+        <v>6.3197778130229025</v>
       </c>
       <c r="D33" s="119" t="str">
         <f>Dashboard!J4</f>
@@ -12644,11 +12644,11 @@
       </c>
       <c r="E33" s="120">
         <f ca="1">(C33-G19)/C9</f>
-        <v>11.387710362339805</v>
+        <v>11.417020268805636</v>
       </c>
       <c r="F33" s="158">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>2.2428879144710523</v>
+        <v>2.2396388112395047</v>
       </c>
       <c r="G33" s="87"/>
       <c r="H33" s="6"/>
@@ -12660,7 +12660,7 @@
       </c>
       <c r="C34" s="254">
         <f ca="1">MAX(Asset_Model!D7,(G12/(1+G34)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>9.0230895680673928</v>
+        <v>9.0337965998138543</v>
       </c>
       <c r="D34" s="208" t="str">
         <f>D33</f>
@@ -12668,11 +12668,11 @@
       </c>
       <c r="E34" s="120">
         <f ca="1">(C34-G19)/C9</f>
-        <v>17.603784386589446</v>
+        <v>17.646786536513808</v>
       </c>
       <c r="F34" s="158">
         <f ca="1">C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>3.2046973307458799</v>
+        <v>3.2014482275143328</v>
       </c>
       <c r="G34" s="281">
         <f>Dashboard!D10+4.5%</f>

--- a/financial_models/Opportunities/6186.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6186.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9BE1009-306C-45C1-834D-11BE5B04FC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD913A6-3AA6-4739-AD5E-4B365224A5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="337">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1189,6 +1189,9 @@
   </si>
   <si>
     <t>5. The probability of a recession affecting the company</t>
+  </si>
+  <si>
+    <t>Quarter</t>
   </si>
 </sst>
 </file>
@@ -2930,7 +2933,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="453">
+  <cellXfs count="452">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3584,9 +3587,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="182" fontId="2" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3841,6 +3841,178 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="173" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3857,188 +4029,16 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4454,8 +4454,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4483,7 +4483,7 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="308" t="str">
+      <c r="C2" s="307" t="str">
         <f>C3&amp;" : "&amp;C4</f>
         <v>6186.HK : CHINA FEIHE</v>
       </c>
@@ -4499,27 +4499,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="383" t="s">
+      <c r="C3" s="403" t="s">
         <v>301</v>
       </c>
-      <c r="D3" s="384"/>
+      <c r="D3" s="404"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="395" t="s">
+      <c r="I3" s="413" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="396"/>
+      <c r="J3" s="414"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="385" t="s">
+      <c r="C4" s="405" t="s">
         <v>302</v>
       </c>
-      <c r="D4" s="386"/>
+      <c r="D4" s="406"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4536,10 +4536,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="387">
+      <c r="C5" s="407">
         <v>44501</v>
       </c>
-      <c r="D5" s="386"/>
+      <c r="D5" s="406"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4547,10 +4547,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="397">
+      <c r="I5" s="371">
         <v>9068251704</v>
       </c>
-      <c r="J5" s="398"/>
+      <c r="J5" s="372"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4558,26 +4558,26 @@
       <c r="B6" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="C6" s="270">
+      <c r="C6" s="269">
         <v>8</v>
       </c>
-      <c r="D6" s="271">
+      <c r="D6" s="270">
         <f>EOMONTH(EDATE(Asset_Model!D9,C6),0)</f>
         <v>44985</v>
       </c>
-      <c r="E6" s="347">
-        <f>Data!C3</f>
+      <c r="E6" s="346">
+        <f>IF(Asset_Model!E9="FY",Asset_Model!D9,Data!C3)</f>
         <v>44561</v>
       </c>
       <c r="G6" s="134" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="399">
+      <c r="I6" s="415">
         <f>I4*I5/1000000</f>
         <v>54228.145189920004</v>
       </c>
-      <c r="J6" s="400"/>
+      <c r="J6" s="416"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4609,8 +4609,8 @@
       <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="301"/>
-      <c r="D9" s="299"/>
+      <c r="C9" s="300"/>
+      <c r="D9" s="298"/>
       <c r="E9" s="5"/>
       <c r="G9" s="5" t="s">
         <v>13</v>
@@ -4628,10 +4628,10 @@
       <c r="B10" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C10" s="300" t="s">
+      <c r="C10" s="299" t="s">
         <v>275</v>
       </c>
-      <c r="D10" s="300">
+      <c r="D10" s="299">
         <v>2.8999999999999998E-2</v>
       </c>
       <c r="E10" s="5"/>
@@ -4648,33 +4648,33 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="313" t="s">
+      <c r="B11" s="312" t="s">
         <v>276</v>
       </c>
-      <c r="C11" s="412">
+      <c r="C11" s="383">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="413"/>
+      <c r="D11" s="384"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="410" t="s">
+      <c r="I11" s="380" t="s">
         <v>303</v>
       </c>
-      <c r="J11" s="411"/>
+      <c r="J11" s="381"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="314" t="s">
+      <c r="B12" s="313" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="414">
+      <c r="C12" s="385">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="415"/>
+      <c r="D12" s="386"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4745,14 +4745,14 @@
         <f>I4</f>
         <v>5.98</v>
       </c>
-      <c r="C16" s="422">
+      <c r="C16" s="395">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
         <v>-4.3180967721922731E-2</v>
       </c>
-      <c r="E16" s="419">
+      <c r="E16" s="390">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0.31032994047403334</v>
       </c>
@@ -4760,14 +4760,14 @@
         <f>E16/B16</f>
         <v>5.1894638875256409E-2</v>
       </c>
-      <c r="G16" s="404" t="s">
+      <c r="G16" s="398" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="401">
+      <c r="H16" s="417">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>1.5372745175384084</v>
       </c>
-      <c r="I16" s="404" t="s">
+      <c r="I16" s="398" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
@@ -4776,46 +4776,46 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="290">
+      <c r="B17" s="289">
         <f ca="1">H14/(1+C16)</f>
         <v>5.7452525572935471</v>
       </c>
-      <c r="C17" s="423"/>
-      <c r="D17" s="289">
+      <c r="C17" s="396"/>
+      <c r="D17" s="288">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="420"/>
+      <c r="E17" s="391"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
         <v>5.4015021511991189E-2</v>
       </c>
-      <c r="G17" s="405"/>
-      <c r="H17" s="402"/>
-      <c r="I17" s="405"/>
+      <c r="G17" s="399"/>
+      <c r="H17" s="418"/>
+      <c r="I17" s="399"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
         <v>4.2079780397551385</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="350">
+      <c r="B18" s="349">
         <f>C35</f>
         <v>4.8</v>
       </c>
-      <c r="C18" s="424"/>
+      <c r="C18" s="397"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
         <v>0.21662037771310469</v>
       </c>
-      <c r="E18" s="421"/>
+      <c r="E18" s="392"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
         <v>6.4652070932090286E-2</v>
       </c>
-      <c r="G18" s="406"/>
-      <c r="H18" s="403"/>
-      <c r="I18" s="406"/>
+      <c r="G18" s="400"/>
+      <c r="H18" s="419"/>
+      <c r="I18" s="400"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
         <v>3.2627254824615912</v>
@@ -4833,7 +4833,7 @@
       <c r="C20" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D20" s="291" t="s">
+      <c r="D20" s="290" t="s">
         <v>314</v>
       </c>
       <c r="E20" s="266" t="s">
@@ -4849,28 +4849,28 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="390"/>
-      <c r="D21" s="391"/>
-      <c r="E21" s="391"/>
-      <c r="F21" s="391"/>
-      <c r="G21" s="391"/>
-      <c r="H21" s="391"/>
-      <c r="I21" s="391"/>
-      <c r="J21" s="392"/>
+      <c r="C21" s="410"/>
+      <c r="D21" s="411"/>
+      <c r="E21" s="411"/>
+      <c r="F21" s="411"/>
+      <c r="G21" s="411"/>
+      <c r="H21" s="411"/>
+      <c r="I21" s="411"/>
+      <c r="J21" s="412"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="408"/>
-      <c r="D22" s="376"/>
-      <c r="E22" s="376"/>
-      <c r="F22" s="376"/>
-      <c r="G22" s="408"/>
-      <c r="H22" s="408"/>
-      <c r="I22" s="376"/>
-      <c r="J22" s="376"/>
+      <c r="C22" s="382"/>
+      <c r="D22" s="377"/>
+      <c r="E22" s="377"/>
+      <c r="F22" s="377"/>
+      <c r="G22" s="382"/>
+      <c r="H22" s="382"/>
+      <c r="I22" s="377"/>
+      <c r="J22" s="377"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
@@ -4913,13 +4913,13 @@
         <v>317</v>
       </c>
       <c r="G25" s="12"/>
-      <c r="H25" s="348">
+      <c r="H25" s="347">
         <v>0.15</v>
       </c>
       <c r="I25" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="J25" s="349">
+      <c r="J25" s="348">
         <f ca="1">H14/(H25+C16+1)</f>
         <v>5.0558222504183217</v>
       </c>
@@ -4928,207 +4928,207 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="388">
+      <c r="C26" s="408">
         <v>44501</v>
       </c>
-      <c r="D26" s="389"/>
-      <c r="E26" s="416" t="str">
+      <c r="D26" s="409"/>
+      <c r="E26" s="387" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="417"/>
-      <c r="G26" s="417"/>
-      <c r="H26" s="418"/>
-      <c r="I26" s="407" t="s">
+      <c r="F26" s="388"/>
+      <c r="G26" s="388"/>
+      <c r="H26" s="389"/>
+      <c r="I26" s="420" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="407"/>
+      <c r="J26" s="420"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="430">
+      <c r="C27" s="367">
         <f>C31/D25</f>
         <v>7.3866666666666664E-2</v>
       </c>
-      <c r="D27" s="374"/>
-      <c r="E27" s="429">
+      <c r="D27" s="366"/>
+      <c r="E27" s="365">
         <f>E31/D25</f>
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="F27" s="374"/>
-      <c r="G27" s="432">
+      <c r="F27" s="366"/>
+      <c r="G27" s="369">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="433"/>
-      <c r="I27" s="431">
+      <c r="H27" s="370"/>
+      <c r="I27" s="368">
         <f>C27+E27+G27</f>
         <v>0.13786666666666667</v>
       </c>
-      <c r="J27" s="431"/>
+      <c r="J27" s="368"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="375">
+      <c r="C28" s="401">
         <v>4000</v>
       </c>
-      <c r="D28" s="376"/>
-      <c r="E28" s="375">
+      <c r="D28" s="377"/>
+      <c r="E28" s="401">
         <v>8000</v>
       </c>
-      <c r="F28" s="376"/>
-      <c r="G28" s="397"/>
-      <c r="H28" s="398"/>
-      <c r="I28" s="363">
+      <c r="F28" s="377"/>
+      <c r="G28" s="371"/>
+      <c r="H28" s="372"/>
+      <c r="I28" s="426">
         <f>C28+E28+G28</f>
         <v>12000</v>
       </c>
-      <c r="J28" s="363"/>
+      <c r="J28" s="426"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="377">
+      <c r="C29" s="376">
         <v>11.08</v>
       </c>
-      <c r="D29" s="376"/>
-      <c r="E29" s="377">
+      <c r="D29" s="377"/>
+      <c r="E29" s="376">
         <v>4.8</v>
       </c>
-      <c r="F29" s="376"/>
-      <c r="G29" s="378"/>
-      <c r="H29" s="379"/>
-      <c r="I29" s="434"/>
-      <c r="J29" s="434"/>
+      <c r="F29" s="377"/>
+      <c r="G29" s="435"/>
+      <c r="H29" s="436"/>
+      <c r="I29" s="373"/>
+      <c r="J29" s="373"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="368">
+      <c r="C30" s="422">
         <f>C29*$I$5/1000000</f>
         <v>100476.22888032001</v>
       </c>
-      <c r="D30" s="369"/>
-      <c r="E30" s="368">
+      <c r="D30" s="431"/>
+      <c r="E30" s="422">
         <f>E29*$I$5/1000000</f>
         <v>43527.608179199997</v>
       </c>
-      <c r="F30" s="369"/>
-      <c r="G30" s="425">
+      <c r="F30" s="431"/>
+      <c r="G30" s="359">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="426"/>
-      <c r="I30" s="435"/>
-      <c r="J30" s="435"/>
+      <c r="H30" s="360"/>
+      <c r="I30" s="374"/>
+      <c r="J30" s="374"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="370">
+      <c r="C31" s="432">
         <f>C28*C29</f>
         <v>44320</v>
       </c>
-      <c r="D31" s="371"/>
-      <c r="E31" s="362">
+      <c r="D31" s="433"/>
+      <c r="E31" s="425">
         <f>E28*E29</f>
         <v>38400</v>
       </c>
-      <c r="F31" s="372"/>
-      <c r="G31" s="436">
+      <c r="F31" s="434"/>
+      <c r="G31" s="378">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="437"/>
-      <c r="I31" s="362">
+      <c r="H31" s="379"/>
+      <c r="I31" s="425">
         <f>C31+E31+G31</f>
         <v>82720</v>
       </c>
-      <c r="J31" s="362"/>
+      <c r="J31" s="425"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="364"/>
-      <c r="D32" s="365"/>
-      <c r="E32" s="373">
+      <c r="C32" s="427"/>
+      <c r="D32" s="428"/>
+      <c r="E32" s="375">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>6.8933333333333335</v>
       </c>
-      <c r="F32" s="374"/>
+      <c r="F32" s="366"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="373">
+      <c r="I32" s="375">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>6.8933333333333335</v>
       </c>
-      <c r="J32" s="373"/>
+      <c r="J32" s="375"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="366"/>
-      <c r="D33" s="367"/>
-      <c r="E33" s="368">
+      <c r="C33" s="429"/>
+      <c r="D33" s="430"/>
+      <c r="E33" s="422">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>62510.481746240002</v>
       </c>
-      <c r="F33" s="369"/>
+      <c r="F33" s="431"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="368">
+      <c r="I33" s="422">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>62510.481746240002</v>
       </c>
-      <c r="J33" s="368"/>
+      <c r="J33" s="422"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>315</v>
       </c>
-      <c r="C35" s="380">
+      <c r="C35" s="363">
         <f>E29</f>
         <v>4.8</v>
       </c>
-      <c r="D35" s="381"/>
-      <c r="G35" s="427" t="s">
+      <c r="D35" s="364"/>
+      <c r="G35" s="361" t="s">
         <v>319</v>
       </c>
-      <c r="H35" s="428"/>
-      <c r="I35" s="380">
+      <c r="H35" s="362"/>
+      <c r="I35" s="363">
         <f ca="1">'FCFF Model'!C34*0.8</f>
         <v>7.2270372798510838</v>
       </c>
-      <c r="J35" s="381"/>
+      <c r="J35" s="364"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>316</v>
       </c>
-      <c r="C36" s="375">
+      <c r="C36" s="401">
         <f>E28</f>
         <v>8000</v>
       </c>
-      <c r="D36" s="382"/>
-      <c r="G36" s="409" t="s">
+      <c r="D36" s="402"/>
+      <c r="G36" s="421" t="s">
         <v>323</v>
       </c>
-      <c r="H36" s="409"/>
-      <c r="I36" s="360">
+      <c r="H36" s="421"/>
+      <c r="I36" s="423">
         <f ca="1">I35/C29-1</f>
         <v>-0.34774031770297076</v>
       </c>
-      <c r="J36" s="361"/>
+      <c r="J36" s="424"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5161,8 +5161,8 @@
       <c r="B41" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E41" s="351"/>
-      <c r="F41" s="352">
+      <c r="E41" s="350"/>
+      <c r="F41" s="351">
         <f>'Qualitative Analysis'!E64</f>
         <v>0.60888605442176869</v>
       </c>
@@ -5171,7 +5171,7 @@
       <c r="B42" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="E42" s="351">
+      <c r="E42" s="350">
         <f ca="1">IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
         <v>0</v>
       </c>
@@ -5184,7 +5184,7 @@
       <c r="B43" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="F43" s="356">
+      <c r="F43" s="355">
         <f>AVERAGE(80%*0.5,0.6)</f>
         <v>0.5</v>
       </c>
@@ -5194,7 +5194,7 @@
       <c r="B45" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F45" s="352">
+      <c r="F45" s="351">
         <f ca="1">I35/C29-1</f>
         <v>-0.34774031770297076</v>
       </c>
@@ -5203,7 +5203,7 @@
       <c r="B46" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="F46" s="352">
+      <c r="F46" s="351">
         <f ca="1">D14/C29-1</f>
         <v>-0.72917100440506633</v>
       </c>
@@ -5222,11 +5222,11 @@
       <c r="B49" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="E49" s="357">
+      <c r="E49" s="356">
         <f ca="1">F45/ABS(F46)</f>
         <v>-0.47689817011675273</v>
       </c>
-      <c r="F49" s="353">
+      <c r="F49" s="352">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
         <v>-0.47689817011675273</v>
       </c>
@@ -5239,11 +5239,11 @@
         <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
         <v>0</v>
       </c>
-      <c r="F50" s="354">
+      <c r="F50" s="353">
         <f ca="1">MIN(E50,H50)</f>
         <v>0</v>
       </c>
-      <c r="G50" s="355" t="s">
+      <c r="G50" s="354" t="s">
         <v>332</v>
       </c>
       <c r="H50" s="78">
@@ -6168,28 +6168,22 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -6206,22 +6200,28 @@
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G31:H31"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
     <cfRule type="containsBlanks" priority="6">
@@ -6397,47 +6397,47 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="42"/>
-      <c r="C6" s="279">
+      <c r="C6" s="278">
         <f>C3</f>
         <v>44561</v>
       </c>
-      <c r="D6" s="280">
+      <c r="D6" s="279">
         <f>EOMONTH(EDATE(C6,-12),0)</f>
         <v>44196</v>
       </c>
-      <c r="E6" s="280">
+      <c r="E6" s="279">
         <f t="shared" ref="E6:M6" si="0">EOMONTH(EDATE(D6,-12),0)</f>
         <v>43830</v>
       </c>
-      <c r="F6" s="280">
+      <c r="F6" s="279">
         <f t="shared" si="0"/>
         <v>43465</v>
       </c>
-      <c r="G6" s="280">
+      <c r="G6" s="279">
         <f t="shared" si="0"/>
         <v>43100</v>
       </c>
-      <c r="H6" s="280">
+      <c r="H6" s="279">
         <f t="shared" si="0"/>
         <v>42735</v>
       </c>
-      <c r="I6" s="280">
+      <c r="I6" s="279">
         <f t="shared" si="0"/>
         <v>42369</v>
       </c>
-      <c r="J6" s="280">
+      <c r="J6" s="279">
         <f t="shared" si="0"/>
         <v>42004</v>
       </c>
-      <c r="K6" s="280">
+      <c r="K6" s="279">
         <f t="shared" si="0"/>
         <v>41639</v>
       </c>
-      <c r="L6" s="280">
+      <c r="L6" s="279">
         <f t="shared" si="0"/>
         <v>41274</v>
       </c>
-      <c r="M6" s="280">
+      <c r="M6" s="279">
         <f t="shared" si="0"/>
         <v>40908</v>
       </c>
@@ -7095,7 +7095,7 @@
       <c r="B24" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="273">
+      <c r="C24" s="272">
         <v>62103</v>
       </c>
       <c r="D24" s="140">
@@ -7456,7 +7456,7 @@
         <f t="shared" ref="L34" si="17">IF(M7="","",L30-M30+L33+IF($C$49="Yes",L51,0))</f>
         <v/>
       </c>
-      <c r="M34" s="346" t="str">
+      <c r="M34" s="345" t="str">
         <f t="shared" ref="M34" si="18">IF(N7="","",M30-N30+M33+IF($C$49="Yes",M51,0))</f>
         <v/>
       </c>
@@ -7982,7 +7982,7 @@
       <c r="B49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="345" t="s">
+      <c r="C49" s="344" t="s">
         <v>78</v>
       </c>
       <c r="D49" s="6"/>
@@ -7998,9 +7998,9 @@
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="340"/>
+      <c r="C50" s="339"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="340"/>
+      <c r="E50" s="339"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -8012,7 +8012,7 @@
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
-      <c r="B51" s="341" t="s">
+      <c r="B51" s="340" t="s">
         <v>299</v>
       </c>
       <c r="C51" s="165"/>
@@ -8029,50 +8029,50 @@
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
-      <c r="B52" s="342" t="s">
+      <c r="B52" s="341" t="s">
         <v>300</v>
       </c>
-      <c r="C52" s="343" t="str">
+      <c r="C52" s="342" t="str">
         <f>IF(C51="","",C51/C7)</f>
         <v/>
       </c>
-      <c r="D52" s="343" t="str">
+      <c r="D52" s="342" t="str">
         <f t="shared" ref="D52:M52" si="27">IF(D51="","",D51/D7)</f>
         <v/>
       </c>
-      <c r="E52" s="343" t="str">
+      <c r="E52" s="342" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="F52" s="343" t="str">
+      <c r="F52" s="342" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="G52" s="343" t="str">
+      <c r="G52" s="342" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H52" s="343" t="str">
+      <c r="H52" s="342" t="str">
         <f>IF(H51="","",H51/H7)</f>
         <v/>
       </c>
-      <c r="I52" s="343" t="str">
+      <c r="I52" s="342" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="J52" s="343" t="str">
+      <c r="J52" s="342" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="K52" s="343" t="str">
+      <c r="K52" s="342" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="L52" s="343" t="str">
+      <c r="L52" s="342" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="M52" s="344" t="str">
+      <c r="M52" s="343" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
@@ -9443,7 +9443,7 @@
   <dimension ref="A2:J65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9476,7 +9476,7 @@
         <v>260</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="274">
+      <c r="D3" s="273">
         <v>23380708</v>
       </c>
       <c r="E3" s="156" t="str">
@@ -9485,10 +9485,10 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="275" t="s">
+      <c r="H3" s="274" t="s">
         <v>261</v>
       </c>
-      <c r="I3" s="276">
+      <c r="I3" s="275">
         <v>21883166</v>
       </c>
     </row>
@@ -9497,7 +9497,7 @@
         <v>227</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="277">
+      <c r="D4" s="276">
         <f>D3-I3</f>
         <v>1497542</v>
       </c>
@@ -9580,12 +9580,11 @@
         <v>256</v>
       </c>
       <c r="C9" s="255"/>
-      <c r="D9" s="272">
+      <c r="D9" s="271">
         <v>44742</v>
       </c>
-      <c r="E9" s="269" t="str">
-        <f>IF(D9=Data!C3,"FY","Quarter")</f>
-        <v>Quarter</v>
+      <c r="E9" s="290" t="s">
+        <v>336</v>
       </c>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
@@ -10432,11 +10431,11 @@
         <v>267</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="438">
+      <c r="D52" s="437">
         <f>D53+D54+D55</f>
         <v>1183453</v>
       </c>
-      <c r="E52" s="439"/>
+      <c r="E52" s="438"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10445,11 +10444,11 @@
         <v>237</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="441">
+      <c r="D53" s="440">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>1183453</v>
       </c>
-      <c r="E53" s="371"/>
+      <c r="E53" s="433"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10465,10 +10464,10 @@
         <v>136</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="446">
+      <c r="D54" s="445">
         <v>0</v>
       </c>
-      <c r="E54" s="376"/>
+      <c r="E54" s="377"/>
       <c r="F54" s="6" t="s">
         <v>137</v>
       </c>
@@ -10479,10 +10478,10 @@
         <v>135</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="446">
+      <c r="D55" s="445">
         <v>0</v>
       </c>
-      <c r="E55" s="376"/>
+      <c r="E55" s="377"/>
       <c r="F55" s="5" t="s">
         <v>138</v>
       </c>
@@ -10497,8 +10496,8 @@
         <v>139</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="440"/>
-      <c r="E57" s="440"/>
+      <c r="D57" s="439"/>
+      <c r="E57" s="439"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10544,11 +10543,11 @@
         <v>140</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="444">
+      <c r="D60" s="443">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
         <v>41483470.756954223</v>
       </c>
-      <c r="E60" s="445"/>
+      <c r="E60" s="444"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10557,7 +10556,7 @@
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="292" t="s">
+      <c r="B62" s="291" t="s">
         <v>266</v>
       </c>
     </row>
@@ -10565,32 +10564,32 @@
       <c r="B63" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D63" s="360">
+      <c r="D63" s="423">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-0.16514252885624575</v>
       </c>
-      <c r="E63" s="361"/>
+      <c r="E63" s="424"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D64" s="442">
+      <c r="D64" s="441">
         <v>6.7599999999999993E-2</v>
       </c>
-      <c r="E64" s="443"/>
+      <c r="E64" s="442"/>
       <c r="F64" s="266" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="292" t="s">
+      <c r="B65" s="291" t="s">
         <v>270</v>
       </c>
-      <c r="D65" s="442">
+      <c r="D65" s="441">
         <v>6.7599999999999993E-2</v>
       </c>
-      <c r="E65" s="443"/>
+      <c r="E65" s="442"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10604,10 +10603,13 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation allowBlank="1" sqref="D49" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F33:F35 F19:F20 F16" xr:uid="{DBDA56F9-BDA2-428A-9035-F60711F90E5E}">
       <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9" xr:uid="{80F298FD-0D7D-4014-88B2-A76FBA9B2E64}">
+      <formula1>"FY, Quarter"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -10626,7 +10628,7 @@
   <dimension ref="A1:M901"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10659,22 +10661,22 @@
       <c r="B2" s="92" t="s">
         <v>250</v>
       </c>
-      <c r="C2" s="286" t="s">
+      <c r="C2" s="285" t="s">
         <v>264</v>
       </c>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286">
+      <c r="D2" s="285"/>
+      <c r="E2" s="285">
         <v>1</v>
       </c>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286">
+      <c r="F2" s="285"/>
+      <c r="G2" s="285">
         <v>2</v>
       </c>
       <c r="H2" s="12"/>
-      <c r="I2" s="286">
+      <c r="I2" s="285">
         <v>3</v>
       </c>
-      <c r="J2" s="286"/>
+      <c r="J2" s="285"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
@@ -10683,72 +10685,72 @@
         <f>'FCFF Model'!B3</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C3" s="278">
-        <f>Data!C3</f>
+      <c r="C3" s="277">
+        <f>Dashboard!E6</f>
         <v>44561</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="E3" s="278">
+      <c r="E3" s="277">
         <f>EOMONTH(EDATE(C3,12),0)</f>
         <v>44926</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="G3" s="278">
+      <c r="G3" s="277">
         <f>IF(G7="","",EOMONTH(EDATE(E3,12),0))</f>
         <v>45291</v>
       </c>
       <c r="H3" s="28"/>
-      <c r="I3" s="278" t="str">
+      <c r="I3" s="277" t="str">
         <f>IF(I14="","",EOMONTH(EDATE(G3,12),0))</f>
         <v/>
       </c>
-      <c r="J3" s="297"/>
+      <c r="J3" s="296"/>
       <c r="L3" s="72" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="293" t="s">
+      <c r="B4" s="292" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="294">
+      <c r="C4" s="293">
         <v>22545004</v>
       </c>
       <c r="D4" s="260">
         <f>C4/C6</f>
         <v>0.98984640370139709</v>
       </c>
-      <c r="E4" s="294"/>
+      <c r="E4" s="293"/>
       <c r="F4" s="260"/>
       <c r="G4" s="222"/>
       <c r="H4" s="260"/>
       <c r="I4" s="222"/>
-      <c r="J4" s="287"/>
+      <c r="J4" s="286"/>
       <c r="K4" s="6"/>
       <c r="L4" s="74"/>
       <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="293" t="s">
+      <c r="B5" s="292" t="s">
         <v>307</v>
       </c>
-      <c r="C5" s="294">
+      <c r="C5" s="293">
         <v>231261</v>
       </c>
       <c r="D5" s="260">
         <f>C5/C6</f>
         <v>1.0153596298602954E-2</v>
       </c>
-      <c r="E5" s="294"/>
+      <c r="E5" s="293"/>
       <c r="F5" s="260"/>
       <c r="G5" s="222"/>
       <c r="H5" s="260"/>
       <c r="I5" s="222"/>
-      <c r="J5" s="287"/>
+      <c r="J5" s="286"/>
       <c r="K5" s="6"/>
       <c r="L5" s="74"/>
       <c r="M5" s="57"/>
@@ -10762,18 +10764,18 @@
         <v>22776265</v>
       </c>
       <c r="D6" s="259"/>
-      <c r="E6" s="339">
+      <c r="E6" s="338">
         <f>C6*0.84</f>
         <v>19132062.599999998</v>
       </c>
       <c r="F6" s="259"/>
-      <c r="G6" s="339">
+      <c r="G6" s="338">
         <f>C6</f>
         <v>22776265</v>
       </c>
       <c r="H6" s="259"/>
       <c r="I6" s="228"/>
-      <c r="J6" s="288"/>
+      <c r="J6" s="287"/>
       <c r="K6" s="6"/>
       <c r="L6" s="74" t="s">
         <v>306</v>
@@ -10797,7 +10799,7 @@
       </c>
       <c r="H7" s="261"/>
       <c r="I7" s="73"/>
-      <c r="J7" s="329"/>
+      <c r="J7" s="328"/>
       <c r="K7" s="6"/>
       <c r="L7" s="74"/>
       <c r="M7" s="57"/>
@@ -10816,16 +10818,16 @@
         <v>5685687.8399999989</v>
       </c>
       <c r="F8" s="262"/>
-      <c r="G8" s="282">
+      <c r="G8" s="281">
         <f>IF(G6="","",G6*(1-G9))</f>
         <v>6768675.9999999991</v>
       </c>
       <c r="H8" s="262"/>
-      <c r="I8" s="282" t="str">
+      <c r="I8" s="281" t="str">
         <f>IF(I6="","",I6*(1-I9))</f>
         <v/>
       </c>
-      <c r="J8" s="330"/>
+      <c r="J8" s="329"/>
       <c r="K8" s="6"/>
       <c r="L8" s="116"/>
       <c r="M8" s="1"/>
@@ -10850,7 +10852,7 @@
       </c>
       <c r="H9" s="186"/>
       <c r="I9" s="73"/>
-      <c r="J9" s="331"/>
+      <c r="J9" s="330"/>
       <c r="K9" s="6"/>
       <c r="L9" s="74"/>
     </row>
@@ -10901,7 +10903,7 @@
       </c>
       <c r="H11" s="189"/>
       <c r="I11" s="65"/>
-      <c r="J11" s="332"/>
+      <c r="J11" s="331"/>
       <c r="K11" s="6"/>
       <c r="L11" s="74"/>
     </row>
@@ -10925,7 +10927,7 @@
       </c>
       <c r="H12" s="263"/>
       <c r="I12" s="76"/>
-      <c r="J12" s="333"/>
+      <c r="J12" s="332"/>
       <c r="K12" s="6"/>
       <c r="L12" s="74"/>
     </row>
@@ -10977,7 +10979,7 @@
         <f>IF(I7="","",IF(ABS(G15+I15)=ABS(G15)+ABS(I15),IF(I15&lt;0,-1,1)*(I15-G15)/G15,"Turn"))</f>
         <v/>
       </c>
-      <c r="J14" s="334"/>
+      <c r="J14" s="333"/>
       <c r="K14" s="6"/>
       <c r="L14" s="77"/>
       <c r="M14" s="78"/>
@@ -10986,100 +10988,100 @@
       <c r="B15" s="134" t="s">
         <v>248</v>
       </c>
-      <c r="C15" s="320">
+      <c r="C15" s="319">
         <f>C10-C12</f>
         <v>8070302</v>
       </c>
-      <c r="D15" s="321"/>
-      <c r="E15" s="320">
+      <c r="D15" s="320"/>
+      <c r="E15" s="319">
         <f>E10-E12</f>
         <v>6779053.6799999988</v>
       </c>
-      <c r="F15" s="321"/>
-      <c r="G15" s="320">
+      <c r="F15" s="320"/>
+      <c r="G15" s="319">
         <f>IF(G7="","",G10-G12)</f>
         <v>8070302</v>
       </c>
-      <c r="H15" s="321"/>
-      <c r="I15" s="320" t="str">
+      <c r="H15" s="320"/>
+      <c r="I15" s="319" t="str">
         <f>IF(I7="","",I10-I12)</f>
         <v/>
       </c>
-      <c r="J15" s="335"/>
+      <c r="J15" s="334"/>
       <c r="K15" s="6"/>
       <c r="L15" s="79"/>
       <c r="M15" s="56"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="316" t="s">
+      <c r="B16" s="315" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="317">
+      <c r="C16" s="316">
         <v>0.25</v>
       </c>
-      <c r="D16" s="318"/>
-      <c r="E16" s="319">
+      <c r="D16" s="317"/>
+      <c r="E16" s="318">
         <f>IF(E15="","",C16)</f>
         <v>0.25</v>
       </c>
-      <c r="F16" s="319"/>
-      <c r="G16" s="319">
+      <c r="F16" s="318"/>
+      <c r="G16" s="318">
         <f>IF(G15="","",E16)</f>
         <v>0.25</v>
       </c>
-      <c r="H16" s="319"/>
-      <c r="I16" s="319" t="str">
+      <c r="H16" s="318"/>
+      <c r="I16" s="318" t="str">
         <f>IF(I15="","",G16)</f>
         <v/>
       </c>
-      <c r="J16" s="336"/>
+      <c r="J16" s="335"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="325" t="s">
+      <c r="B17" s="324" t="s">
         <v>279</v>
       </c>
       <c r="C17" s="188"/>
-      <c r="D17" s="327"/>
-      <c r="E17" s="326">
+      <c r="D17" s="326"/>
+      <c r="E17" s="325">
         <f>E18/C18-1</f>
         <v>-0.16000000000000014</v>
       </c>
-      <c r="F17" s="326"/>
-      <c r="G17" s="326">
+      <c r="F17" s="325"/>
+      <c r="G17" s="325">
         <f>IF(G18="","",G18/E18-1)</f>
         <v>0.19047619047619069</v>
       </c>
-      <c r="H17" s="326"/>
-      <c r="I17" s="326" t="str">
+      <c r="H17" s="325"/>
+      <c r="I17" s="325" t="str">
         <f>IF(I18="","",I18/G18-1)</f>
         <v/>
       </c>
-      <c r="J17" s="337"/>
+      <c r="J17" s="336"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="322" t="s">
+      <c r="B18" s="321" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="323">
+      <c r="C18" s="322">
         <f>IF(C15&lt;=0,C15,C15*(1-C16))</f>
         <v>6052726.5</v>
       </c>
-      <c r="D18" s="323"/>
-      <c r="E18" s="324">
+      <c r="D18" s="322"/>
+      <c r="E18" s="323">
         <f>IF(E15="","",IF(E15&lt;=0,E15,E15*(1-E16)))</f>
         <v>5084290.2599999988</v>
       </c>
-      <c r="F18" s="323"/>
-      <c r="G18" s="324">
+      <c r="F18" s="322"/>
+      <c r="G18" s="323">
         <f>IF(G15="","",IF(G15&lt;=0,G15,G15*(1-G16)))</f>
         <v>6052726.5</v>
       </c>
-      <c r="H18" s="323"/>
-      <c r="I18" s="324" t="str">
+      <c r="H18" s="322"/>
+      <c r="I18" s="323" t="str">
         <f>IF(I15="","",IF(I15&lt;=0,I15,I15*(1-I16)))</f>
         <v/>
       </c>
-      <c r="J18" s="338"/>
+      <c r="J18" s="337"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12030,19 +12032,19 @@
       <c r="B2" s="92" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="286" t="s">
+      <c r="C2" s="285" t="s">
         <v>264</v>
       </c>
-      <c r="D2" s="286">
+      <c r="D2" s="285">
         <v>1</v>
       </c>
-      <c r="E2" s="286">
+      <c r="E2" s="285">
         <v>2</v>
       </c>
-      <c r="F2" s="286">
+      <c r="F2" s="285">
         <v>3</v>
       </c>
-      <c r="G2" s="286" t="str">
+      <c r="G2" s="285" t="str">
         <f>B24</f>
         <v>Exit after Year 2</v>
       </c>
@@ -12054,19 +12056,19 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!I11&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C3" s="278">
+      <c r="C3" s="277">
         <f>Operation!C3</f>
         <v>44561</v>
       </c>
-      <c r="D3" s="278">
+      <c r="D3" s="277">
         <f>Operation!E3</f>
         <v>44926</v>
       </c>
-      <c r="E3" s="278">
+      <c r="E3" s="277">
         <f>Operation!G3</f>
         <v>45291</v>
       </c>
-      <c r="F3" s="278" t="str">
+      <c r="F3" s="277" t="str">
         <f>Operation!I3</f>
         <v/>
       </c>
@@ -12097,7 +12099,7 @@
         <f>Operation!I18</f>
         <v/>
       </c>
-      <c r="G4" s="304">
+      <c r="G4" s="303">
         <f>IF(F3="",IF(E3="",1,2),3)</f>
         <v>2</v>
       </c>
@@ -12142,7 +12144,7 @@
         <f>D6</f>
         <v>0.3473</v>
       </c>
-      <c r="F6" s="309"/>
+      <c r="F6" s="308"/>
       <c r="G6" s="199"/>
       <c r="H6" s="6"/>
       <c r="I6" s="77"/>
@@ -12151,19 +12153,19 @@
       <c r="B7" s="81" t="s">
         <v>271</v>
       </c>
-      <c r="C7" s="310">
+      <c r="C7" s="309">
         <f>C4*C6</f>
         <v>2102111.9134499999</v>
       </c>
-      <c r="D7" s="310">
+      <c r="D7" s="309">
         <f>D4*D6</f>
         <v>1765774.0072979997</v>
       </c>
-      <c r="E7" s="310">
+      <c r="E7" s="309">
         <f>E4*E6</f>
         <v>2102111.9134499999</v>
       </c>
-      <c r="F7" s="311"/>
+      <c r="F7" s="310"/>
       <c r="G7" s="200"/>
       <c r="H7" s="82"/>
       <c r="I7" s="56"/>
@@ -12205,19 +12207,19 @@
         <f>C8/(Common_Shares/Data!$C$4)</f>
         <v>0.43565338893354566</v>
       </c>
-      <c r="D9" s="306">
+      <c r="D9" s="305">
         <f>D8/(Common_Shares/Data!$C$4)</f>
         <v>0.36594884670417827</v>
       </c>
-      <c r="E9" s="306">
+      <c r="E9" s="305">
         <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
         <v>0.43565338893354566</v>
       </c>
-      <c r="F9" s="306" t="str">
+      <c r="F9" s="305" t="str">
         <f>IF(F8="","",F8/(Common_Shares/Data!$C$4))</f>
         <v/>
       </c>
-      <c r="G9" s="307">
+      <c r="G9" s="306">
         <f>G8*Data!C$4/Dashboard!I5</f>
         <v>0.43565338893354566</v>
       </c>
@@ -12229,16 +12231,16 @@
       <c r="B10" s="234" t="s">
         <v>249</v>
       </c>
-      <c r="C10" s="312">
+      <c r="C10" s="311">
         <f>C11/C9</f>
         <v>1.0802165481875434</v>
       </c>
-      <c r="D10" s="312">
+      <c r="D10" s="311">
         <f>D11/D9</f>
         <v>0.74245349438041508</v>
       </c>
-      <c r="E10" s="328"/>
-      <c r="F10" s="328"/>
+      <c r="E10" s="327"/>
+      <c r="F10" s="327"/>
       <c r="G10" s="235"/>
       <c r="H10" s="82"/>
       <c r="I10" s="56"/>
@@ -12248,17 +12250,17 @@
       <c r="B11" s="234" t="s">
         <v>263</v>
       </c>
-      <c r="C11" s="284">
+      <c r="C11" s="283">
         <f>0.2973+0.1733</f>
         <v>0.47060000000000002</v>
       </c>
-      <c r="D11" s="285">
+      <c r="D11" s="284">
         <f>0.1131+0.1586</f>
         <v>0.2717</v>
       </c>
-      <c r="E11" s="285"/>
-      <c r="F11" s="285"/>
-      <c r="G11" s="283"/>
+      <c r="E11" s="284"/>
+      <c r="F11" s="284"/>
+      <c r="G11" s="282"/>
       <c r="H11" s="82"/>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
@@ -12429,7 +12431,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-0.13050508947363906</v>
       </c>
-      <c r="E20" s="449" t="str">
+      <c r="E20" s="448" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12452,7 +12454,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>-0.34997160099055624</v>
       </c>
-      <c r="E21" s="449"/>
+      <c r="E21" s="448"/>
       <c r="F21" s="148">
         <f>D18</f>
         <v>1.8156396202299327</v>
@@ -12474,11 +12476,11 @@
         <f>B3</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="E23" s="452" t="s">
+      <c r="E23" s="451" t="s">
         <v>232</v>
       </c>
-      <c r="F23" s="452"/>
-      <c r="G23" s="452"/>
+      <c r="F23" s="451"/>
+      <c r="G23" s="451"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="127" t="str">
@@ -12491,7 +12493,7 @@
       <c r="D24" s="202" t="s">
         <v>221</v>
       </c>
-      <c r="E24" s="305" t="s">
+      <c r="E24" s="304" t="s">
         <v>229</v>
       </c>
       <c r="F24" s="265" t="s">
@@ -12512,14 +12514,14 @@
         <f>1/D25</f>
         <v>0.125</v>
       </c>
-      <c r="D25" s="298">
+      <c r="D25" s="297">
         <v>8</v>
       </c>
       <c r="E25" s="206">
         <f ca="1">G9*D25/G14</f>
         <v>2.7666856483611846</v>
       </c>
-      <c r="F25" s="450">
+      <c r="F25" s="449">
         <f ca="1">SUM(C15:F15)</f>
         <v>0.52035441438061181</v>
       </c>
@@ -12530,21 +12532,21 @@
       <c r="I25" s="74"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="302" t="s">
+      <c r="B26" s="301" t="s">
         <v>313</v>
       </c>
-      <c r="C26" s="303">
+      <c r="C26" s="302">
         <f t="shared" ref="C26" si="0">1/D26</f>
         <v>6.25E-2</v>
       </c>
-      <c r="D26" s="315">
+      <c r="D26" s="314">
         <v>16</v>
       </c>
       <c r="E26" s="207">
         <f ca="1">G9*D26/G14</f>
         <v>5.5333712967223692</v>
       </c>
-      <c r="F26" s="451"/>
+      <c r="F26" s="450"/>
       <c r="G26" s="207">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>7.3996399524977274</v>
@@ -12555,8 +12557,8 @@
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="30"/>
-      <c r="C27" s="358"/>
-      <c r="D27" s="359"/>
+      <c r="C27" s="357"/>
+      <c r="D27" s="358"/>
       <c r="E27" s="123"/>
       <c r="F27" s="124"/>
       <c r="G27" s="123"/>
@@ -12617,10 +12619,10 @@
       <c r="I31" s="88"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="447" t="s">
+      <c r="C32" s="446" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="448"/>
+      <c r="D32" s="447"/>
       <c r="E32" s="30" t="s">
         <v>220</v>
       </c>
@@ -12674,7 +12676,7 @@
         <f ca="1">C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
         <v>3.2014482275143328</v>
       </c>
-      <c r="G34" s="281">
+      <c r="G34" s="280">
         <f>Dashboard!D10+4.5%</f>
         <v>7.3999999999999996E-2</v>
       </c>
@@ -13727,7 +13729,7 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="12"/>
-      <c r="G10" s="295"/>
+      <c r="G10" s="294"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="99" t="s">
@@ -13735,7 +13737,7 @@
       </c>
       <c r="C11" s="93"/>
       <c r="E11" s="6"/>
-      <c r="G11" s="295"/>
+      <c r="G11" s="294"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="53" t="s">
@@ -13749,7 +13751,7 @@
         <v>163</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="295"/>
+      <c r="G12" s="294"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="53" t="s">
@@ -13763,7 +13765,7 @@
         <v>156</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="295"/>
+      <c r="G13" s="294"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="53" t="s">
@@ -13777,7 +13779,7 @@
         <v>156</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="295"/>
+      <c r="G14" s="294"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="53" t="s">
@@ -13791,7 +13793,7 @@
         <v>163</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="295"/>
+      <c r="G15" s="294"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="53" t="s">
@@ -13805,7 +13807,7 @@
         <v>156</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="295"/>
+      <c r="G16" s="294"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="99" t="s">
@@ -13813,7 +13815,7 @@
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="23"/>
-      <c r="G17" s="295"/>
+      <c r="G17" s="294"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="53" t="s">
@@ -13830,7 +13832,7 @@
         <v>Strongly agree</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="295"/>
+      <c r="G18" s="294"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="53" t="s">
@@ -13844,7 +13846,7 @@
         <v>156</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="295"/>
+      <c r="G19" s="294"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="53" t="s">
@@ -13858,7 +13860,7 @@
         <v>179</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="295"/>
+      <c r="G20" s="294"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="53" t="s">
@@ -13872,7 +13874,7 @@
         <v>156</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="295"/>
+      <c r="G21" s="294"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="53" t="s">
@@ -13886,7 +13888,7 @@
         <v>163</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="295"/>
+      <c r="G22" s="294"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="99" t="s">
@@ -13894,7 +13896,7 @@
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="23"/>
-      <c r="G23" s="295"/>
+      <c r="G23" s="294"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="s">
@@ -13908,7 +13910,7 @@
         <v>165</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="295"/>
+      <c r="G24" s="294"/>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="53" t="s">
@@ -13922,7 +13924,7 @@
         <v>156</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="295"/>
+      <c r="G25" s="294"/>
     </row>
     <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="53" t="s">
@@ -13936,7 +13938,7 @@
         <v>155</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="295"/>
+      <c r="G26" s="294"/>
     </row>
     <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="53" t="s">
@@ -13950,7 +13952,7 @@
         <v>156</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="295"/>
+      <c r="G27" s="294"/>
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="53" t="s">
@@ -13964,7 +13966,7 @@
         <v>155</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="295"/>
+      <c r="G28" s="294"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="99" t="s">
@@ -13972,7 +13974,7 @@
       </c>
       <c r="D29" s="38"/>
       <c r="E29" s="23"/>
-      <c r="G29" s="295"/>
+      <c r="G29" s="294"/>
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
@@ -13987,7 +13989,7 @@
         <v>Medium</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="295"/>
+      <c r="G30" s="294"/>
     </row>
     <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="53" t="s">
@@ -14001,7 +14003,7 @@
         <v>179</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="295"/>
+      <c r="G31" s="294"/>
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="53" t="s">
@@ -14015,7 +14017,7 @@
         <v>165</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="295"/>
+      <c r="G32" s="294"/>
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="53" t="s">
@@ -14029,7 +14031,7 @@
         <v>179</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="295"/>
+      <c r="G33" s="294"/>
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="53" t="s">
@@ -14043,7 +14045,7 @@
         <v>156</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="295"/>
+      <c r="G34" s="294"/>
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="53" t="s">
@@ -14056,7 +14058,7 @@
       <c r="E35" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="G35" s="295"/>
+      <c r="G35" s="294"/>
     </row>
     <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
@@ -14071,7 +14073,7 @@
         <v>Low</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="295"/>
+      <c r="G36" s="294"/>
     </row>
     <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="53" t="s">
@@ -14085,7 +14087,7 @@
         <v>179</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="295"/>
+      <c r="G37" s="294"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="53" t="s">
@@ -14099,7 +14101,7 @@
         <v>179</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="295"/>
+      <c r="G38" s="294"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="53" t="s">
@@ -14113,7 +14115,7 @@
         <v>156</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="295"/>
+      <c r="G39" s="294"/>
     </row>
     <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="53" t="s">
@@ -14127,7 +14129,7 @@
         <v>165</v>
       </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="295"/>
+      <c r="G40" s="294"/>
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="53" t="s">
@@ -14140,7 +14142,7 @@
       <c r="E41" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="G41" s="295"/>
+      <c r="G41" s="294"/>
     </row>
     <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
@@ -14155,7 +14157,7 @@
         <v>Low</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="295"/>
+      <c r="G42" s="294"/>
     </row>
     <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="53" t="s">
@@ -14169,7 +14171,7 @@
         <v>179</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="295"/>
+      <c r="G43" s="294"/>
     </row>
     <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="53" t="s">
@@ -14183,7 +14185,7 @@
         <v>163</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="295"/>
+      <c r="G44" s="294"/>
     </row>
     <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="53" t="s">
@@ -14197,7 +14199,7 @@
         <v>165</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="295"/>
+      <c r="G45" s="294"/>
     </row>
     <row r="46" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="53" t="s">
@@ -14211,7 +14213,7 @@
         <v>179</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="295"/>
+      <c r="G46" s="294"/>
     </row>
     <row r="47" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="53" t="s">
@@ -14225,7 +14227,7 @@
         <v>179</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="295"/>
+      <c r="G47" s="294"/>
     </row>
     <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="53" t="s">
@@ -14239,7 +14241,7 @@
         <v>179</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="295"/>
+      <c r="G48" s="294"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
@@ -14254,7 +14256,7 @@
         <v>Very Low</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="295"/>
+      <c r="G49" s="294"/>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="53" t="s">
@@ -14267,7 +14269,7 @@
       <c r="E50" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="G50" s="295"/>
+      <c r="G50" s="294"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="53" t="s">
@@ -14281,7 +14283,7 @@
         <v>179</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="295"/>
+      <c r="G51" s="294"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="53" t="s">
@@ -14294,7 +14296,7 @@
       <c r="E52" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="G52" s="295"/>
+      <c r="G52" s="294"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="53" t="s">
@@ -14308,7 +14310,7 @@
         <v>179</v>
       </c>
       <c r="F53" s="53"/>
-      <c r="G53" s="295"/>
+      <c r="G53" s="294"/>
       <c r="H53" s="53"/>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14323,7 +14325,7 @@
         <v>310</v>
       </c>
       <c r="F54" s="53"/>
-      <c r="G54" s="295"/>
+      <c r="G54" s="294"/>
       <c r="H54" s="53"/>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14339,7 +14341,7 @@
         <v>High</v>
       </c>
       <c r="F55" s="53"/>
-      <c r="G55" s="295"/>
+      <c r="G55" s="294"/>
       <c r="H55" s="53"/>
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14354,7 +14356,7 @@
         <v>163</v>
       </c>
       <c r="F56" s="53"/>
-      <c r="G56" s="295"/>
+      <c r="G56" s="294"/>
       <c r="H56" s="53"/>
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14369,7 +14371,7 @@
         <v>155</v>
       </c>
       <c r="F57" s="53"/>
-      <c r="G57" s="295"/>
+      <c r="G57" s="294"/>
       <c r="H57" s="53"/>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14384,7 +14386,7 @@
         <v>163</v>
       </c>
       <c r="F58" s="53"/>
-      <c r="G58" s="295"/>
+      <c r="G58" s="294"/>
       <c r="H58" s="53"/>
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14399,7 +14401,7 @@
         <v>165</v>
       </c>
       <c r="F59" s="53"/>
-      <c r="G59" s="295"/>
+      <c r="G59" s="294"/>
       <c r="H59" s="53"/>
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14414,7 +14416,7 @@
         <v>165</v>
       </c>
       <c r="F60" s="53"/>
-      <c r="G60" s="295"/>
+      <c r="G60" s="294"/>
       <c r="H60" s="53"/>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14429,7 +14431,7 @@
         <v>165</v>
       </c>
       <c r="F61" s="53"/>
-      <c r="G61" s="295"/>
+      <c r="G61" s="294"/>
       <c r="H61" s="53"/>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14445,12 +14447,12 @@
         <v>Low</v>
       </c>
       <c r="F62" s="53"/>
-      <c r="G62" s="295"/>
+      <c r="G62" s="294"/>
       <c r="H62" s="53"/>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D63" s="6"/>
-      <c r="G63" s="295"/>
+      <c r="G63" s="294"/>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="97" t="s">
@@ -14464,10 +14466,10 @@
         <f>AVERAGE(AVERAGE(D12:D16)/4,AVERAGE(D18:D22)/4,AVERAGE(D24:D28)/4,D62)</f>
         <v>0.60888605442176869</v>
       </c>
-      <c r="G64" s="295"/>
+      <c r="G64" s="294"/>
     </row>
     <row r="65" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G65" s="296"/>
+      <c r="G65" s="295"/>
     </row>
     <row r="66" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="54" t="s">

--- a/financial_models/Opportunities/6186.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6186.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB619C53-C4DF-44FF-A1E1-5ADB29AB42F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7CFD3F-FCED-4413-9C51-C2C57AC49B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1170,7 +1170,7 @@
     <t>5. The probability of a recession affecting the company</t>
   </si>
   <si>
-    <t>Quarter</t>
+    <t>FY</t>
   </si>
 </sst>
 </file>
@@ -4444,8 +4444,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:D29"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4553,11 +4553,11 @@
       </c>
       <c r="D6" s="270">
         <f>EOMONTH(EDATE(Asset_Model!D9,C6),0)</f>
-        <v>44985</v>
+        <v>45169</v>
       </c>
       <c r="E6" s="346">
         <f>IF(Asset_Model!E9="FY",Asset_Model!D9,Data!C3)</f>
-        <v>44561</v>
+        <v>44926</v>
       </c>
       <c r="G6" s="134" t="s">
         <v>9</v>
@@ -4576,11 +4576,11 @@
       </c>
       <c r="C7" s="145">
         <f>(Data!C39)/I4</f>
-        <v>7.3349655365378019E-2</v>
+        <v>4.6110061862793608E-2</v>
       </c>
       <c r="D7" s="145">
         <f>(Data!C40)/I4</f>
-        <v>7.8838726041244641E-3</v>
+        <v>3.2038732889327734E-3</v>
       </c>
       <c r="E7" s="153"/>
       <c r="F7" s="6"/>
@@ -4607,11 +4607,11 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>5.9745294495229375</v>
+        <v>8.3065269149485967</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.16737719822936839</v>
+        <v>0.12038725814520379</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -4630,11 +4630,11 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>1.8323696268448846</v>
+        <v>1.6114365683553398</v>
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>5.4642860810123404</v>
+        <v>5.470530468239148</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
@@ -4688,21 +4688,21 @@
       </c>
       <c r="D14" s="184">
         <f ca="1">MIN('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>3.0132085224838958</v>
+        <v>2.8557615742037745</v>
       </c>
       <c r="E14" s="127" t="s">
         <v>235</v>
       </c>
       <c r="F14" s="184">
         <f ca="1">MAX('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>8.3897563803663164</v>
+        <v>5.3205023414305712</v>
       </c>
       <c r="G14" s="185" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="193">
         <f ca="1">IF('FCFF Model'!C33&lt;0, "Error", 'FCFF Model'!C33)</f>
-        <v>6.2869135340797353</v>
+        <v>4.3565078551329819</v>
       </c>
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
-        <v>0.13272814393720309</v>
+        <v>-0.2457827735033368</v>
       </c>
       <c r="E16" s="420">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
@@ -4755,20 +4755,20 @@
       </c>
       <c r="H16" s="402">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>1.5696673188279973</v>
+        <v>1.8767039403850325</v>
       </c>
       <c r="I16" s="405" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>3.5303326811720024</v>
+        <v>3.2232960596149671</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="289">
         <f ca="1">H14/(1+C16)</f>
-        <v>5.7153759400724864</v>
+        <v>3.9604616864845288</v>
       </c>
       <c r="C17" s="424"/>
       <c r="D17" s="288">
@@ -4778,37 +4778,37 @@
       <c r="E17" s="421"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
-        <v>5.3556494471448092E-2</v>
+        <v>7.7287832623484543E-2</v>
       </c>
       <c r="G17" s="406"/>
       <c r="H17" s="403"/>
       <c r="I17" s="406"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
-        <v>4.1457086212444896</v>
+        <v>2.0837577460994963</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="349">
         <f>C35</f>
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="C18" s="425"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
-        <v>0.20977365293327818</v>
+        <v>-1.0873036216754534E-2</v>
       </c>
       <c r="E18" s="422"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
-        <v>6.3769895820154077E-2</v>
+        <v>7.6523874984184892E-2</v>
       </c>
       <c r="G18" s="407"/>
       <c r="H18" s="404"/>
       <c r="I18" s="407"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
-        <v>3.2303326811720026</v>
+        <v>2.1232960596149675</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="J25" s="348">
         <f ca="1">H14/(H25+C16+1)</f>
-        <v>5.0295308272637884</v>
+        <v>3.4852062841063853</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
@@ -4945,7 +4945,7 @@
       <c r="D27" s="375"/>
       <c r="E27" s="430">
         <f>E31/D25</f>
-        <v>6.4000000000000001E-2</v>
+        <v>5.3333333333333337E-2</v>
       </c>
       <c r="F27" s="375"/>
       <c r="G27" s="433">
@@ -4955,7 +4955,7 @@
       <c r="H27" s="434"/>
       <c r="I27" s="432">
         <f>C27+E27+G27</f>
-        <v>0.13786666666666667</v>
+        <v>0.12720000000000001</v>
       </c>
       <c r="J27" s="432"/>
     </row>
@@ -4988,7 +4988,7 @@
       </c>
       <c r="D29" s="377"/>
       <c r="E29" s="378">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="F29" s="377"/>
       <c r="G29" s="379"/>
@@ -5007,7 +5007,7 @@
       <c r="D30" s="370"/>
       <c r="E30" s="369">
         <f>E29*$I$5/1000000</f>
-        <v>43527.608179199997</v>
+        <v>36273.006816000001</v>
       </c>
       <c r="F30" s="370"/>
       <c r="G30" s="426">
@@ -5029,7 +5029,7 @@
       <c r="D31" s="372"/>
       <c r="E31" s="363">
         <f>E28*E29</f>
-        <v>38400</v>
+        <v>32000</v>
       </c>
       <c r="F31" s="373"/>
       <c r="G31" s="437">
@@ -5039,7 +5039,7 @@
       <c r="H31" s="438"/>
       <c r="I31" s="363">
         <f>C31+E31+G31</f>
-        <v>82720</v>
+        <v>76320</v>
       </c>
       <c r="J31" s="363"/>
     </row>
@@ -5051,14 +5051,14 @@
       <c r="D32" s="366"/>
       <c r="E32" s="374">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>6.8933333333333335</v>
+        <v>6.36</v>
       </c>
       <c r="F32" s="375"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
       <c r="I32" s="374">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>6.8933333333333335</v>
+        <v>6.36</v>
       </c>
       <c r="J32" s="374"/>
     </row>
@@ -5070,14 +5070,14 @@
       <c r="D33" s="368"/>
       <c r="E33" s="369">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>62510.481746240002</v>
+        <v>57674.08083744</v>
       </c>
       <c r="F33" s="370"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
       <c r="I33" s="369">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>62510.481746240002</v>
+        <v>57674.08083744</v>
       </c>
       <c r="J33" s="369"/>
     </row>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="C35" s="381">
         <f>E29</f>
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="D35" s="382"/>
       <c r="G35" s="428" t="s">
@@ -5097,7 +5097,7 @@
       <c r="H35" s="429"/>
       <c r="I35" s="381">
         <f ca="1">'FCFF Model'!C34*0.8</f>
-        <v>7.1711197080826965</v>
+        <v>4.4692223391603747</v>
       </c>
       <c r="J35" s="382"/>
     </row>
@@ -5116,7 +5116,7 @@
       <c r="H36" s="410"/>
       <c r="I36" s="361">
         <f ca="1">I35/C29-1</f>
-        <v>-0.35278702995643529</v>
+        <v>-0.59664058310826951</v>
       </c>
       <c r="J36" s="362"/>
     </row>
@@ -5186,7 +5186,7 @@
       </c>
       <c r="F45" s="351">
         <f ca="1">I35/C29-1</f>
-        <v>-0.35278702995643529</v>
+        <v>-0.59664058310826951</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="15.75" customHeight="1">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="F46" s="351">
         <f ca="1">D14/C29-1</f>
-        <v>-0.72804977233899859</v>
+        <v>-0.74225978572168105</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="15.75" customHeight="1"/>
@@ -5219,11 +5219,11 @@
       </c>
       <c r="E49" s="356">
         <f ca="1">F45/ABS(F46)</f>
-        <v>-0.4845644396303288</v>
+        <v>-0.80381639230013036</v>
       </c>
       <c r="F49" s="352">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>-0.4845644396303288</v>
+        <v>-0.80381639230013036</v>
       </c>
       <c r="G49" s="74"/>
     </row>
@@ -6311,7 +6311,7 @@
   <dimension ref="A1:N941"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -6353,7 +6353,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="149">
-        <v>44561</v>
+        <v>44926</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="179">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="F3" s="177">
         <f t="array" ref="F3">AVERAGE(C19:INDEX(C19:M19,1,E3))</f>
-        <v>6871044</v>
+        <v>4942048</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="F4" s="178">
         <f>AVERAGE(C16:INDEX(C16:M16,1,E4))</f>
-        <v>8070302</v>
+        <v>5870215</v>
       </c>
       <c r="G4" s="6"/>
       <c r="I4" s="6"/>
@@ -6404,47 +6404,47 @@
       <c r="B6" s="42"/>
       <c r="C6" s="278">
         <f>C3</f>
-        <v>44561</v>
+        <v>44926</v>
       </c>
       <c r="D6" s="279">
         <f>EOMONTH(EDATE(C6,-12),0)</f>
-        <v>44196</v>
+        <v>44561</v>
       </c>
       <c r="E6" s="279">
         <f t="shared" ref="E6:M6" si="0">EOMONTH(EDATE(D6,-12),0)</f>
-        <v>43830</v>
+        <v>44196</v>
       </c>
       <c r="F6" s="279">
         <f t="shared" si="0"/>
-        <v>43465</v>
+        <v>43830</v>
       </c>
       <c r="G6" s="279">
         <f t="shared" si="0"/>
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="H6" s="279">
         <f t="shared" si="0"/>
-        <v>42735</v>
+        <v>43100</v>
       </c>
       <c r="I6" s="279">
         <f t="shared" si="0"/>
-        <v>42369</v>
+        <v>42735</v>
       </c>
       <c r="J6" s="279">
         <f t="shared" si="0"/>
-        <v>42004</v>
+        <v>42369</v>
       </c>
       <c r="K6" s="279">
         <f t="shared" si="0"/>
-        <v>41639</v>
+        <v>42004</v>
       </c>
       <c r="L6" s="279">
         <f t="shared" si="0"/>
-        <v>41274</v>
+        <v>41639</v>
       </c>
       <c r="M6" s="279">
         <f t="shared" si="0"/>
-        <v>40908</v>
+        <v>41274</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
@@ -6453,15 +6453,17 @@
         <v>45</v>
       </c>
       <c r="C7" s="35">
+        <v>21310933</v>
+      </c>
+      <c r="D7" s="35">
         <v>22776265</v>
       </c>
-      <c r="D7" s="35">
+      <c r="E7" s="35">
         <v>18592465</v>
       </c>
-      <c r="E7" s="35">
+      <c r="F7" s="35">
         <v>13721509</v>
       </c>
-      <c r="F7" s="35"/>
       <c r="G7" s="35"/>
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
@@ -6478,15 +6480,15 @@
       </c>
       <c r="C8" s="14">
         <f t="shared" ref="C8:L8" si="1">IF(D7="","",C7/D7-1)</f>
-        <v>0.22502664385814364</v>
+        <v>-6.4335921627185155E-2</v>
       </c>
       <c r="D8" s="14">
         <f t="shared" si="1"/>
+        <v>0.22502664385814364</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" si="1"/>
         <v>0.35498690413714695</v>
-      </c>
-      <c r="E8" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="F8" s="14" t="str">
         <f t="shared" si="1"/>
@@ -6525,15 +6527,17 @@
         <v>47</v>
       </c>
       <c r="C9" s="35">
+        <v>7360333</v>
+      </c>
+      <c r="D9" s="35">
         <v>6768676</v>
       </c>
-      <c r="D9" s="35">
+      <c r="E9" s="35">
         <v>5112187</v>
       </c>
-      <c r="E9" s="35">
+      <c r="F9" s="35">
         <v>4111918</v>
       </c>
-      <c r="F9" s="35"/>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
@@ -6550,19 +6554,19 @@
       </c>
       <c r="C10" s="14">
         <f t="shared" ref="C10:M10" si="2">IF(C7="","",(C7-C9)/C7)</f>
-        <v>0.7028188774586176</v>
+        <v>0.65462173805342072</v>
       </c>
       <c r="D10" s="14">
         <f t="shared" si="2"/>
-        <v>0.72503984813202549</v>
+        <v>0.7028188774586176</v>
       </c>
       <c r="E10" s="14">
         <f t="shared" si="2"/>
+        <v>0.72503984813202549</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="2"/>
         <v>0.70033048114460295</v>
-      </c>
-      <c r="F10" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
       </c>
       <c r="G10" s="14" t="str">
         <f t="shared" si="2"/>
@@ -6600,15 +6604,17 @@
         <v>49</v>
       </c>
       <c r="C11" s="35">
+        <v>8080385</v>
+      </c>
+      <c r="D11" s="35">
         <v>7937287</v>
       </c>
-      <c r="D11" s="35">
+      <c r="E11" s="35">
         <v>6424644</v>
       </c>
-      <c r="E11" s="35">
+      <c r="F11" s="35">
         <v>4761211</v>
       </c>
-      <c r="F11" s="35"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
@@ -6625,19 +6631,19 @@
       </c>
       <c r="C12" s="14">
         <f t="shared" ref="C12:M12" si="3">IF(C7="","",C10-C13)</f>
-        <v>0.34848940333281164</v>
+        <v>0.37916617728562141</v>
       </c>
       <c r="D12" s="14">
         <f t="shared" si="3"/>
-        <v>0.34555095303393063</v>
+        <v>0.34848940333281164</v>
       </c>
       <c r="E12" s="14">
         <f t="shared" si="3"/>
+        <v>0.34555095303393063</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="3"/>
         <v>0.34698887709799264</v>
-      </c>
-      <c r="F12" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
       </c>
       <c r="G12" s="14" t="str">
         <f t="shared" si="3"/>
@@ -6676,19 +6682,19 @@
       </c>
       <c r="C13" s="14">
         <f t="shared" ref="C13:M13" si="4">IF(C14="","",C14/C7)</f>
-        <v>0.35432947412580595</v>
+        <v>0.27545556076779931</v>
       </c>
       <c r="D13" s="14">
         <f t="shared" si="4"/>
-        <v>0.37948889509809486</v>
+        <v>0.35432947412580595</v>
       </c>
       <c r="E13" s="14">
         <f t="shared" si="4"/>
+        <v>0.37948889509809486</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="4"/>
         <v>0.3533416040466103</v>
-      </c>
-      <c r="F13" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
       </c>
       <c r="G13" s="14" t="str">
         <f t="shared" si="4"/>
@@ -6727,19 +6733,19 @@
       </c>
       <c r="C14" s="27">
         <f t="shared" ref="C14:M14" si="5">IF(C7="","",C7-C9-C11)</f>
-        <v>8070302</v>
+        <v>5870215</v>
       </c>
       <c r="D14" s="27">
         <f t="shared" si="5"/>
-        <v>7055634</v>
+        <v>8070302</v>
       </c>
       <c r="E14" s="27">
         <f t="shared" si="5"/>
+        <v>7055634</v>
+      </c>
+      <c r="F14" s="27">
+        <f t="shared" si="5"/>
         <v>4848380</v>
-      </c>
-      <c r="F14" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
       </c>
       <c r="G14" s="27" t="str">
         <f t="shared" si="5"/>
@@ -6778,15 +6784,15 @@
       </c>
       <c r="C15" s="14">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
-        <v>0.14380961370728698</v>
+        <v>-0.27261520076943835</v>
       </c>
       <c r="D15" s="14">
         <f t="shared" ref="D15:M15" si="6">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
+        <v>0.14380961370728698</v>
+      </c>
+      <c r="E15" s="14">
+        <f t="shared" si="6"/>
         <v>0.45525598241061965</v>
-      </c>
-      <c r="E15" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
       </c>
       <c r="F15" s="14" t="str">
         <f t="shared" si="6"/>
@@ -6829,19 +6835,19 @@
       </c>
       <c r="C16" s="143">
         <f>IF(C14="","",C14*(1-Operation!$D$16))</f>
-        <v>8070302</v>
+        <v>5870215</v>
       </c>
       <c r="D16" s="143">
         <f>IF(D14="","",D14*(1-Operation!$D$16))</f>
-        <v>7055634</v>
+        <v>8070302</v>
       </c>
       <c r="E16" s="143">
         <f>IF(E14="","",E14*(1-Operation!$D$16))</f>
+        <v>7055634</v>
+      </c>
+      <c r="F16" s="143">
+        <f>IF(F14="","",F14*(1-Operation!$D$16))</f>
         <v>4848380</v>
-      </c>
-      <c r="F16" s="143" t="str">
-        <f>IF(F14="","",F14*(1-Operation!$D$16))</f>
-        <v/>
       </c>
       <c r="G16" s="143" t="str">
         <f>IF(G14="","",G14*(1-Operation!$D$16))</f>
@@ -6880,19 +6886,19 @@
       </c>
       <c r="C17" s="129">
         <f t="shared" ref="C17:M17" si="7">IF(C7="","",C16/C7)</f>
-        <v>0.35432947412580595</v>
+        <v>0.27545556076779931</v>
       </c>
       <c r="D17" s="129">
         <f t="shared" si="7"/>
-        <v>0.37948889509809486</v>
+        <v>0.35432947412580595</v>
       </c>
       <c r="E17" s="129">
         <f t="shared" si="7"/>
+        <v>0.37948889509809486</v>
+      </c>
+      <c r="F17" s="129">
+        <f t="shared" si="7"/>
         <v>0.3533416040466103</v>
-      </c>
-      <c r="F17" s="129" t="str">
-        <f t="shared" si="7"/>
-        <v/>
       </c>
       <c r="G17" s="129" t="str">
         <f t="shared" si="7"/>
@@ -6930,15 +6936,17 @@
         <v>258</v>
       </c>
       <c r="C18" s="144">
+        <v>33640</v>
+      </c>
+      <c r="D18" s="144">
         <v>29152</v>
       </c>
-      <c r="D18" s="144">
+      <c r="E18" s="144">
         <v>50160</v>
       </c>
-      <c r="E18" s="144">
+      <c r="F18" s="144">
         <v>72693</v>
       </c>
-      <c r="F18" s="144"/>
       <c r="G18" s="144"/>
       <c r="H18" s="144"/>
       <c r="I18" s="144"/>
@@ -6954,15 +6962,17 @@
         <v>56</v>
       </c>
       <c r="C19" s="35">
+        <v>4942048</v>
+      </c>
+      <c r="D19" s="35">
         <v>6871044</v>
       </c>
-      <c r="D19" s="35">
+      <c r="E19" s="35">
         <v>7436873</v>
       </c>
-      <c r="E19" s="35">
+      <c r="F19" s="35">
         <v>3934577</v>
       </c>
-      <c r="F19" s="35"/>
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
@@ -6979,15 +6989,15 @@
       </c>
       <c r="C20" s="14">
         <f>IF(D19="","",IF(ABS(C19+D19)=ABS(C19)+ABS(D19),IF(C19&lt;0,-1,1)*(C19-D19)/D19,"Turn"))</f>
-        <v>-7.6084262834661825E-2</v>
+        <v>-0.28074278086415982</v>
       </c>
       <c r="D20" s="14">
         <f t="shared" ref="D20:M20" si="8">IF(E19="","",IF(ABS(D19+E19)=ABS(D19)+ABS(E19),IF(D19&lt;0,-1,1)*(D19-E19)/E19,"Turn"))</f>
+        <v>-7.6084262834661825E-2</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" si="8"/>
         <v>0.89013278936973406</v>
-      </c>
-      <c r="E20" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v/>
       </c>
       <c r="F20" s="14" t="str">
         <f t="shared" si="8"/>
@@ -7029,15 +7039,17 @@
         <v>57</v>
       </c>
       <c r="C21" s="176">
+        <v>22229681</v>
+      </c>
+      <c r="D21" s="35">
         <v>19969638</v>
       </c>
-      <c r="D21" s="35">
+      <c r="E21" s="35">
         <v>18544395</v>
       </c>
-      <c r="E21" s="35">
+      <c r="F21" s="35">
         <v>17288577</v>
       </c>
-      <c r="F21" s="35"/>
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
@@ -7053,15 +7065,17 @@
         <v>58</v>
       </c>
       <c r="C22" s="176">
+        <v>7459689</v>
+      </c>
+      <c r="D22" s="35">
         <v>6942106</v>
       </c>
-      <c r="D22" s="35">
+      <c r="E22" s="35">
         <v>7107369</v>
       </c>
-      <c r="E22" s="35">
+      <c r="F22" s="35">
         <v>7438500</v>
       </c>
-      <c r="F22" s="35"/>
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
@@ -7077,15 +7091,17 @@
         <v>59</v>
       </c>
       <c r="C23" s="176">
+        <v>513378</v>
+      </c>
+      <c r="D23" s="35">
         <v>374955</v>
       </c>
-      <c r="D23" s="35">
+      <c r="E23" s="35">
         <v>546585</v>
       </c>
-      <c r="E23" s="35">
+      <c r="F23" s="35">
         <v>3151359</v>
       </c>
-      <c r="F23" s="35"/>
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
@@ -7101,15 +7117,17 @@
         <v>60</v>
       </c>
       <c r="C24" s="272">
+        <v>66742</v>
+      </c>
+      <c r="D24" s="140">
         <v>62103</v>
       </c>
-      <c r="D24" s="140">
+      <c r="E24" s="140">
         <v>98331</v>
       </c>
-      <c r="E24" s="140">
+      <c r="F24" s="140">
         <v>57145</v>
       </c>
-      <c r="F24" s="140"/>
       <c r="G24" s="140"/>
       <c r="H24" s="140"/>
       <c r="I24" s="140"/>
@@ -7125,15 +7143,17 @@
         <v>61</v>
       </c>
       <c r="C25" s="176">
+        <v>987867</v>
+      </c>
+      <c r="D25" s="35">
         <v>736627</v>
       </c>
-      <c r="D25" s="35">
+      <c r="E25" s="35">
         <v>871473</v>
       </c>
-      <c r="E25" s="35">
+      <c r="F25" s="35">
         <v>1844550</v>
       </c>
-      <c r="F25" s="35"/>
       <c r="G25" s="35"/>
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
@@ -7149,15 +7169,17 @@
         <v>62</v>
       </c>
       <c r="C26" s="175">
+        <v>125873</v>
+      </c>
+      <c r="D26" s="140">
         <v>115270</v>
       </c>
-      <c r="D26" s="140">
+      <c r="E26" s="140">
         <v>139256</v>
       </c>
-      <c r="E26" s="140">
+      <c r="F26" s="140">
         <v>128486</v>
       </c>
-      <c r="F26" s="140"/>
       <c r="G26" s="140"/>
       <c r="H26" s="140"/>
       <c r="I26" s="140"/>
@@ -7174,19 +7196,19 @@
       </c>
       <c r="C27" s="27">
         <f t="shared" ref="C27:M27" si="9">IF(C7="","",C23+C25)</f>
-        <v>1111582</v>
+        <v>1501245</v>
       </c>
       <c r="D27" s="27">
         <f t="shared" si="9"/>
-        <v>1418058</v>
+        <v>1111582</v>
       </c>
       <c r="E27" s="27">
         <f t="shared" si="9"/>
+        <v>1418058</v>
+      </c>
+      <c r="F27" s="27">
+        <f t="shared" si="9"/>
         <v>4995909</v>
-      </c>
-      <c r="F27" s="27" t="str">
-        <f t="shared" si="9"/>
-        <v/>
       </c>
       <c r="G27" s="27" t="str">
         <f t="shared" si="9"/>
@@ -7224,15 +7246,17 @@
         <v>64</v>
       </c>
       <c r="C28" s="176">
+        <v>25474943</v>
+      </c>
+      <c r="D28" s="35">
         <v>22403370</v>
       </c>
-      <c r="D28" s="35">
+      <c r="E28" s="35">
         <v>19185525</v>
       </c>
-      <c r="E28" s="35">
+      <c r="F28" s="35">
         <v>13029578</v>
       </c>
-      <c r="F28" s="35"/>
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
       <c r="I28" s="35"/>
@@ -7248,15 +7272,17 @@
         <v>212</v>
       </c>
       <c r="C29" s="175">
+        <v>23985999</v>
+      </c>
+      <c r="D29" s="140">
         <v>20921300</v>
       </c>
-      <c r="D29" s="140">
+      <c r="E29" s="140">
         <v>17747109</v>
       </c>
-      <c r="E29" s="140">
+      <c r="F29" s="140">
         <v>13029578</v>
       </c>
-      <c r="F29" s="140"/>
       <c r="G29" s="140"/>
       <c r="H29" s="140"/>
       <c r="I29" s="140"/>
@@ -7272,15 +7298,17 @@
         <v>65</v>
       </c>
       <c r="C30" s="176">
+        <v>10228907</v>
+      </c>
+      <c r="D30" s="35">
         <v>8990916</v>
       </c>
-      <c r="D30" s="35">
+      <c r="E30" s="35">
         <v>7689561</v>
       </c>
-      <c r="E30" s="35">
+      <c r="F30" s="35">
         <v>4502426</v>
       </c>
-      <c r="F30" s="35"/>
       <c r="G30" s="35"/>
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
@@ -7296,15 +7324,17 @@
         <v>236</v>
       </c>
       <c r="C31" s="176">
+        <v>5579482</v>
+      </c>
+      <c r="D31" s="35">
         <v>5988909</v>
       </c>
-      <c r="D31" s="35">
+      <c r="E31" s="35">
         <v>5912195</v>
       </c>
-      <c r="E31" s="35">
+      <c r="F31" s="35">
         <v>4666585</v>
       </c>
-      <c r="F31" s="35"/>
       <c r="G31" s="35"/>
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
@@ -7321,15 +7351,15 @@
       </c>
       <c r="C32" s="14">
         <f t="shared" ref="C32:M32" si="10">IF(D7="","",(C30-D30)/C30)</f>
-        <v>0.14474109200886762</v>
+        <v>0.12102866904548061</v>
       </c>
       <c r="D32" s="14">
         <f t="shared" si="10"/>
+        <v>0.14474109200886762</v>
+      </c>
+      <c r="E32" s="14">
+        <f t="shared" si="10"/>
         <v>0.41447554678348997</v>
-      </c>
-      <c r="E32" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
       </c>
       <c r="F32" s="14" t="str">
         <f t="shared" si="10"/>
@@ -7372,15 +7402,15 @@
       </c>
       <c r="C33" s="248">
         <f>IF(D7="","",(C7-D7)*Asset_Model!$D$65)</f>
-        <v>282824.87999999995</v>
+        <v>-99056.443199999994</v>
       </c>
       <c r="D33" s="248">
         <f>IF(E7="","",(D7-E7)*Asset_Model!$D$65)</f>
+        <v>282824.87999999995</v>
+      </c>
+      <c r="E33" s="248">
+        <f>IF(F7="","",(E7-F7)*Asset_Model!$D$65)</f>
         <v>329276.62559999997</v>
-      </c>
-      <c r="E33" s="248" t="str">
-        <f>IF(F7="","",(E7-F7)*Asset_Model!$D$65)</f>
-        <v/>
       </c>
       <c r="F33" s="248" t="str">
         <f>IF(G7="","",(F7-G7)*Asset_Model!$D$65)</f>
@@ -7423,15 +7453,15 @@
       </c>
       <c r="C34" s="143">
         <f>IF(D7="","",C30-D30+C33+IF($C$49="Yes",C51,0))</f>
-        <v>1584179.88</v>
+        <v>1138934.5567999999</v>
       </c>
       <c r="D34" s="143">
         <f>IF(E7="","",D30-E30+D33+IF($C$49="Yes",D51,0))</f>
+        <v>1584179.88</v>
+      </c>
+      <c r="E34" s="143">
+        <f t="shared" ref="E34:F34" si="11">IF(F7="","",E30-F30+E33+IF($C$49="Yes",E51,0))</f>
         <v>3516411.6255999999</v>
-      </c>
-      <c r="E34" s="143" t="str">
-        <f t="shared" ref="E34:F34" si="11">IF(F7="","",E30-F30+E33+IF($C$49="Yes",E51,0))</f>
-        <v/>
       </c>
       <c r="F34" s="143" t="str">
         <f t="shared" si="11"/>
@@ -7474,15 +7504,15 @@
       </c>
       <c r="C35" s="239">
         <f t="shared" ref="C35:M35" si="19">IF(C34="","",C34/C16)</f>
-        <v>0.19629747189138647</v>
+        <v>0.19401922362298482</v>
       </c>
       <c r="D35" s="239">
         <f t="shared" si="19"/>
+        <v>0.19629747189138647</v>
+      </c>
+      <c r="E35" s="239">
+        <f t="shared" si="19"/>
         <v>0.49838350821485355</v>
-      </c>
-      <c r="E35" s="239" t="str">
-        <f t="shared" si="19"/>
-        <v/>
       </c>
       <c r="F35" s="239" t="str">
         <f t="shared" si="19"/>
@@ -7542,15 +7572,17 @@
         <v>259</v>
       </c>
       <c r="C37" s="165">
+        <v>2132502</v>
+      </c>
+      <c r="D37" s="165">
         <v>3392281</v>
       </c>
-      <c r="D37" s="165">
+      <c r="E37" s="165">
         <v>2684626</v>
       </c>
-      <c r="E37" s="165">
+      <c r="F37" s="165">
         <v>2704164</v>
       </c>
-      <c r="F37" s="165"/>
       <c r="G37" s="165"/>
       <c r="H37" s="165"/>
       <c r="I37" s="165"/>
@@ -7566,15 +7598,17 @@
         <v>70</v>
       </c>
       <c r="C38" s="164">
+        <v>148173</v>
+      </c>
+      <c r="D38" s="164">
         <v>364614</v>
-      </c>
-      <c r="D38" s="164">
-        <v>0</v>
       </c>
       <c r="E38" s="164">
         <v>0</v>
       </c>
-      <c r="F38" s="164"/>
+      <c r="F38" s="164">
+        <v>0</v>
+      </c>
       <c r="G38" s="164"/>
       <c r="H38" s="164"/>
       <c r="I38" s="164"/>
@@ -7591,19 +7625,19 @@
       </c>
       <c r="C39" s="170">
         <f t="shared" ref="C39:M39" si="20">IF(C37="","",C37*$C$4/Common_Shares)</f>
-        <v>0.37408324236342788</v>
+        <v>0.23516131550024738</v>
       </c>
       <c r="D39" s="170">
         <f t="shared" si="20"/>
-        <v>0.29604670091102714</v>
+        <v>0.37408324236342788</v>
       </c>
       <c r="E39" s="170">
         <f t="shared" si="20"/>
+        <v>0.29604670091102714</v>
+      </c>
+      <c r="F39" s="170">
+        <f t="shared" si="20"/>
         <v>0.29820125072258358</v>
-      </c>
-      <c r="F39" s="170" t="str">
-        <f t="shared" si="20"/>
-        <v/>
       </c>
       <c r="G39" s="170" t="str">
         <f t="shared" si="20"/>
@@ -7642,19 +7676,19 @@
       </c>
       <c r="C40" s="172">
         <f t="shared" ref="C40:M40" si="21">IF(C38="","",C38*$C$4/Common_Shares)</f>
-        <v>4.0207750281034765E-2</v>
+        <v>1.6339753773557144E-2</v>
       </c>
       <c r="D40" s="172">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4.0207750281034765E-2</v>
       </c>
       <c r="E40" s="172">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F40" s="172" t="str">
+      <c r="F40" s="172">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G40" s="172" t="str">
         <f t="shared" si="21"/>
@@ -7710,19 +7744,19 @@
       </c>
       <c r="C42" s="48">
         <f>IF(C29="","",C25/C28)</f>
-        <v>3.2880187221833147E-2</v>
+        <v>3.8777986667134057E-2</v>
       </c>
       <c r="D42" s="48">
         <f t="shared" ref="D42:M42" si="22">IF(D29="","",D25/D29)</f>
-        <v>4.9105068324085913E-2</v>
+        <v>3.5209427712427049E-2</v>
       </c>
       <c r="E42" s="48">
         <f t="shared" si="22"/>
+        <v>4.9105068324085913E-2</v>
+      </c>
+      <c r="F42" s="48">
+        <f t="shared" si="22"/>
         <v>0.14156636538804249</v>
-      </c>
-      <c r="F42" s="48" t="str">
-        <f t="shared" si="22"/>
-        <v/>
       </c>
       <c r="G42" s="48" t="str">
         <f t="shared" si="22"/>
@@ -7761,19 +7795,19 @@
       </c>
       <c r="C43" s="14">
         <f t="shared" ref="C43:M43" si="23">IF(C29="","",C27/C29)</f>
-        <v>5.3131593161036841E-2</v>
+        <v>6.2588387500558132E-2</v>
       </c>
       <c r="D43" s="14">
         <f t="shared" si="23"/>
-        <v>7.9903605708400174E-2</v>
+        <v>5.3131593161036841E-2</v>
       </c>
       <c r="E43" s="14">
         <f t="shared" si="23"/>
+        <v>7.9903605708400174E-2</v>
+      </c>
+      <c r="F43" s="14">
+        <f t="shared" si="23"/>
         <v>0.38342830443165543</v>
-      </c>
-      <c r="F43" s="14" t="str">
-        <f t="shared" si="23"/>
-        <v/>
       </c>
       <c r="G43" s="14" t="str">
         <f t="shared" si="23"/>
@@ -7812,19 +7846,19 @@
       </c>
       <c r="C44" s="50">
         <f t="shared" ref="C44:M44" si="24">IF(C14="","",IF(C27&lt;=0,"-",C14/C27))</f>
-        <v>7.2601949293889252</v>
+        <v>3.9102311747915897</v>
       </c>
       <c r="D44" s="50">
         <f t="shared" si="24"/>
-        <v>4.9755609432054264</v>
+        <v>7.2601949293889252</v>
       </c>
       <c r="E44" s="50">
         <f t="shared" si="24"/>
+        <v>4.9755609432054264</v>
+      </c>
+      <c r="F44" s="50">
+        <f t="shared" si="24"/>
         <v>0.97047003858557068</v>
-      </c>
-      <c r="F44" s="50" t="str">
-        <f t="shared" si="24"/>
-        <v/>
       </c>
       <c r="G44" s="50" t="str">
         <f t="shared" si="24"/>
@@ -7863,19 +7897,19 @@
       </c>
       <c r="C45" s="14">
         <f t="shared" ref="C45:M45" si="25">IF(C16="","",IF(C18&lt;=0,"-",C18/C16))</f>
-        <v>3.6122563938747274E-3</v>
+        <v>5.730624857862957E-3</v>
       </c>
       <c r="D45" s="14">
         <f t="shared" si="25"/>
-        <v>7.1092122975766597E-3</v>
+        <v>3.6122563938747274E-3</v>
       </c>
       <c r="E45" s="14">
         <f t="shared" si="25"/>
+        <v>7.1092122975766597E-3</v>
+      </c>
+      <c r="F45" s="14">
+        <f t="shared" si="25"/>
         <v>1.4993255479149736E-2</v>
-      </c>
-      <c r="F45" s="14" t="str">
-        <f t="shared" si="25"/>
-        <v/>
       </c>
       <c r="G45" s="14" t="str">
         <f t="shared" si="25"/>
@@ -7914,19 +7948,19 @@
       </c>
       <c r="C46" s="51">
         <f t="shared" ref="C46:M46" si="26">IF(C21="","",C21/C22)</f>
-        <v>2.8765965256076469</v>
+        <v>2.9799742321697327</v>
       </c>
       <c r="D46" s="51">
         <f t="shared" si="26"/>
-        <v>2.6091785863376447</v>
+        <v>2.8765965256076469</v>
       </c>
       <c r="E46" s="51">
         <f t="shared" si="26"/>
+        <v>2.6091785863376447</v>
+      </c>
+      <c r="F46" s="51">
+        <f t="shared" si="26"/>
         <v>2.3242020568663038</v>
-      </c>
-      <c r="F46" s="51" t="str">
-        <f t="shared" si="26"/>
-        <v/>
       </c>
       <c r="G46" s="51" t="str">
         <f t="shared" si="26"/>
@@ -9448,8 +9482,8 @@
   </sheetPr>
   <dimension ref="A2:J65"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -9483,7 +9517,7 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="273">
-        <v>23380708</v>
+        <v>25474943</v>
       </c>
       <c r="E3" s="156" t="str">
         <f>IF((C46-I46)=D3,"", "Error!")</f>
@@ -9495,7 +9529,7 @@
         <v>261</v>
       </c>
       <c r="I3" s="275">
-        <v>21883166</v>
+        <v>23985999</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
@@ -9505,7 +9539,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="276">
         <f>D3-I3</f>
-        <v>1497542</v>
+        <v>1488944</v>
       </c>
       <c r="E4" s="150"/>
       <c r="F4" s="6"/>
@@ -9515,7 +9549,7 @@
       </c>
       <c r="I4" s="91">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>2.7186537255019307</v>
+        <v>2.97989904848483</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
@@ -9532,11 +9566,11 @@
       <c r="C6" s="6"/>
       <c r="D6" s="59">
         <f>E46-I46-E50+MIN('FCFF Model'!D4,0)</f>
-        <v>12128609.104275459</v>
+        <v>13635490.580166731</v>
       </c>
       <c r="E6" s="14">
         <f>1-D6/D3</f>
-        <v>0.48125569575243576</v>
+        <v>0.46474892681146607</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -9545,7 +9579,7 @@
       </c>
       <c r="I6" s="69">
         <f>C26/I26</f>
-        <v>3.0121293937938121</v>
+        <v>2.9799742321697327</v>
       </c>
       <c r="J6" s="6"/>
     </row>
@@ -9555,7 +9589,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>1.5067969747382584</v>
+        <v>1.6940042983184778</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -9566,7 +9600,7 @@
       </c>
       <c r="I7" s="69">
         <f>C25/I26</f>
-        <v>2.7703025360946434</v>
+        <v>2.7126486104179408</v>
       </c>
       <c r="J7" s="6"/>
     </row>
@@ -9577,7 +9611,7 @@
       </c>
       <c r="I8" s="69">
         <f>C24/I26</f>
-        <v>2.6020800326993134</v>
+        <v>2.5620838884838228</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
@@ -9587,7 +9621,7 @@
       </c>
       <c r="C9" s="255"/>
       <c r="D9" s="271">
-        <v>44742</v>
+        <v>44926</v>
       </c>
       <c r="E9" s="290" t="s">
         <v>335</v>
@@ -9626,14 +9660,14 @@
         <v>91</v>
       </c>
       <c r="C11" s="64">
-        <v>10323805</v>
+        <v>9335936</v>
       </c>
       <c r="D11" s="65">
         <v>1</v>
       </c>
       <c r="E11" s="27">
         <f t="shared" ref="E11:E21" si="0">C11*D11</f>
-        <v>10323805</v>
+        <v>9335936</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -9641,7 +9675,7 @@
         <v>92</v>
       </c>
       <c r="I11" s="64">
-        <v>408143</v>
+        <v>446636</v>
       </c>
       <c r="J11" s="6"/>
     </row>
@@ -9650,15 +9684,15 @@
         <v>93</v>
       </c>
       <c r="C12" s="64">
-        <f>40496+6225700</f>
-        <v>6266196</v>
+        <f>30108+9746305</f>
+        <v>9776413</v>
       </c>
       <c r="D12" s="65">
         <v>0.98</v>
       </c>
       <c r="E12" s="27">
         <f t="shared" si="0"/>
-        <v>6140872.0800000001</v>
+        <v>9580884.7400000002</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -9666,7 +9700,7 @@
         <v>94</v>
       </c>
       <c r="I12" s="64">
-        <v>77791</v>
+        <v>66742</v>
       </c>
       <c r="J12" s="6"/>
     </row>
@@ -9738,7 +9772,7 @@
       </c>
       <c r="I15" s="155">
         <f>I26-SUM(I11:I14)</f>
-        <v>5889735</v>
+        <v>6946311</v>
       </c>
       <c r="J15" s="6"/>
     </row>
@@ -9772,15 +9806,15 @@
         <v>101</v>
       </c>
       <c r="C17" s="64">
-        <f>80+627033+445418</f>
-        <v>1072531</v>
+        <f>185824+506691+430651</f>
+        <v>1123166</v>
       </c>
       <c r="D17" s="65">
         <v>0.6</v>
       </c>
       <c r="E17" s="27">
         <f t="shared" si="0"/>
-        <v>643518.6</v>
+        <v>673899.6</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -9793,14 +9827,14 @@
         <v>102</v>
       </c>
       <c r="C18" s="64">
-        <v>1541808</v>
+        <v>1994166</v>
       </c>
       <c r="D18" s="65">
         <v>0.6</v>
       </c>
       <c r="E18" s="27">
         <f t="shared" si="0"/>
-        <v>925084.79999999993</v>
+        <v>1196499.5999999999</v>
       </c>
       <c r="G18" s="6"/>
     </row>
@@ -9899,15 +9933,15 @@
       </c>
       <c r="C24" s="70">
         <f>SUM(C11:C14)</f>
-        <v>16590001</v>
+        <v>19112349</v>
       </c>
       <c r="D24" s="68">
         <f>IF(E24=0,0,E24/C24)</f>
-        <v>0.99244581600688275</v>
+        <v>0.98976953277694968</v>
       </c>
       <c r="E24" s="27">
         <f>SUM(E11:E14)</f>
-        <v>16464677.08</v>
+        <v>18916820.740000002</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -9916,7 +9950,7 @@
       </c>
       <c r="I24" s="69">
         <f>E24/($I$26-I15)</f>
-        <v>33.882537710882545</v>
+        <v>36.847743261300643</v>
       </c>
       <c r="J24" s="13" t="str">
         <f>IF(I24&lt;1,"Liquidity Problem!","")</f>
@@ -9929,15 +9963,15 @@
       </c>
       <c r="C25" s="70">
         <f>C24+SUM(C15:C17)</f>
-        <v>17662532</v>
+        <v>20235515</v>
       </c>
       <c r="D25" s="68">
         <f>IF(E25=0,0,E25/C25)</f>
-        <v>0.96861512720826204</v>
+        <v>0.96813549543957755</v>
       </c>
       <c r="E25" s="27">
         <f>E24+SUM(E15:E17)</f>
-        <v>17108195.68</v>
+        <v>19590720.340000004</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -9946,7 +9980,7 @@
       </c>
       <c r="I25" s="69">
         <f>E25/$I$26</f>
-        <v>2.6833569434046844</v>
+        <v>2.6262114064004551</v>
       </c>
       <c r="J25" s="13" t="str">
         <f>IF(OR(I25&lt;0.6,C26&lt;I26),"Liquidity Problem!","")</f>
@@ -9959,21 +9993,21 @@
       </c>
       <c r="C26" s="70">
         <f>SUM(C11:C22)</f>
-        <v>19204340</v>
+        <v>22229681</v>
       </c>
       <c r="D26" s="14">
         <f t="shared" ref="D26" si="2">E26/C26</f>
-        <v>0.93902110043875497</v>
+        <v>0.93511103195767875</v>
       </c>
       <c r="E26" s="27">
         <f>SUM(E11:E22)</f>
-        <v>18033280.48</v>
+        <v>20787219.940000005</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>58</v>
       </c>
       <c r="I26" s="64">
-        <v>6375669</v>
+        <v>7459689</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1">
@@ -9992,7 +10026,7 @@
         <v>112</v>
       </c>
       <c r="C28" s="64">
-        <v>390000</v>
+        <v>240000</v>
       </c>
       <c r="D28" s="65">
         <v>0.95</v>
@@ -10006,7 +10040,7 @@
         <v>113</v>
       </c>
       <c r="I28" s="64">
-        <v>563834</v>
+        <v>861994</v>
       </c>
       <c r="J28" s="6"/>
     </row>
@@ -10030,7 +10064,7 @@
         <v>115</v>
       </c>
       <c r="I29" s="64">
-        <v>133685</v>
+        <v>125873</v>
       </c>
       <c r="J29" s="6"/>
     </row>
@@ -10102,7 +10136,7 @@
       </c>
       <c r="I32" s="155">
         <f>I42-SUM(I28:I31)</f>
-        <v>1491822</v>
+        <v>1593274</v>
       </c>
       <c r="J32" s="6"/>
     </row>
@@ -10111,15 +10145,15 @@
         <v>121</v>
       </c>
       <c r="C33" s="64">
-        <f>6399+113558</f>
-        <v>119957</v>
+        <f>4578+105824</f>
+        <v>110402</v>
       </c>
       <c r="D33" s="65">
         <v>0.8</v>
       </c>
       <c r="E33" s="220">
         <f t="shared" si="3"/>
-        <v>95965.6</v>
+        <v>88321.600000000006</v>
       </c>
       <c r="F33" s="204" t="s">
         <v>245</v>
@@ -10135,14 +10169,14 @@
         <v>122</v>
       </c>
       <c r="C34" s="64">
-        <v>120793</v>
+        <v>109812</v>
       </c>
       <c r="D34" s="65">
         <v>0.7</v>
       </c>
       <c r="E34" s="220">
         <f t="shared" si="3"/>
-        <v>84555.099999999991</v>
+        <v>76868.399999999994</v>
       </c>
       <c r="F34" s="204" t="s">
         <v>244</v>
@@ -10179,15 +10213,15 @@
         <v>305</v>
       </c>
       <c r="C36" s="64">
-        <f>8950370+302772+417992</f>
-        <v>9671134</v>
+        <f>319776+408696+9500435</f>
+        <v>10228907</v>
       </c>
       <c r="D36" s="65">
         <v>0.4</v>
       </c>
       <c r="E36" s="27">
         <f t="shared" si="3"/>
-        <v>3868453.6</v>
+        <v>4091562.8000000003</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -10197,14 +10231,14 @@
         <v>304</v>
       </c>
       <c r="C37" s="64">
-        <v>1872000</v>
+        <v>2025292</v>
       </c>
       <c r="D37" s="65">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E37" s="27">
         <f t="shared" si="3"/>
-        <v>936000</v>
+        <v>607587.6</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -10214,14 +10248,14 @@
         <v>123</v>
       </c>
       <c r="C38" s="64">
-        <v>19604</v>
+        <v>18514</v>
       </c>
       <c r="D38" s="65">
         <v>0.3</v>
       </c>
       <c r="E38" s="27">
         <f t="shared" si="3"/>
-        <v>5881.2</v>
+        <v>5554.2</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -10231,14 +10265,14 @@
         <v>124</v>
       </c>
       <c r="C39" s="64">
-        <v>433688</v>
+        <v>438963</v>
       </c>
       <c r="D39" s="65">
         <v>0.95</v>
       </c>
       <c r="E39" s="27">
         <f t="shared" si="3"/>
-        <v>412003.6</v>
+        <v>417014.85</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -10272,15 +10306,15 @@
       </c>
       <c r="C42" s="67">
         <f>SUM(C28:C40)</f>
-        <v>12741378</v>
+        <v>13286092</v>
       </c>
       <c r="D42" s="14">
         <f>E42/C42</f>
-        <v>0.42416048719377142</v>
+        <v>0.39804326584521621</v>
       </c>
       <c r="E42" s="27">
         <f>SUM(E28:E40)</f>
-        <v>5404389.1000000006</v>
+        <v>5288439.45</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -10288,7 +10322,7 @@
         <v>127</v>
       </c>
       <c r="I42" s="64">
-        <v>2189341</v>
+        <v>2581141</v>
       </c>
       <c r="J42" s="6"/>
     </row>
@@ -10304,15 +10338,15 @@
       </c>
       <c r="C44" s="70">
         <f>C24+SUM(C28:C29)</f>
-        <v>16981801</v>
+        <v>19354149</v>
       </c>
       <c r="D44" s="68">
         <f>IF(E44=0,0,E44/C44)</f>
-        <v>0.96963844294253598</v>
+        <v>0.97748295417173869</v>
       </c>
       <c r="E44" s="27">
         <f>E24+SUM(E28:E29)</f>
-        <v>16466207.08</v>
+        <v>18918350.740000002</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -10321,7 +10355,7 @@
       </c>
       <c r="I44" s="69">
         <f>E44/(I46-I15-I32)</f>
-        <v>13.913697527489473</v>
+        <v>12.601774353952887</v>
       </c>
       <c r="J44" s="13" t="str">
         <f>IF(I44&lt;1,"Liquidity Problem!","")</f>
@@ -10334,15 +10368,15 @@
       </c>
       <c r="C45" s="70">
         <f>C44+(C25-C24)+SUM(C30:C33)</f>
-        <v>18174289</v>
+        <v>20587717</v>
       </c>
       <c r="D45" s="68">
         <f>IF(E45=0,0,E45/C45)</f>
-        <v>0.94670505569708951</v>
+        <v>0.95593755927381385</v>
       </c>
       <c r="E45" s="27">
         <f>E44+(E25-E24)+SUM(E30:E33)</f>
-        <v>17205691.280000001</v>
+        <v>19680571.940000005</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -10351,7 +10385,7 @@
       </c>
       <c r="I45" s="69">
         <f>E45/$I$46</f>
-        <v>2.0088349318914984</v>
+        <v>1.9600542923244397</v>
       </c>
       <c r="J45" s="13" t="str">
         <f>IF(OR(I45&lt;0.5,C46&lt;I46),"Liquidity Problem!","")</f>
@@ -10364,15 +10398,15 @@
       </c>
       <c r="C46" s="70">
         <f>C26+C42</f>
-        <v>31945718</v>
+        <v>35515773</v>
       </c>
       <c r="D46" s="14">
         <f>E46/C46</f>
-        <v>0.73367171086904359</v>
+        <v>0.73419940458567534</v>
       </c>
       <c r="E46" s="27">
         <f>E26+E42</f>
-        <v>23437669.580000002</v>
+        <v>26075659.390000004</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -10381,7 +10415,7 @@
       </c>
       <c r="I46" s="155">
         <f>I26+I42</f>
-        <v>8565010</v>
+        <v>10040830</v>
       </c>
       <c r="J46" s="6"/>
     </row>
@@ -10415,15 +10449,15 @@
       </c>
       <c r="C50" s="218">
         <f>D4</f>
-        <v>1497542</v>
+        <v>1488944</v>
       </c>
       <c r="D50" s="214">
         <f>IF(E50=0, 0,E50/C50)</f>
-        <v>1.8323696268448846</v>
+        <v>1.6114365683553395</v>
       </c>
       <c r="E50" s="218">
         <f>MAX(C50,C50*Dashboard!I10)</f>
-        <v>2744050.475724542</v>
+        <v>2399338.8098332728</v>
       </c>
       <c r="I50" s="157"/>
     </row>
@@ -10439,7 +10473,7 @@
       <c r="C52" s="5"/>
       <c r="D52" s="439">
         <f>D53+D54+D55</f>
-        <v>1183453</v>
+        <v>1501245</v>
       </c>
       <c r="E52" s="440"/>
       <c r="F52" s="53"/>
@@ -10452,7 +10486,7 @@
       <c r="C53" s="6"/>
       <c r="D53" s="442">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
-        <v>1183453</v>
+        <v>1501245</v>
       </c>
       <c r="E53" s="372"/>
       <c r="F53" s="5"/>
@@ -10462,7 +10496,7 @@
       </c>
       <c r="I53" s="14">
         <f>D53/I3</f>
-        <v>5.4080520158737544E-2</v>
+        <v>6.2588387500558132E-2</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="14">
@@ -10513,15 +10547,15 @@
       </c>
       <c r="C58" s="213">
         <f>C14+C15+(C19*G19)+(C20*G20)+C29+C30+(C33*G33)+(C34*G34)+(C35*G35)</f>
-        <v>121757</v>
+        <v>112202</v>
       </c>
       <c r="D58" s="129">
         <f>IF(E58=0,0,E58/C58)</f>
-        <v>0.80073917721363053</v>
+        <v>0.80080212473930956</v>
       </c>
       <c r="E58" s="221">
         <f>E14+E15+(E19*G19)+(E20*G20)+E29+E30+(E33*G33)+(E34*G34)+(E35*G35)</f>
-        <v>97495.6</v>
+        <v>89851.6</v>
       </c>
       <c r="H58" s="6"/>
     </row>
@@ -10531,15 +10565,15 @@
       </c>
       <c r="C59" s="213">
         <f>C11+C12+C28</f>
-        <v>16980001</v>
+        <v>19352349</v>
       </c>
       <c r="D59" s="214">
         <f>IF(E59=0,0,E59/C59)</f>
-        <v>0.9696511254622423</v>
+        <v>0.97749481161175844</v>
       </c>
       <c r="E59" s="215">
         <f>E11+E12+E28</f>
-        <v>16464677.08</v>
+        <v>18916820.740000002</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -10551,7 +10585,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="445">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>33073829.166124538</v>
+        <v>30684116.50023327</v>
       </c>
       <c r="E60" s="446"/>
       <c r="F60" s="6"/>
@@ -10572,7 +10606,7 @@
       </c>
       <c r="D63" s="361">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
-        <v>-0.16514252885624575</v>
+        <v>-0.2037619375932532</v>
       </c>
       <c r="E63" s="362"/>
     </row>
@@ -10634,8 +10668,8 @@
   </sheetPr>
   <dimension ref="A1:M901"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -10694,21 +10728,21 @@
       </c>
       <c r="C3" s="277">
         <f>Dashboard!E6</f>
-        <v>44561</v>
+        <v>44926</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>252</v>
       </c>
       <c r="E3" s="277">
         <f>EOMONTH(EDATE(C3,12),0)</f>
-        <v>44926</v>
+        <v>45291</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>252</v>
       </c>
       <c r="G3" s="277">
         <f>IF(G7="","",EOMONTH(EDATE(E3,12),0))</f>
-        <v>45291</v>
+        <v>45657</v>
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="277" t="str">
@@ -10817,17 +10851,17 @@
       </c>
       <c r="C8" s="181">
         <f>Data!C9</f>
-        <v>6768676</v>
+        <v>7360333</v>
       </c>
       <c r="D8" s="262"/>
       <c r="E8" s="227">
         <f>E6*(1-E9)</f>
-        <v>5685687.8399999989</v>
+        <v>6182679.7199999997</v>
       </c>
       <c r="F8" s="262"/>
       <c r="G8" s="281">
         <f>IF(G6="","",G6*(1-G9))</f>
-        <v>6768675.9999999991</v>
+        <v>7360333.0000000009</v>
       </c>
       <c r="H8" s="262"/>
       <c r="I8" s="281" t="str">
@@ -10845,17 +10879,17 @@
       </c>
       <c r="C9" s="186">
         <f>(C6-C8)/C6</f>
-        <v>0.7028188774586176</v>
+        <v>0.67684196684574927</v>
       </c>
       <c r="D9" s="186"/>
       <c r="E9" s="73">
         <f>C9</f>
-        <v>0.7028188774586176</v>
+        <v>0.67684196684574927</v>
       </c>
       <c r="F9" s="186"/>
       <c r="G9" s="73">
         <f>E9</f>
-        <v>0.7028188774586176</v>
+        <v>0.67684196684574927</v>
       </c>
       <c r="H9" s="186"/>
       <c r="I9" s="73"/>
@@ -10869,17 +10903,17 @@
       </c>
       <c r="C10" s="27">
         <f>C6-C8</f>
-        <v>16007589</v>
+        <v>15415932</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27">
         <f>E6-E8</f>
-        <v>13446374.759999998</v>
+        <v>12949382.879999999</v>
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="27">
         <f>IF(G7="","",G6-G8)</f>
-        <v>16007589</v>
+        <v>15415932</v>
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27" t="str">
@@ -10944,17 +10978,17 @@
       </c>
       <c r="C13" s="18">
         <f>C15/C6</f>
-        <v>0.35432947412580595</v>
+        <v>0.32835256351293768</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18">
         <f>E15/E6</f>
-        <v>0.35432947412580595</v>
+        <v>0.32835256351293773</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18">
         <f>IF(G7="","",G15/G6)</f>
-        <v>0.35432947412580595</v>
+        <v>0.32835256351293768</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18" t="str">
@@ -10974,12 +11008,12 @@
       <c r="D14" s="264"/>
       <c r="E14" s="14">
         <f>IF(ABS(C15+E15)=ABS(C15)+ABS(E15),IF(E15&lt;0,-1,1)*(E15-C15)/C15,"Turn")</f>
-        <v>-0.16000000000000014</v>
+        <v>-0.16000000000000003</v>
       </c>
       <c r="F14" s="264"/>
       <c r="G14" s="14">
         <f>IF(G7="","",IF(ABS(E15+G15)=ABS(E15)+ABS(G15),IF(G15&lt;0,-1,1)*(G15-E15)/E15,"Turn"))</f>
-        <v>0.19047619047619069</v>
+        <v>0.19047619047619052</v>
       </c>
       <c r="H14" s="264"/>
       <c r="I14" s="14" t="str">
@@ -10997,17 +11031,17 @@
       </c>
       <c r="C15" s="319">
         <f>C10-C12</f>
-        <v>8070302</v>
+        <v>7478645</v>
       </c>
       <c r="D15" s="320"/>
       <c r="E15" s="319">
         <f>E10-E12</f>
-        <v>6779053.6799999988</v>
+        <v>6282061.7999999998</v>
       </c>
       <c r="F15" s="320"/>
       <c r="G15" s="319">
         <f>IF(G7="","",G10-G12)</f>
-        <v>8070302</v>
+        <v>7478645</v>
       </c>
       <c r="H15" s="320"/>
       <c r="I15" s="319" t="str">
@@ -11051,12 +11085,12 @@
       <c r="D17" s="326"/>
       <c r="E17" s="325">
         <f>E18/C18-1</f>
-        <v>-0.16000000000000014</v>
+        <v>-0.16000000000000003</v>
       </c>
       <c r="F17" s="325"/>
       <c r="G17" s="325">
         <f>IF(G18="","",G18/E18-1)</f>
-        <v>0.19047619047619069</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="H17" s="325"/>
       <c r="I17" s="325" t="str">
@@ -11071,17 +11105,17 @@
       </c>
       <c r="C18" s="322">
         <f>IF(C15&lt;=0,C15,C15*(1-C16))</f>
-        <v>6052726.5</v>
+        <v>5608983.75</v>
       </c>
       <c r="D18" s="322"/>
       <c r="E18" s="323">
         <f>IF(E15="","",IF(E15&lt;=0,E15,E15*(1-E16)))</f>
-        <v>5084290.2599999988</v>
+        <v>4711546.3499999996</v>
       </c>
       <c r="F18" s="322"/>
       <c r="G18" s="323">
         <f>IF(G15="","",IF(G15&lt;=0,G15,G15*(1-G16)))</f>
-        <v>6052726.5</v>
+        <v>5608983.75</v>
       </c>
       <c r="H18" s="322"/>
       <c r="I18" s="323" t="str">
@@ -12016,8 +12050,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -12066,15 +12100,15 @@
       </c>
       <c r="C3" s="277">
         <f>Operation!C3</f>
-        <v>44561</v>
+        <v>44926</v>
       </c>
       <c r="D3" s="277">
         <f>Operation!E3</f>
-        <v>44926</v>
+        <v>45291</v>
       </c>
       <c r="E3" s="277">
         <f>Operation!G3</f>
-        <v>45291</v>
+        <v>45657</v>
       </c>
       <c r="F3" s="277" t="str">
         <f>Operation!I3</f>
@@ -12093,15 +12127,15 @@
       </c>
       <c r="C4" s="182">
         <f>Operation!C18</f>
-        <v>6052726.5</v>
+        <v>5608983.75</v>
       </c>
       <c r="D4" s="45">
         <f>Operation!E18</f>
-        <v>5084290.2599999988</v>
+        <v>4711546.3499999996</v>
       </c>
       <c r="E4" s="45">
         <f>Operation!G18</f>
-        <v>6052726.5</v>
+        <v>5608983.75</v>
       </c>
       <c r="F4" s="201" t="str">
         <f>Operation!I18</f>
@@ -12122,11 +12156,11 @@
       <c r="C5" s="257"/>
       <c r="D5" s="258">
         <f>D4/C4-1</f>
-        <v>-0.16000000000000014</v>
+        <v>-0.16000000000000003</v>
       </c>
       <c r="E5" s="258">
         <f>IF(E4="","",E4/D4-1)</f>
-        <v>0.19047619047619069</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="F5" s="258" t="str">
         <f>IF(F4="","",F4/E4-1)</f>
@@ -12163,15 +12197,15 @@
       </c>
       <c r="C7" s="309">
         <f>C4*C6</f>
-        <v>2102111.9134499999</v>
+        <v>1948000.0563749999</v>
       </c>
       <c r="D7" s="309">
         <f>D4*D6</f>
-        <v>1765774.0072979997</v>
+        <v>1636320.0473549999</v>
       </c>
       <c r="E7" s="309">
         <f>E4*E6</f>
-        <v>2102111.9134499999</v>
+        <v>1948000.0563749999</v>
       </c>
       <c r="F7" s="310"/>
       <c r="G7" s="200"/>
@@ -12185,15 +12219,15 @@
       </c>
       <c r="C8" s="192">
         <f>IF(C4="","",C4-C7)</f>
-        <v>3950614.5865500001</v>
+        <v>3660983.6936250003</v>
       </c>
       <c r="D8" s="191">
         <f>D4-D7</f>
-        <v>3318516.2527019992</v>
+        <v>3075226.3026449997</v>
       </c>
       <c r="E8" s="191">
         <f>IF(E4="","",E4-E7)</f>
-        <v>3950614.5865500001</v>
+        <v>3660983.6936250003</v>
       </c>
       <c r="F8" s="191" t="str">
         <f>IF(F4="","",F4-F7)</f>
@@ -12201,7 +12235,7 @@
       </c>
       <c r="G8" s="229">
         <f>IF(F4="",IF(E4="",D8,E8),F8)</f>
-        <v>3950614.5865500001</v>
+        <v>3660983.6936250003</v>
       </c>
       <c r="H8" s="82"/>
       <c r="I8" s="56"/>
@@ -12213,15 +12247,15 @@
       </c>
       <c r="C9" s="193">
         <f>C8/(Common_Shares/Data!$C$4)</f>
-        <v>0.43565338893354566</v>
+        <v>0.40371438874046062</v>
       </c>
       <c r="D9" s="305">
         <f>D8/(Common_Shares/Data!$C$4)</f>
-        <v>0.36594884670417827</v>
+        <v>0.33912008654198683</v>
       </c>
       <c r="E9" s="305">
         <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
-        <v>0.43565338893354566</v>
+        <v>0.40371438874046062</v>
       </c>
       <c r="F9" s="305" t="str">
         <f>IF(F8="","",F8/(Common_Shares/Data!$C$4))</f>
@@ -12229,7 +12263,7 @@
       </c>
       <c r="G9" s="306">
         <f>G8*Data!C$4/Dashboard!I5</f>
-        <v>0.43565338893354566</v>
+        <v>0.40371438874046062</v>
       </c>
       <c r="H9" s="82"/>
       <c r="I9" s="56"/>
@@ -12241,11 +12275,11 @@
       </c>
       <c r="C10" s="311">
         <f>C11/C9</f>
-        <v>1.0802165481875434</v>
+        <v>1.1656755694742869</v>
       </c>
       <c r="D10" s="311">
         <f>D11/D9</f>
-        <v>0.74245349438041508</v>
+        <v>0.80119111424666534</v>
       </c>
       <c r="E10" s="327"/>
       <c r="F10" s="327"/>
@@ -12287,7 +12321,7 @@
       <c r="F12" s="236"/>
       <c r="G12" s="230">
         <f>G9*D26</f>
-        <v>6.9704542229367306</v>
+        <v>3.2297151099236849</v>
       </c>
       <c r="H12" s="82"/>
       <c r="I12" s="56"/>
@@ -12357,7 +12391,7 @@
       </c>
       <c r="E15" s="196">
         <f ca="1">IF(E9="","",E9/E14)</f>
-        <v>0.37350256252875996</v>
+        <v>0.34612001778160201</v>
       </c>
       <c r="F15" s="196" t="str">
         <f>IF(F9="","",F9/F14)</f>
@@ -12365,7 +12399,7 @@
       </c>
       <c r="G15" s="233">
         <f ca="1">IF(G12=0,0,G12/G14)</f>
-        <v>5.5333712967223692</v>
+        <v>2.5638519835674223</v>
       </c>
       <c r="H15" s="80"/>
       <c r="I15" s="56"/>
@@ -12393,18 +12427,18 @@
       </c>
       <c r="C18" s="84">
         <f>Asset_Model!E59</f>
-        <v>16464677.08</v>
+        <v>18916820.740000002</v>
       </c>
       <c r="D18" s="219">
         <f>C18/(Dashboard!I5/Data!C4)</f>
-        <v>1.8156396202299327</v>
+        <v>2.0860493684417478</v>
       </c>
       <c r="E18" s="85" t="s">
         <v>239</v>
       </c>
       <c r="G18" s="137">
         <f>C18+C19+C20+C21</f>
-        <v>12634669.204275457</v>
+        <v>15106088.53016673</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
@@ -12413,18 +12447,18 @@
       </c>
       <c r="C19" s="84">
         <f>Asset_Model!E58</f>
-        <v>97495.6</v>
+        <v>89851.6</v>
       </c>
       <c r="D19" s="219">
         <f>C19/(Dashboard!I5/Data!C4)</f>
-        <v>1.0751311629009455E-2</v>
+        <v>9.9083707568865254E-3</v>
       </c>
       <c r="E19" s="85" t="s">
         <v>240</v>
       </c>
       <c r="G19" s="197">
         <f>(G18+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
-        <v>1.3932861169592716</v>
+        <v>1.6658214861309424</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
@@ -12433,11 +12467,11 @@
       </c>
       <c r="C20" s="84">
         <f>-Asset_Model!D52</f>
-        <v>-1183453</v>
+        <v>-1501245</v>
       </c>
       <c r="D20" s="219">
         <f>C20/(Dashboard!I5/Data!C4)</f>
-        <v>-0.13050508947363906</v>
+        <v>-0.16554955122582249</v>
       </c>
       <c r="E20" s="450" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
@@ -12456,20 +12490,20 @@
       </c>
       <c r="C21" s="84">
         <f>-Asset_Model!E50</f>
-        <v>-2744050.475724542</v>
+        <v>-2399338.8098332728</v>
       </c>
       <c r="D21" s="219">
         <f>C21/(Dashboard!I5/Data!C4)</f>
-        <v>-0.30259972542603147</v>
+        <v>-0.2645867018418695</v>
       </c>
       <c r="E21" s="450"/>
       <c r="F21" s="148">
         <f>D18</f>
-        <v>1.8156396202299327</v>
+        <v>2.0860493684417478</v>
       </c>
       <c r="G21" s="147">
         <f>SUM(D19:D21)</f>
-        <v>-0.42235350327066107</v>
+        <v>-0.42022788231080543</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
@@ -12520,22 +12554,22 @@
       </c>
       <c r="C25" s="14">
         <f>1/D25</f>
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D25" s="297">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25" s="206">
         <f ca="1">G9*D25/G14</f>
-        <v>2.7666856483611846</v>
+        <v>1.9228889876755666</v>
       </c>
       <c r="F25" s="451">
         <f ca="1">SUM(C15:F15)</f>
-        <v>0.52035441438061181</v>
+        <v>0.49297186963345385</v>
       </c>
       <c r="G25" s="206">
         <f ca="1">$F$25+E25+$G$19</f>
-        <v>4.6803261797010682</v>
+        <v>4.0816823434399634</v>
       </c>
       <c r="I25" s="74"/>
     </row>
@@ -12545,19 +12579,19 @@
       </c>
       <c r="C26" s="302">
         <f t="shared" ref="C26" si="0">1/D26</f>
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D26" s="314">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E26" s="207">
         <f ca="1">G9*D26/G14</f>
-        <v>5.5333712967223692</v>
+        <v>2.5638519835674223</v>
       </c>
       <c r="F26" s="452"/>
       <c r="G26" s="207">
         <f ca="1">$F$25+E26+$G$19</f>
-        <v>7.4470118280622524</v>
+        <v>4.7226453393318186</v>
       </c>
       <c r="I26" s="74" t="s">
         <v>311</v>
@@ -12602,7 +12636,7 @@
       </c>
       <c r="C30" s="252">
         <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)</f>
-        <v>3.0132085224838958</v>
+        <v>2.8557615742037745</v>
       </c>
       <c r="D30" s="23" t="str">
         <f ca="1">IF(C30&lt;E30,"&lt;",IF(C30=E30,"=","&gt;"))</f>
@@ -12610,7 +12644,7 @@
       </c>
       <c r="E30" s="251">
         <f ca="1">G26*Exchange_Rate</f>
-        <v>8.3897563803663164</v>
+        <v>5.3205023414305712</v>
       </c>
       <c r="F30" s="30"/>
       <c r="H30" s="6"/>
@@ -12646,7 +12680,7 @@
       </c>
       <c r="C33" s="253">
         <f ca="1">MIN(C30,E30)+ABS(C30-E30)*'Qualitative Analysis'!$E$64</f>
-        <v>6.2869135340797353</v>
+        <v>4.3565078551329819</v>
       </c>
       <c r="D33" s="119" t="str">
         <f>Dashboard!J4</f>
@@ -12654,11 +12688,11 @@
       </c>
       <c r="E33" s="120">
         <f ca="1">(C33-G19)/C9</f>
-        <v>11.232845976705889</v>
+        <v>6.6648265309459269</v>
       </c>
       <c r="F33" s="158">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>2.2588136091074</v>
+        <v>1.3765168760957989</v>
       </c>
       <c r="G33" s="87"/>
       <c r="H33" s="6"/>
@@ -12670,7 +12704,7 @@
       </c>
       <c r="C34" s="254">
         <f ca="1">MAX(Asset_Model!D7,(G12/(1+G34)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>8.9638996351033704</v>
+        <v>5.5865279239504684</v>
       </c>
       <c r="D34" s="208" t="str">
         <f>D33</f>
@@ -12678,11 +12712,11 @@
       </c>
       <c r="E34" s="120">
         <f ca="1">(C34-G19)/C9</f>
-        <v>17.377607314559228</v>
+        <v>9.7115845933845684</v>
       </c>
       <c r="F34" s="158">
         <f ca="1">C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>3.2206230253822277</v>
+        <v>1.7651638013317694</v>
       </c>
       <c r="G34" s="280">
         <f>Dashboard!D10+4.5%</f>
